--- a/Documentação/Planilhas/Layouts/Gestao_ICMS_Atacado.xlsx
+++ b/Documentação/Planilhas/Layouts/Gestao_ICMS_Atacado.xlsx
@@ -4,20 +4,22 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="360" windowWidth="19875" windowHeight="7710" tabRatio="864"/>
+    <workbookView xWindow="480" yWindow="360" windowWidth="19875" windowHeight="7710" tabRatio="864" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="stg_gestao_icms_endereco_ent" sheetId="79" r:id="rId1"/>
     <sheet name="stg_gestao_icms" sheetId="85" r:id="rId2"/>
     <sheet name="stg_gestao_icms_dev" sheetId="86" r:id="rId3"/>
     <sheet name="stg_gestao_icms_dev_for" sheetId="87" r:id="rId4"/>
+    <sheet name="stg_sige_devolucao_fornecedor" sheetId="88" r:id="rId5"/>
+    <sheet name="Plan2" sheetId="89" r:id="rId6"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1874" uniqueCount="480">
   <si>
     <t>Campo</t>
   </si>
@@ -64,9 +66,6 @@
     <t>[com].[stg_gestao_icms_endereco_ent]</t>
   </si>
   <si>
-    <t>N:\Migracao\Gestão ICMS Atacado\Gestão ICMS Atacado\stg_gestao_icms.dtsx</t>
-  </si>
-  <si>
     <t>NFCA_ID_CIA</t>
   </si>
   <si>
@@ -229,9 +228,6 @@
     <t>Valor do ICMS do item na fatura emitida</t>
   </si>
   <si>
-    <t>Identifica ??? Através do seu código. Ex: 0, 1</t>
-  </si>
-  <si>
     <t>Identifica o CFOP através do seu código. Ex: 5403, 6102, etc</t>
   </si>
   <si>
@@ -322,71 +318,1160 @@
     <t>NR_ENTREGA</t>
   </si>
   <si>
-    <t>CD_CIDADE_ENTREGA [Na stg_dom_municipio pega o CD_ESTADO]</t>
-  </si>
-  <si>
-    <t>CD_CIDADE_FATURA  [Na stg_dom_municipio pega o CD_ESTADO]</t>
-  </si>
-  <si>
-    <t>DT_FATURA</t>
-  </si>
-  <si>
     <t>VL_TOTAL_ITEM</t>
   </si>
   <si>
-    <t>DT_PEDIDO</t>
-  </si>
-  <si>
     <t>VL_BASE_ICMS</t>
   </si>
   <si>
     <t>QT_FATURADA</t>
   </si>
   <si>
-    <t>VL_CMV</t>
-  </si>
-  <si>
     <t>VL_ICMS_PRODUTO</t>
   </si>
   <si>
     <t>????</t>
   </si>
   <si>
-    <t>CD_PRODUTO</t>
-  </si>
-  <si>
     <t>CD_ITEM</t>
   </si>
   <si>
-    <t>?????</t>
-  </si>
-  <si>
-    <t>CD_NATUREZA_OPERACAO_ITEM</t>
-  </si>
-  <si>
-    <t>SQ_NATUREZA_OPERACAO_ITEM</t>
-  </si>
-  <si>
-    <t>??????</t>
-  </si>
-  <si>
-    <t>???????</t>
-  </si>
-  <si>
-    <t>stg_pev_det [chave nr_ordem]</t>
-  </si>
-  <si>
     <t>CD_SITUACAO_NF</t>
   </si>
   <si>
     <t>Identifica a Situacao da nota fiscal  através do seu código. Ex: 1,2,3</t>
+  </si>
+  <si>
+    <t>N:\Migracao\Gestão ICMS Atacado\Gestão ICMS Atacado\stg_gestao_icms_ln.dtsx</t>
+  </si>
+  <si>
+    <t>CD_CIDADE_ENTREGA 
+[Na stg_dom_municipio pega o CD_ESTADO]</t>
+  </si>
+  <si>
+    <t>CD_CIDADE_FATURA  
+[Na stg_dom_municipio pega o CD_ESTADO]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Identifica a Unidade Federativa da Entrega através da sua sigla. Ex: RJ, SP, etc </t>
+  </si>
+  <si>
+    <t>--</t>
+  </si>
+  <si>
+    <t>Banco</t>
+  </si>
+  <si>
+    <t>Tabela Origem</t>
+  </si>
+  <si>
+    <t>MIS_DW</t>
+  </si>
+  <si>
+    <t>MIS_RELATORIO</t>
+  </si>
+  <si>
+    <t>ods_sige_historico_estoque</t>
+  </si>
+  <si>
+    <t>com.ods_gestao_icms_endereco_ent</t>
+  </si>
+  <si>
+    <t>com.ods_beneficio_icms_uf</t>
+  </si>
+  <si>
+    <t>com.ods_beneficio_icms_nbm</t>
+  </si>
+  <si>
+    <t>ods_product</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ods_devolucao_nr</t>
+  </si>
+  <si>
+    <t>ods_fatdev</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ods_endereco </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Identifica a Unidade Federativa através da sua sigla. Ex: RJ, SP, etc </t>
+  </si>
+  <si>
+    <t>Valor do Benefício do item</t>
+  </si>
+  <si>
+    <t>Identifica se a unidade federativa possui benefício de ICMS através do seu código. Ex: 0, 1</t>
+  </si>
+  <si>
+    <t>com.ods_devolucao_fornecedor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ods_sige_historico_estoque </t>
+  </si>
+  <si>
+    <t>[com].[stg_sige_devolucao_fornecedor]</t>
+  </si>
+  <si>
+    <t>FAT_NR_CIA</t>
+  </si>
+  <si>
+    <t>FAT_NR_FILIAL</t>
+  </si>
+  <si>
+    <t>FAT_ID_UNINEG</t>
+  </si>
+  <si>
+    <t>FAT_NR_NF</t>
+  </si>
+  <si>
+    <t>FAT_DS_SERIE</t>
+  </si>
+  <si>
+    <t>FAT_NR_NATOPE</t>
+  </si>
+  <si>
+    <t>FAT_NR_NATOPE_SEQ</t>
+  </si>
+  <si>
+    <t>FAT_DT_FAT</t>
+  </si>
+  <si>
+    <t>FAT_DT_HOUR</t>
+  </si>
+  <si>
+    <t>FAT_NR_CLIENT_FAT</t>
+  </si>
+  <si>
+    <t>FAT_NR_CLIENT_DELIVERY</t>
+  </si>
+  <si>
+    <t>FAT_NR_DELIVERY_SEQ</t>
+  </si>
+  <si>
+    <t>FAT_NR_PED</t>
+  </si>
+  <si>
+    <t>FAT_DS_STATUS</t>
+  </si>
+  <si>
+    <t>FAT_DS_PED_TYPE</t>
+  </si>
+  <si>
+    <t>FAT_NR_ITEM</t>
+  </si>
+  <si>
+    <t>FAT_NR_QTT</t>
+  </si>
+  <si>
+    <t>FAT_VL_ICMS</t>
+  </si>
+  <si>
+    <t>FAT_VL_ICMS_ST_DEST</t>
+  </si>
+  <si>
+    <t>FAT_VL_PRODUCT</t>
+  </si>
+  <si>
+    <t>FAT_VL_FRETE</t>
+  </si>
+  <si>
+    <t>FAT_VL_FRETE_CIA</t>
+  </si>
+  <si>
+    <t>FAT_VL_DESP</t>
+  </si>
+  <si>
+    <t>FAT_VL_DISCOUNT</t>
+  </si>
+  <si>
+    <t>FAT_VL_ITEM_TOTAL</t>
+  </si>
+  <si>
+    <t>FAT_VL_DESP_FINANC</t>
+  </si>
+  <si>
+    <t>FAT_VL_RATE</t>
+  </si>
+  <si>
+    <t>FAT_VL_PIS</t>
+  </si>
+  <si>
+    <t>FAT_VL_ICMS_PRODUCT</t>
+  </si>
+  <si>
+    <t>FAT_VL_ICMS_FRETE</t>
+  </si>
+  <si>
+    <t>FAT_VL_ICMS_OTHER</t>
+  </si>
+  <si>
+    <t>FAT_VL_COFINS</t>
+  </si>
+  <si>
+    <t>FAT_VL_COFINS_PRODUCT</t>
+  </si>
+  <si>
+    <t>FAT_VL_COFINS_FRETE</t>
+  </si>
+  <si>
+    <t>FAT_VL_COFINS_OTHER</t>
+  </si>
+  <si>
+    <t>FAT_VL_PIS_PRODUCT</t>
+  </si>
+  <si>
+    <t>FAT_VL_PIS_FRETE</t>
+  </si>
+  <si>
+    <t>FAT_VL_PIS_OTHER</t>
+  </si>
+  <si>
+    <t>FAT_VL_CSLL</t>
+  </si>
+  <si>
+    <t>FAT_VL_CSLL_PRODUCT</t>
+  </si>
+  <si>
+    <t>FAT_VL_CSLL_FRETE</t>
+  </si>
+  <si>
+    <t>FAT_VL_CSLL_OTHER</t>
+  </si>
+  <si>
+    <t>FAT_VL_DISCOUNT_COND</t>
+  </si>
+  <si>
+    <t>FAT_VL_DISCOUNT_INC</t>
+  </si>
+  <si>
+    <t>FAT_DS_CITY</t>
+  </si>
+  <si>
+    <t>FAT_DS_COUNTRY</t>
+  </si>
+  <si>
+    <t>FAT_NR_STATE</t>
+  </si>
+  <si>
+    <t>FAT_VL_ICMS_BASE</t>
+  </si>
+  <si>
+    <t>N:\Migracao\Gestão ICMS Atacado\Gestão ICMS Atacado\stg_devolucao_fornecedor_ln.dtsx</t>
+  </si>
+  <si>
+    <t>Identifica o Sequencial da Entrega através do seu número. Ex: 3, 1, etc</t>
+  </si>
+  <si>
+    <t>Identifica o Tipo de Pedido através da sua sigla. Ex: SDIG</t>
+  </si>
+  <si>
+    <t>Identifica o Item faturado através do seu código. Ex: 3512204, 1692527, etc</t>
+  </si>
+  <si>
+    <t>Quantidade Faturada do Item</t>
+  </si>
+  <si>
+    <t>Valor do ICMS do item</t>
+  </si>
+  <si>
+    <t>Valor do ICMS Substituição Tributária</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Valor do Produto </t>
+  </si>
+  <si>
+    <t>Valor do Frete</t>
+  </si>
+  <si>
+    <t>Valor do Frete Companhia</t>
+  </si>
+  <si>
+    <t>Valor da Despesa</t>
+  </si>
+  <si>
+    <t>Valor do Desconto</t>
+  </si>
+  <si>
+    <t>Valor Total do Item</t>
+  </si>
+  <si>
+    <t>Valor das Despesas Financeiras</t>
+  </si>
+  <si>
+    <t>???</t>
+  </si>
+  <si>
+    <t>Valor do ICMS do produto</t>
+  </si>
+  <si>
+    <t>Valor do ICMS do Frete</t>
+  </si>
+  <si>
+    <t>Valor do ICMS Outros</t>
+  </si>
+  <si>
+    <t>Valor do COFINS</t>
+  </si>
+  <si>
+    <t>Valor do COFINS do produto</t>
+  </si>
+  <si>
+    <t>Valor do COFINS do Frete</t>
+  </si>
+  <si>
+    <t>Valor do COFINS Outros</t>
+  </si>
+  <si>
+    <t>Valor do PIS</t>
+  </si>
+  <si>
+    <t>Valor do PIS Produto</t>
+  </si>
+  <si>
+    <t>Valor do PIS Frete</t>
+  </si>
+  <si>
+    <t>Valor do PIS Outros</t>
+  </si>
+  <si>
+    <t>Valor do CSLL</t>
+  </si>
+  <si>
+    <t>Valor do CSLL Produto</t>
+  </si>
+  <si>
+    <t>Valor do CSLL Frete</t>
+  </si>
+  <si>
+    <t>Valor do CSLL Outros</t>
+  </si>
+  <si>
+    <t>Valor do Desconto Condicional</t>
+  </si>
+  <si>
+    <t>Valor do Desconton Incondicional</t>
+  </si>
+  <si>
+    <t>Identifica a Cidade através do seu nome. Ex: Manaus. Joinvile, São Paulo, etc</t>
+  </si>
+  <si>
+    <t>Identifica o País através do neu nome. Ex: Brasil</t>
+  </si>
+  <si>
+    <t>Identifica a Unidade Federativa através da sua sigla. Ex: AM, SP, RJ, etc</t>
+  </si>
+  <si>
+    <t>Valor Base do ICMS</t>
+  </si>
+  <si>
+    <t>stg_nfv_det</t>
+  </si>
+  <si>
+    <t>CD_NATUREZA_OPERACAO</t>
+  </si>
+  <si>
+    <t>Identifica o Pedido de Compra através do seu número</t>
+  </si>
+  <si>
+    <t>VL_ICMS_ST</t>
+  </si>
+  <si>
+    <t>VL_FRETE</t>
+  </si>
+  <si>
+    <t>VL_DESPESA</t>
+  </si>
+  <si>
+    <t>VL_DESCONTO</t>
+  </si>
+  <si>
+    <t>VL_PIS</t>
+  </si>
+  <si>
+    <t>VL_ICMS_FRETE</t>
+  </si>
+  <si>
+    <t>VL_COFINS</t>
+  </si>
+  <si>
+    <t>VL_COFINS_OUTROS</t>
+  </si>
+  <si>
+    <t>VL_COFINS_FRETE</t>
+  </si>
+  <si>
+    <t>VL_PIS_FRETE</t>
+  </si>
+  <si>
+    <t>VL_CSLL</t>
+  </si>
+  <si>
+    <t>VL_CSLL_FRETE</t>
+  </si>
+  <si>
+    <t>VL_CSLL_OUTROS</t>
+  </si>
+  <si>
+    <t>Identifica a data da emissão da NF no formato AAAA-MM-DD HH:MM:SS:000. Ex:2014-10-15 00:00:00.000, etc</t>
+  </si>
+  <si>
+    <t>Identifica a hora e minutos da emissão da NF no formato HH:MM. Ex: 19:47</t>
+  </si>
+  <si>
+    <t>Identifica o Fornecedor para o qual foi entregue a mercadoria através do seu CNPJ ou CPF completo, sem qualquer separador. Ex: 76492701000742, 4222931000195, etc</t>
+  </si>
+  <si>
+    <t>Identifica o Status do ??? através da sua sigla. Ex: A [status de que????]</t>
+  </si>
+  <si>
+    <t>Identifica o Fornecedor para o qual foi emitida a NF de devolução através do seu CNPJ ou CPF completo, sem qualquer separador. Ex: 76492701000742, 4222931000195, etc</t>
+  </si>
+  <si>
+    <t>stg_nfv_cab</t>
+  </si>
+  <si>
+    <t>SQ_NATUREZA_OPERACAO</t>
+  </si>
+  <si>
+    <t>DT_EMISSAO_NF 
+[Parte data]</t>
+  </si>
+  <si>
+    <t>DT_EMISSAO_NF 
+[Parte Hora]</t>
+  </si>
+  <si>
+    <t>CD_CLIENTE_FATURA 
+[Trazer CNPJ completo sem separadores]</t>
+  </si>
+  <si>
+    <t>CD_CLIENTE_ENTREGA
+[Trazer CNPJ completo sem separadores]</t>
+  </si>
+  <si>
+    <t>NR_PEDIDO</t>
+  </si>
+  <si>
+    <t>CD_TIPO_ORDEM_VENDA</t>
+  </si>
+  <si>
+    <t>VL_ICMS</t>
+  </si>
+  <si>
+    <t>VL_PRODUTO</t>
+  </si>
+  <si>
+    <t>VL_DESPESA_FINANCEIRA</t>
+  </si>
+  <si>
+    <t>VL_ICMS_OUTROS</t>
+  </si>
+  <si>
+    <t>VL_COFINS_PRODUTO</t>
+  </si>
+  <si>
+    <t>VL_PIS_PRODUTO</t>
+  </si>
+  <si>
+    <t>Vl_PIS_OUTROS</t>
+  </si>
+  <si>
+    <t>VL_CSLL_PRODUTO</t>
+  </si>
+  <si>
+    <t>NÃO TEM MAIS</t>
+  </si>
+  <si>
+    <t>VL_DESCONTO_INCONDICIONAL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CD_CLIENTE_ENTREGA </t>
+  </si>
+  <si>
+    <t>2014-10-13 00:00:00.000</t>
+  </si>
+  <si>
+    <t>NULL</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>SDIG</t>
+  </si>
+  <si>
+    <t>5.06</t>
+  </si>
+  <si>
+    <t>0.00</t>
+  </si>
+  <si>
+    <t>126.56</t>
+  </si>
+  <si>
+    <t>141.75</t>
+  </si>
+  <si>
+    <t>2.34</t>
+  </si>
+  <si>
+    <t>10.77</t>
+  </si>
+  <si>
+    <t>9.62</t>
+  </si>
+  <si>
+    <t>1.15</t>
+  </si>
+  <si>
+    <t>2.09</t>
+  </si>
+  <si>
+    <t>0.25</t>
+  </si>
+  <si>
+    <t>JOINVILLE</t>
+  </si>
+  <si>
+    <t>Brasil</t>
+  </si>
+  <si>
+    <t>SC</t>
+  </si>
+  <si>
+    <t>32.75</t>
+  </si>
+  <si>
+    <t>272.90</t>
+  </si>
+  <si>
+    <t>2.73</t>
+  </si>
+  <si>
+    <t>12.55</t>
+  </si>
+  <si>
+    <t>MANAUS</t>
+  </si>
+  <si>
+    <t>AM</t>
+  </si>
+  <si>
+    <t>60.82</t>
+  </si>
+  <si>
+    <t>506.81</t>
+  </si>
+  <si>
+    <t>5.07</t>
+  </si>
+  <si>
+    <t>23.31</t>
+  </si>
+  <si>
+    <t>18.04</t>
+  </si>
+  <si>
+    <t>150.30</t>
+  </si>
+  <si>
+    <t>165.33</t>
+  </si>
+  <si>
+    <t>12.57</t>
+  </si>
+  <si>
+    <t>11.43</t>
+  </si>
+  <si>
+    <t>1.14</t>
+  </si>
+  <si>
+    <t>2.48</t>
+  </si>
+  <si>
+    <t>VARGINHA</t>
+  </si>
+  <si>
+    <t>MG</t>
+  </si>
+  <si>
+    <t>2014-10-15 00:00:00.000</t>
+  </si>
+  <si>
+    <t>1002.03</t>
+  </si>
+  <si>
+    <t>8350.25</t>
+  </si>
+  <si>
+    <t>ITAJAI</t>
+  </si>
+  <si>
+    <t>83.50</t>
+  </si>
+  <si>
+    <t>384.11</t>
+  </si>
+  <si>
+    <t>27.92</t>
+  </si>
+  <si>
+    <t>232.68</t>
+  </si>
+  <si>
+    <t>2.33</t>
+  </si>
+  <si>
+    <t>10.70</t>
+  </si>
+  <si>
+    <t>51.85</t>
+  </si>
+  <si>
+    <t>432.12</t>
+  </si>
+  <si>
+    <t>4.32</t>
+  </si>
+  <si>
+    <t>19.88</t>
+  </si>
+  <si>
+    <t>163.96</t>
+  </si>
+  <si>
+    <t>1366.35</t>
+  </si>
+  <si>
+    <t>13.66</t>
+  </si>
+  <si>
+    <t>62.85</t>
+  </si>
+  <si>
+    <t>176.54</t>
+  </si>
+  <si>
+    <t>1471.16</t>
+  </si>
+  <si>
+    <t>1618.28</t>
+  </si>
+  <si>
+    <t>26.70</t>
+  </si>
+  <si>
+    <t>122.99</t>
+  </si>
+  <si>
+    <t>111.81</t>
+  </si>
+  <si>
+    <t>11.18</t>
+  </si>
+  <si>
+    <t>24.27</t>
+  </si>
+  <si>
+    <t>2.43</t>
+  </si>
+  <si>
+    <t>CURITIBA</t>
+  </si>
+  <si>
+    <t>PR</t>
+  </si>
+  <si>
+    <t>62.22</t>
+  </si>
+  <si>
+    <t>518.52</t>
+  </si>
+  <si>
+    <t>5.19</t>
+  </si>
+  <si>
+    <t>23.85</t>
+  </si>
+  <si>
+    <t>115.55</t>
+  </si>
+  <si>
+    <t>962.94</t>
+  </si>
+  <si>
+    <t>9.63</t>
+  </si>
+  <si>
+    <t>44.30</t>
+  </si>
+  <si>
+    <t>2014-10-16 00:00:00.000</t>
+  </si>
+  <si>
+    <t>69.68</t>
+  </si>
+  <si>
+    <t>548.05</t>
+  </si>
+  <si>
+    <t>32.61</t>
+  </si>
+  <si>
+    <t>580.66</t>
+  </si>
+  <si>
+    <t>5.81</t>
+  </si>
+  <si>
+    <t>65.77</t>
+  </si>
+  <si>
+    <t>3.91</t>
+  </si>
+  <si>
+    <t>26.71</t>
+  </si>
+  <si>
+    <t>25.21</t>
+  </si>
+  <si>
+    <t>1.50</t>
+  </si>
+  <si>
+    <t>5.48</t>
+  </si>
+  <si>
+    <t>0.33</t>
+  </si>
+  <si>
+    <t>267.25</t>
+  </si>
+  <si>
+    <t>2090.54</t>
+  </si>
+  <si>
+    <t>136.58</t>
+  </si>
+  <si>
+    <t>2227.12</t>
+  </si>
+  <si>
+    <t>22.27</t>
+  </si>
+  <si>
+    <t>250.86</t>
+  </si>
+  <si>
+    <t>16.39</t>
+  </si>
+  <si>
+    <t>102.45</t>
+  </si>
+  <si>
+    <t>96.17</t>
+  </si>
+  <si>
+    <t>6.28</t>
+  </si>
+  <si>
+    <t>20.90</t>
+  </si>
+  <si>
+    <t>1.37</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>93</t>
+  </si>
+  <si>
+    <t>102</t>
+  </si>
+  <si>
+    <t>6202</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>19:09</t>
+  </si>
+  <si>
+    <t>76492701000742</t>
+  </si>
+  <si>
+    <t>1835201</t>
+  </si>
+  <si>
+    <t>1.000000000</t>
+  </si>
+  <si>
+    <t>239</t>
+  </si>
+  <si>
+    <t>101</t>
+  </si>
+  <si>
+    <t>12:18</t>
+  </si>
+  <si>
+    <t>4222931000195</t>
+  </si>
+  <si>
+    <t>3512204</t>
+  </si>
+  <si>
+    <t>3512205</t>
+  </si>
+  <si>
+    <t>246</t>
+  </si>
+  <si>
+    <t>17:43</t>
+  </si>
+  <si>
+    <t>61086336014406</t>
+  </si>
+  <si>
+    <t>1736247</t>
+  </si>
+  <si>
+    <t>3.000000000</t>
+  </si>
+  <si>
+    <t>250</t>
+  </si>
+  <si>
+    <t>6949</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>18:16</t>
+  </si>
+  <si>
+    <t>19191720000100</t>
+  </si>
+  <si>
+    <t>1692527</t>
+  </si>
+  <si>
+    <t>25.000000000</t>
+  </si>
+  <si>
+    <t>252</t>
+  </si>
+  <si>
+    <t>18:26</t>
+  </si>
+  <si>
+    <t>11283356000287</t>
+  </si>
+  <si>
+    <t>249</t>
+  </si>
+  <si>
+    <t>11:09</t>
+  </si>
+  <si>
+    <t>3508387</t>
+  </si>
+  <si>
+    <t>3508388</t>
+  </si>
+  <si>
+    <t>95</t>
+  </si>
+  <si>
+    <t>10:53</t>
+  </si>
+  <si>
+    <t>280273000137</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>455790</t>
+  </si>
+  <si>
+    <t>2.000000000</t>
+  </si>
+  <si>
+    <t>455791</t>
+  </si>
+  <si>
+    <t>96</t>
+  </si>
+  <si>
+    <t>11:13</t>
+  </si>
+  <si>
+    <t>76487032000125</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>2408039</t>
+  </si>
+  <si>
+    <t>253</t>
+  </si>
+  <si>
+    <t>19:47</t>
+  </si>
+  <si>
+    <t>3508391</t>
+  </si>
+  <si>
+    <t>3508392</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>106</t>
+  </si>
+  <si>
+    <t>13:37</t>
+  </si>
+  <si>
+    <t>63699839000180</t>
+  </si>
+  <si>
+    <t>2341272</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>13:40</t>
+  </si>
+  <si>
+    <t>2765</t>
+  </si>
+  <si>
+    <t>execução da view original</t>
+  </si>
+  <si>
+    <t>201</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>6152</t>
+  </si>
+  <si>
+    <t>152</t>
+  </si>
+  <si>
+    <t>31/12/1969</t>
+  </si>
+  <si>
+    <t>21:00:00</t>
+  </si>
+  <si>
+    <t>9358108000397</t>
+  </si>
+  <si>
+    <t>100000</t>
+  </si>
+  <si>
+    <t>21.0000</t>
+  </si>
+  <si>
+    <t>0.0000</t>
+  </si>
+  <si>
+    <t>3339.0000</t>
+  </si>
+  <si>
+    <t>RIO DE JANEIRO</t>
+  </si>
+  <si>
+    <t>BRASIL</t>
+  </si>
+  <si>
+    <t>RJ</t>
+  </si>
+  <si>
+    <t>9358108001016</t>
+  </si>
+  <si>
+    <t>TEX POWER</t>
+  </si>
+  <si>
+    <t>1.0000</t>
+  </si>
+  <si>
+    <t>1103.5900</t>
+  </si>
+  <si>
+    <t>202</t>
+  </si>
+  <si>
+    <t>2822649000113</t>
+  </si>
+  <si>
+    <t>D01</t>
+  </si>
+  <si>
+    <t>213123</t>
+  </si>
+  <si>
+    <t>4600.0000</t>
+  </si>
+  <si>
+    <t>460000.0000</t>
+  </si>
+  <si>
+    <t>CRISTIANO OTONI</t>
+  </si>
+  <si>
+    <t>JANDIRA</t>
+  </si>
+  <si>
+    <t>SP</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>100016</t>
+  </si>
+  <si>
+    <t>10.0000</t>
+  </si>
+  <si>
+    <t>360.0000</t>
+  </si>
+  <si>
+    <t>129441</t>
+  </si>
+  <si>
+    <t>30.0000</t>
+  </si>
+  <si>
+    <t>3666.6000</t>
+  </si>
+  <si>
+    <t>302336</t>
+  </si>
+  <si>
+    <t>853.0000</t>
+  </si>
+  <si>
+    <t>85300.0000</t>
+  </si>
+  <si>
+    <t>388</t>
+  </si>
+  <si>
+    <t>05/08/2014</t>
+  </si>
+  <si>
+    <t>15:24:45</t>
+  </si>
+  <si>
+    <t>5.0000</t>
+  </si>
+  <si>
+    <t>611.1000</t>
+  </si>
+  <si>
+    <t>1806090</t>
+  </si>
+  <si>
+    <t>739.3600</t>
+  </si>
+  <si>
+    <t>900000764</t>
+  </si>
+  <si>
+    <t>509.8400</t>
+  </si>
+  <si>
+    <t>1125</t>
+  </si>
+  <si>
+    <t>08/10/2014</t>
+  </si>
+  <si>
+    <t>11:05:35</t>
+  </si>
+  <si>
+    <t>100008</t>
+  </si>
+  <si>
+    <t>790.0000</t>
+  </si>
+  <si>
+    <t>1438</t>
+  </si>
+  <si>
+    <t>26/08/2014</t>
+  </si>
+  <si>
+    <t>18:04:27</t>
+  </si>
+  <si>
+    <t>1705853</t>
+  </si>
+  <si>
+    <t>1980.0000</t>
+  </si>
+  <si>
+    <t>1508</t>
+  </si>
+  <si>
+    <t>02/09/2014</t>
+  </si>
+  <si>
+    <t>10:51:41</t>
+  </si>
+  <si>
+    <t>25527</t>
+  </si>
+  <si>
+    <t>949</t>
+  </si>
+  <si>
+    <t>05/09/2014</t>
+  </si>
+  <si>
+    <t>11:42:58</t>
+  </si>
+  <si>
+    <t>4067191000160</t>
+  </si>
+  <si>
+    <t>8.0000</t>
+  </si>
+  <si>
+    <t>288.0000</t>
+  </si>
+  <si>
+    <t>SAO PAULO</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -409,8 +1494,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -420,6 +1512,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -559,7 +1657,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -610,6 +1708,8 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -765,6 +1865,51 @@
 </file>
 
 <file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>78442</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>67236</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>545167</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>14568</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="78442" y="67236"/>
+          <a:ext cx="2047875" cy="861732"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -1099,8 +2244,8 @@
   </sheetPr>
   <dimension ref="A1:C23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12:XFD13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -1153,7 +2298,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>15</v>
+        <v>107</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="29.25" customHeight="1">
@@ -1169,15 +2314,15 @@
         <v>1</v>
       </c>
       <c r="C13" s="17" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="30" customHeight="1">
       <c r="A14" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C14" s="13" t="s">
         <v>11</v>
@@ -1185,10 +2330,10 @@
     </row>
     <row r="15" spans="1:3" ht="30" customHeight="1">
       <c r="A15" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C15" s="14" t="s">
         <v>10</v>
@@ -1196,68 +2341,68 @@
     </row>
     <row r="16" spans="1:3" ht="30" customHeight="1">
       <c r="A16" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="30" customHeight="1">
       <c r="A17" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="30" customHeight="1">
       <c r="A18" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C18" s="14" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="30" customHeight="1">
       <c r="A19" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>120</v>
+        <v>106</v>
       </c>
       <c r="C19" s="14" t="s">
-        <v>119</v>
+        <v>105</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="30" customHeight="1">
       <c r="A20" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B20" s="12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C20" s="14" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="30" customHeight="1">
       <c r="A21" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C21" s="15" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="30" customHeight="1"/>
@@ -1274,27 +2419,28 @@
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:D41"/>
+  <dimension ref="A1:F41"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="23.7109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="75.7109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="35.7109375" style="10" customWidth="1"/>
-    <col min="4" max="4" width="34" style="4" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="2"/>
+    <col min="3" max="3" width="10.7109375" style="10" customWidth="1"/>
+    <col min="4" max="4" width="26.28515625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="33.7109375" style="2" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="18" customHeight="1"/>
-    <row r="2" spans="1:4" ht="18" customHeight="1"/>
-    <row r="3" spans="1:4" ht="18" customHeight="1"/>
-    <row r="4" spans="1:4" ht="18" customHeight="1"/>
-    <row r="5" spans="1:4" ht="18" customHeight="1"/>
-    <row r="6" spans="1:4">
+    <row r="1" spans="1:5" ht="18" customHeight="1"/>
+    <row r="2" spans="1:5" ht="18" customHeight="1"/>
+    <row r="3" spans="1:5" ht="18" customHeight="1"/>
+    <row r="4" spans="1:5" ht="18" customHeight="1"/>
+    <row r="5" spans="1:5" ht="18" customHeight="1"/>
+    <row r="6" spans="1:5">
       <c r="A6" s="3" t="s">
         <v>4</v>
       </c>
@@ -1302,7 +2448,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:5">
       <c r="A7" s="3" t="s">
         <v>5</v>
       </c>
@@ -1310,363 +2456,293 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:5">
       <c r="A8" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="C12" s="17" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="35.1" customHeight="1">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="35.1" customHeight="1">
       <c r="A13" s="5" t="s">
         <v>0</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C13" s="17" t="s">
-        <v>97</v>
-      </c>
       <c r="D13" s="17" t="s">
+        <v>112</v>
+      </c>
+      <c r="E13" s="17" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="30" customHeight="1">
+      <c r="A14" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D14" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="E14" s="13" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="30" customHeight="1">
+      <c r="A15" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="D15" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="E15" s="13" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="30" customHeight="1">
+      <c r="A16" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="D16" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="E16" s="13" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="30" customHeight="1">
+      <c r="A17" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="D17" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="E17" s="13" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="30" customHeight="1">
-      <c r="A14" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="C14" s="13" t="s">
+    <row r="18" spans="1:5" ht="30" customHeight="1">
+      <c r="A18" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="D18" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="E18" s="13" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="30" customHeight="1">
+      <c r="A19" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="D19" s="15" t="s">
+        <v>114</v>
+      </c>
+      <c r="E19" s="15" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="30" customHeight="1">
+      <c r="A20" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="30" customHeight="1">
+      <c r="A21" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="D14" s="13"/>
-    </row>
-    <row r="15" spans="1:4" ht="30" customHeight="1">
-      <c r="A15" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="C15" s="13" t="s">
-        <v>112</v>
-      </c>
-      <c r="D15" s="13"/>
-    </row>
-    <row r="16" spans="1:4" ht="30" customHeight="1">
-      <c r="A16" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="C16" s="13" t="s">
+      <c r="B21" s="6" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="30" customHeight="1">
+      <c r="A22" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="30" customHeight="1">
+      <c r="A23" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="30" customHeight="1">
+      <c r="A24" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="30" customHeight="1">
+      <c r="A25" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="30" customHeight="1">
+      <c r="A26" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="30" customHeight="1">
+      <c r="A27" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="30" customHeight="1">
+      <c r="A28" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="30" customHeight="1">
+      <c r="A29" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="30" customHeight="1">
+      <c r="A30" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="30" customHeight="1">
+      <c r="A31" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="30" customHeight="1">
+      <c r="A32" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="30" customHeight="1">
+      <c r="A33" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="30" customHeight="1">
+      <c r="A34" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="B34" s="6" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="30" customHeight="1">
+      <c r="A35" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="30" customHeight="1">
+      <c r="A36" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="B36" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="F36" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="D16" s="13"/>
-    </row>
-    <row r="17" spans="1:4" ht="30" customHeight="1">
-      <c r="A17" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="C17" s="13"/>
-      <c r="D17" s="13" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="30" customHeight="1">
-      <c r="A18" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="B18" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="C18" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="D18" s="13"/>
-    </row>
-    <row r="19" spans="1:4" ht="30" customHeight="1">
-      <c r="A19" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="B19" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="C19" s="13" t="s">
-        <v>103</v>
-      </c>
-      <c r="D19" s="13"/>
-    </row>
-    <row r="20" spans="1:4" ht="30" customHeight="1">
-      <c r="A20" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="B20" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="C20" s="13" t="s">
-        <v>104</v>
-      </c>
-      <c r="D20" s="13"/>
-    </row>
-    <row r="21" spans="1:4" ht="30" customHeight="1">
-      <c r="A21" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="B21" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="C21" s="13" t="s">
-        <v>106</v>
-      </c>
-      <c r="D21" s="13"/>
-    </row>
-    <row r="22" spans="1:4" ht="30" customHeight="1">
-      <c r="A22" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="B22" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="C22" s="13" t="s">
-        <v>107</v>
-      </c>
-      <c r="D22" s="13"/>
-    </row>
-    <row r="23" spans="1:4" ht="30" customHeight="1">
-      <c r="A23" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="B23" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="C23" s="13" t="s">
-        <v>108</v>
-      </c>
-      <c r="D23" s="13"/>
-    </row>
-    <row r="24" spans="1:4" ht="30" customHeight="1">
-      <c r="A24" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="B24" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="C24" s="13" t="s">
-        <v>110</v>
-      </c>
-      <c r="D24" s="13"/>
-    </row>
-    <row r="25" spans="1:4" ht="30" customHeight="1">
-      <c r="A25" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="B25" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="C25" s="13" t="s">
-        <v>109</v>
-      </c>
-      <c r="D25" s="13"/>
-    </row>
-    <row r="26" spans="1:4" ht="30" customHeight="1">
-      <c r="A26" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="B26" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="C26" s="13" t="s">
-        <v>102</v>
-      </c>
-      <c r="D26" s="13"/>
-    </row>
-    <row r="27" spans="1:4" ht="30" customHeight="1">
-      <c r="A27" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="B27" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="C27" s="13" t="s">
-        <v>110</v>
-      </c>
-      <c r="D27" s="13"/>
-    </row>
-    <row r="28" spans="1:4" ht="30" customHeight="1">
-      <c r="A28" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="B28" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="C28" s="13" t="s">
-        <v>113</v>
-      </c>
-      <c r="D28" s="13"/>
-    </row>
-    <row r="29" spans="1:4" ht="30" customHeight="1">
-      <c r="A29" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="B29" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="C29" s="13" t="s">
-        <v>114</v>
-      </c>
-      <c r="D29" s="13"/>
-    </row>
-    <row r="30" spans="1:4" ht="30" customHeight="1">
-      <c r="A30" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="B30" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="C30" s="13" t="s">
-        <v>115</v>
-      </c>
-      <c r="D30" s="13"/>
-    </row>
-    <row r="31" spans="1:4" ht="30" customHeight="1">
-      <c r="A31" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="B31" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="C31" s="13" t="s">
-        <v>113</v>
-      </c>
-      <c r="D31" s="13"/>
-    </row>
-    <row r="32" spans="1:4" ht="30" customHeight="1">
-      <c r="A32" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="B32" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="C32" s="13" t="s">
-        <v>113</v>
-      </c>
-      <c r="D32" s="13"/>
-    </row>
-    <row r="33" spans="1:4" ht="30" customHeight="1">
-      <c r="A33" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="B33" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="C33" s="13" t="s">
-        <v>116</v>
-      </c>
-      <c r="D33" s="13"/>
-    </row>
-    <row r="34" spans="1:4" ht="30" customHeight="1">
-      <c r="A34" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="B34" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="C34" s="13" t="s">
-        <v>116</v>
-      </c>
-      <c r="D34" s="13"/>
-    </row>
-    <row r="35" spans="1:4" ht="30" customHeight="1">
-      <c r="A35" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="B35" s="6" t="s">
+    </row>
+    <row r="37" spans="1:6" ht="30" customHeight="1">
+      <c r="A37" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="30" customHeight="1">
+      <c r="A38" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B38" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="C35" s="13" t="s">
-        <v>116</v>
-      </c>
-      <c r="D35" s="13"/>
-    </row>
-    <row r="36" spans="1:4" ht="30" customHeight="1">
-      <c r="A36" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="B36" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="C36" s="13" t="s">
-        <v>117</v>
-      </c>
-      <c r="D36" s="13"/>
-    </row>
-    <row r="37" spans="1:4" ht="30" customHeight="1">
-      <c r="A37" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="B37" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="C37" s="13" t="s">
-        <v>99</v>
-      </c>
-      <c r="D37" s="13"/>
-    </row>
-    <row r="38" spans="1:4" ht="30" customHeight="1">
-      <c r="A38" s="6" t="s">
+    </row>
+    <row r="39" spans="1:6" ht="30" customHeight="1">
+      <c r="A39" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="B38" s="6" t="s">
+      <c r="B39" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="C38" s="13" t="s">
-        <v>98</v>
-      </c>
-      <c r="D38" s="13"/>
-    </row>
-    <row r="39" spans="1:4" ht="30" customHeight="1">
-      <c r="A39" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="B39" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="C39" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="D39" s="15"/>
-    </row>
-    <row r="40" spans="1:4" ht="30" customHeight="1"/>
-    <row r="41" spans="1:4" ht="30" customHeight="1"/>
+    </row>
+    <row r="40" spans="1:6" ht="30" customHeight="1"/>
+    <row r="41" spans="1:6" ht="30" customHeight="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -1679,25 +2755,28 @@
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:B32"/>
+  <dimension ref="A1:E32"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+      <selection activeCell="D14" sqref="D14:E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="23.7109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="75.7109375" style="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="2"/>
+    <col min="3" max="3" width="10.7109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="26.28515625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="33.7109375" style="2" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="18" customHeight="1"/>
-    <row r="2" spans="1:2" ht="18" customHeight="1"/>
-    <row r="3" spans="1:2" ht="18" customHeight="1"/>
-    <row r="4" spans="1:2" ht="18" customHeight="1"/>
-    <row r="5" spans="1:2" ht="18" customHeight="1"/>
-    <row r="6" spans="1:2">
+    <row r="1" spans="1:5" ht="18" customHeight="1"/>
+    <row r="2" spans="1:5" ht="18" customHeight="1"/>
+    <row r="3" spans="1:5" ht="18" customHeight="1"/>
+    <row r="4" spans="1:5" ht="18" customHeight="1"/>
+    <row r="5" spans="1:5" ht="18" customHeight="1"/>
+    <row r="6" spans="1:5">
       <c r="A6" s="3" t="s">
         <v>4</v>
       </c>
@@ -1705,7 +2784,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:5">
       <c r="A7" s="3" t="s">
         <v>5</v>
       </c>
@@ -1713,176 +2792,212 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:5">
       <c r="A8" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="35.1" customHeight="1">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="35.1" customHeight="1">
       <c r="A13" s="5" t="s">
         <v>0</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" ht="30" customHeight="1">
+      <c r="D13" s="17" t="s">
+        <v>112</v>
+      </c>
+      <c r="E13" s="17" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="30" customHeight="1">
       <c r="A14" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="D14" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="E14" s="13" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="30" customHeight="1">
+      <c r="A15" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="B15" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="D15" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="E15" s="13" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="30" customHeight="1">
+      <c r="A16" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="D16" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="E16" s="13" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="30" customHeight="1">
+      <c r="A17" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="D17" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="E17" s="13" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="30" customHeight="1">
+      <c r="A18" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="D18" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E18" s="15" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="30" customHeight="1">
+      <c r="A19" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="30" customHeight="1">
+      <c r="A20" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="30" customHeight="1">
+      <c r="A21" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="B21" s="6" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="30" customHeight="1">
-      <c r="A15" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" ht="30" customHeight="1">
-      <c r="A16" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="30" customHeight="1">
-      <c r="A17" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="30" customHeight="1">
-      <c r="A18" s="6" t="s">
+    <row r="22" spans="1:5" ht="30" customHeight="1">
+      <c r="A22" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="30" customHeight="1">
+      <c r="A23" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="B18" s="6" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="30" customHeight="1">
-      <c r="A19" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="B19" s="6" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="30" customHeight="1">
-      <c r="A20" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="B20" s="6" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" ht="30" customHeight="1">
-      <c r="A21" s="6" t="s">
+      <c r="B23" s="6" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="30" customHeight="1">
+      <c r="A24" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="B21" s="6" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" ht="30" customHeight="1">
-      <c r="A22" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="B22" s="6" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" ht="30" customHeight="1">
-      <c r="A23" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="B23" s="6" t="s">
+      <c r="B24" s="6" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="30" customHeight="1">
-      <c r="A24" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="B24" s="6" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" ht="30" customHeight="1">
+    <row r="25" spans="1:5" ht="30" customHeight="1">
       <c r="A25" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" ht="30" customHeight="1">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="30" customHeight="1">
       <c r="A26" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" ht="30" customHeight="1">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="30" customHeight="1">
       <c r="A27" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" ht="30" customHeight="1">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="30" customHeight="1">
       <c r="A28" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="30" customHeight="1">
+      <c r="A29" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="B28" s="6" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" ht="30" customHeight="1">
-      <c r="A29" s="6" t="s">
+      <c r="B29" s="6" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="30" customHeight="1">
+      <c r="A30" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="B29" s="6" t="s">
+      <c r="B30" s="9" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="30" spans="1:2" ht="30" customHeight="1">
-      <c r="A30" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="B30" s="9" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" ht="30" customHeight="1"/>
-    <row r="32" spans="1:2" ht="30" customHeight="1"/>
+    <row r="31" spans="1:5" ht="30" customHeight="1"/>
+    <row r="32" spans="1:5" ht="30" customHeight="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -1895,25 +3010,28 @@
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:B41"/>
+  <dimension ref="A1:E41"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="23.7109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="75.7109375" style="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="2"/>
+    <col min="3" max="3" width="10.7109375" style="10" customWidth="1"/>
+    <col min="4" max="4" width="26.28515625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="33.7109375" style="2" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="18" customHeight="1"/>
-    <row r="2" spans="1:2" ht="18" customHeight="1"/>
-    <row r="3" spans="1:2" ht="18" customHeight="1"/>
-    <row r="4" spans="1:2" ht="18" customHeight="1"/>
-    <row r="5" spans="1:2" ht="18" customHeight="1"/>
-    <row r="6" spans="1:2">
+    <row r="1" spans="1:5" ht="18" customHeight="1"/>
+    <row r="2" spans="1:5" ht="18" customHeight="1"/>
+    <row r="3" spans="1:5" ht="18" customHeight="1"/>
+    <row r="4" spans="1:5" ht="18" customHeight="1"/>
+    <row r="5" spans="1:5" ht="18" customHeight="1"/>
+    <row r="6" spans="1:5">
       <c r="A6" s="3" t="s">
         <v>4</v>
       </c>
@@ -1921,7 +3039,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:5">
       <c r="A7" s="3" t="s">
         <v>5</v>
       </c>
@@ -1929,244 +3047,280 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:5">
       <c r="A8" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="35.1" customHeight="1">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="35.1" customHeight="1">
       <c r="A13" s="5" t="s">
         <v>0</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" ht="30" customHeight="1">
+      <c r="D13" s="17" t="s">
+        <v>112</v>
+      </c>
+      <c r="E13" s="17" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="30" customHeight="1">
       <c r="A14" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B14" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="B14" s="6" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" ht="30" customHeight="1">
+      <c r="D14" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="E14" s="13" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="30" customHeight="1">
       <c r="A15" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="D15" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="E15" s="13" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="30" customHeight="1">
+      <c r="A16" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="B16" s="6" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" ht="30" customHeight="1">
-      <c r="A16" s="6" t="s">
+      <c r="D16" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="E16" s="13" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="30" customHeight="1">
+      <c r="A17" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="B16" s="6" t="s">
+      <c r="B17" s="6" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" ht="30" customHeight="1">
-      <c r="A17" s="6" t="s">
+      <c r="D17" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="E17" s="13" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="30" customHeight="1">
+      <c r="A18" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="B17" s="6" t="s">
+      <c r="B18" s="6" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" ht="30" customHeight="1">
-      <c r="A18" s="6" t="s">
+      <c r="D18" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E18" s="15" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="30" customHeight="1">
+      <c r="A19" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="B18" s="6" t="s">
+      <c r="B19" s="6" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="30" customHeight="1">
-      <c r="A19" s="6" t="s">
+    <row r="20" spans="1:5" ht="30" customHeight="1">
+      <c r="A20" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="B19" s="6" t="s">
+      <c r="B20" s="6" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="30" customHeight="1">
-      <c r="A20" s="6" t="s">
+    <row r="21" spans="1:5" ht="30" customHeight="1">
+      <c r="A21" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="B20" s="6" t="s">
+      <c r="B21" s="6" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="30" customHeight="1">
-      <c r="A21" s="6" t="s">
+    <row r="22" spans="1:5" ht="30" customHeight="1">
+      <c r="A22" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="B21" s="6" t="s">
+      <c r="B22" s="6" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="30" customHeight="1">
-      <c r="A22" s="6" t="s">
+    <row r="23" spans="1:5" ht="30" customHeight="1">
+      <c r="A23" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="B22" s="6" t="s">
+      <c r="B23" s="6" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="30" customHeight="1">
-      <c r="A23" s="6" t="s">
+    <row r="24" spans="1:5" ht="30" customHeight="1">
+      <c r="A24" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="B23" s="6" t="s">
+      <c r="B24" s="6" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="30" customHeight="1">
-      <c r="A24" s="6" t="s">
+    <row r="25" spans="1:5" ht="30" customHeight="1">
+      <c r="A25" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="B24" s="6" t="s">
+      <c r="B25" s="6" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="30" customHeight="1">
-      <c r="A25" s="6" t="s">
+    <row r="26" spans="1:5" ht="30" customHeight="1">
+      <c r="A26" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="B25" s="6" t="s">
+      <c r="B26" s="6" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="30" customHeight="1">
+      <c r="A27" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="30" customHeight="1">
+      <c r="A28" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="30" customHeight="1">
+      <c r="A29" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="B29" s="6" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="30" customHeight="1">
-      <c r="A26" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="B26" s="6" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" ht="30" customHeight="1">
-      <c r="A27" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="B27" s="6" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" ht="30" customHeight="1">
-      <c r="A28" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="B28" s="6" t="s">
+    <row r="30" spans="1:5" ht="30" customHeight="1">
+      <c r="A30" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B30" s="6" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="30" customHeight="1">
-      <c r="A29" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="B29" s="6" t="s">
+    <row r="31" spans="1:5" ht="30" customHeight="1">
+      <c r="A31" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B31" s="6" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="30" spans="1:2" ht="30" customHeight="1">
-      <c r="A30" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="B30" s="6" t="s">
+    <row r="32" spans="1:5" ht="30" customHeight="1">
+      <c r="A32" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B32" s="6" t="s">
         <v>72</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" ht="30" customHeight="1">
-      <c r="A31" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="B31" s="6" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" ht="30" customHeight="1">
-      <c r="A32" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="B32" s="6" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="30" customHeight="1">
       <c r="A33" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="30" customHeight="1">
       <c r="A34" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="30" customHeight="1">
       <c r="A35" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="30" customHeight="1">
       <c r="A36" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="30" customHeight="1">
       <c r="A37" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="30" customHeight="1">
       <c r="A38" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="30" customHeight="1">
       <c r="A39" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B39" s="9" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="30" customHeight="1"/>
@@ -2176,4 +3330,5201 @@
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr>
+    <tabColor rgb="FF00B050"/>
+  </sheetPr>
+  <dimension ref="A1:F61"/>
+  <sheetViews>
+    <sheetView topLeftCell="A55" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A61" sqref="A61"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="1" width="23.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="75.7109375" style="1" customWidth="1"/>
+    <col min="3" max="4" width="35.7109375" style="10" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="18" customHeight="1"/>
+    <row r="2" spans="1:4" ht="18" customHeight="1"/>
+    <row r="3" spans="1:4" ht="18" customHeight="1"/>
+    <row r="4" spans="1:4" ht="18" customHeight="1"/>
+    <row r="5" spans="1:4" ht="18" customHeight="1"/>
+    <row r="6" spans="1:4">
+      <c r="A6" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="29.25" customHeight="1">
+      <c r="C12" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="D12" s="16" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="35.1" customHeight="1">
+      <c r="A13" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" s="17" t="s">
+        <v>235</v>
+      </c>
+      <c r="D13" s="17" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="30" customHeight="1">
+      <c r="A14" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="D14" s="13"/>
+    </row>
+    <row r="15" spans="1:4" ht="30" customHeight="1">
+      <c r="A15" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="D15" s="14"/>
+    </row>
+    <row r="16" spans="1:4" ht="30" customHeight="1">
+      <c r="A16" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="C16" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="D16" s="14"/>
+    </row>
+    <row r="17" spans="1:4" ht="30" customHeight="1">
+      <c r="A17" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="C17" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="D17" s="14"/>
+    </row>
+    <row r="18" spans="1:4" ht="30" customHeight="1">
+      <c r="A18" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="C18" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="D18" s="14"/>
+    </row>
+    <row r="19" spans="1:4" ht="30" customHeight="1">
+      <c r="A19" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="C19" s="14"/>
+      <c r="D19" s="14" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="30" customHeight="1">
+      <c r="A20" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="C20" s="14"/>
+      <c r="D20" s="14" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="30" customHeight="1">
+      <c r="A21" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="C21" s="14" t="s">
+        <v>237</v>
+      </c>
+      <c r="D21" s="14"/>
+    </row>
+    <row r="22" spans="1:4" ht="30" customHeight="1">
+      <c r="A22" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>231</v>
+      </c>
+      <c r="C22" s="14" t="s">
+        <v>238</v>
+      </c>
+      <c r="D22" s="14"/>
+    </row>
+    <row r="23" spans="1:4" ht="30" customHeight="1">
+      <c r="A23" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>234</v>
+      </c>
+      <c r="C23" s="14" t="s">
+        <v>239</v>
+      </c>
+      <c r="D23" s="14"/>
+    </row>
+    <row r="24" spans="1:4" ht="30" customHeight="1">
+      <c r="A24" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="C24" s="14" t="s">
+        <v>240</v>
+      </c>
+      <c r="D24" s="14"/>
+    </row>
+    <row r="25" spans="1:4" ht="30" customHeight="1">
+      <c r="A25" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="C25" s="14" t="s">
+        <v>192</v>
+      </c>
+      <c r="D25" s="14" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="30" customHeight="1">
+      <c r="A26" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="C26" s="14" t="s">
+        <v>241</v>
+      </c>
+      <c r="D26" s="14"/>
+    </row>
+    <row r="27" spans="1:4" ht="30" customHeight="1">
+      <c r="A27" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>233</v>
+      </c>
+      <c r="C27" s="14" t="s">
+        <v>192</v>
+      </c>
+      <c r="D27" s="14" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="30" customHeight="1">
+      <c r="A28" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="C28" s="14" t="s">
+        <v>242</v>
+      </c>
+      <c r="D28" s="14"/>
+    </row>
+    <row r="29" spans="1:4" ht="30" customHeight="1">
+      <c r="A29" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="C29" s="14"/>
+      <c r="D29" s="14" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="30" customHeight="1">
+      <c r="A30" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="C30" s="14"/>
+      <c r="D30" s="14" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="30" customHeight="1">
+      <c r="A31" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="C31" s="14"/>
+      <c r="D31" s="14" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="30" customHeight="1">
+      <c r="A32" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="C32" s="14"/>
+      <c r="D32" s="14" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" s="10" customFormat="1" ht="30" customHeight="1">
+      <c r="A33" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="C33" s="14"/>
+      <c r="D33" s="14" t="s">
+        <v>244</v>
+      </c>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2"/>
+    </row>
+    <row r="34" spans="1:6" s="10" customFormat="1" ht="30" customHeight="1">
+      <c r="A34" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="B34" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="C34" s="14"/>
+      <c r="D34" s="14" t="s">
+        <v>218</v>
+      </c>
+      <c r="E34" s="2"/>
+      <c r="F34" s="2"/>
+    </row>
+    <row r="35" spans="1:6" s="10" customFormat="1" ht="30" customHeight="1">
+      <c r="A35" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="C35" s="14"/>
+      <c r="D35" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="E35" s="2"/>
+      <c r="F35" s="2"/>
+    </row>
+    <row r="36" spans="1:6" s="10" customFormat="1" ht="30" customHeight="1">
+      <c r="A36" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="B36" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="C36" s="14"/>
+      <c r="D36" s="14" t="s">
+        <v>219</v>
+      </c>
+      <c r="E36" s="2"/>
+      <c r="F36" s="2"/>
+    </row>
+    <row r="37" spans="1:6" s="10" customFormat="1" ht="30" customHeight="1">
+      <c r="A37" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="C37" s="14"/>
+      <c r="D37" s="14" t="s">
+        <v>220</v>
+      </c>
+      <c r="E37" s="2"/>
+      <c r="F37" s="2"/>
+    </row>
+    <row r="38" spans="1:6" s="10" customFormat="1" ht="30" customHeight="1">
+      <c r="A38" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="B38" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="C38" s="14"/>
+      <c r="D38" s="14" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" s="10" customFormat="1" ht="30" customHeight="1">
+      <c r="A39" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="B39" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="C39" s="14"/>
+      <c r="D39" s="14" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" s="10" customFormat="1" ht="30" customHeight="1">
+      <c r="A40" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="B40" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="C40" s="14"/>
+      <c r="D40" s="14" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" s="10" customFormat="1" ht="30" customHeight="1">
+      <c r="A41" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="B41" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="C41" s="14"/>
+      <c r="D41" s="14" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" s="10" customFormat="1" ht="30" customHeight="1">
+      <c r="A42" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="B42" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="C42" s="14"/>
+      <c r="D42" s="14" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" s="10" customFormat="1" ht="30" customHeight="1">
+      <c r="A43" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="B43" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="C43" s="14"/>
+      <c r="D43" s="14" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" s="10" customFormat="1" ht="30" customHeight="1">
+      <c r="A44" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="B44" s="6" t="s">
+        <v>195</v>
+      </c>
+      <c r="C44" s="14"/>
+      <c r="D44" s="14" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" s="10" customFormat="1" ht="30" customHeight="1">
+      <c r="A45" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="B45" s="6" t="s">
+        <v>196</v>
+      </c>
+      <c r="C45" s="14"/>
+      <c r="D45" s="14" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" s="10" customFormat="1" ht="30" customHeight="1">
+      <c r="A46" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="B46" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="C46" s="14"/>
+      <c r="D46" s="14" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" s="10" customFormat="1" ht="30" customHeight="1">
+      <c r="A47" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="B47" s="6" t="s">
+        <v>198</v>
+      </c>
+      <c r="C47" s="14"/>
+      <c r="D47" s="14" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" s="10" customFormat="1" ht="30" customHeight="1">
+      <c r="A48" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="B48" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="C48" s="14"/>
+      <c r="D48" s="14" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" s="10" customFormat="1" ht="30" customHeight="1">
+      <c r="A49" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="B49" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="C49" s="14"/>
+      <c r="D49" s="14" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" s="10" customFormat="1" ht="30" customHeight="1">
+      <c r="A50" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="B50" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="C50" s="14"/>
+      <c r="D50" s="14" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" s="10" customFormat="1" ht="30" customHeight="1">
+      <c r="A51" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="B51" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="C51" s="14"/>
+      <c r="D51" s="14" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" s="10" customFormat="1" ht="30" customHeight="1">
+      <c r="A52" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="B52" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="C52" s="14"/>
+      <c r="D52" s="14" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" s="10" customFormat="1" ht="30" customHeight="1">
+      <c r="A53" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="B53" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="C53" s="14"/>
+      <c r="D53" s="14" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" s="10" customFormat="1" ht="30" customHeight="1">
+      <c r="A54" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="B54" s="6" t="s">
+        <v>206</v>
+      </c>
+      <c r="C54" s="14"/>
+      <c r="D54" s="14" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" s="10" customFormat="1" ht="30" customHeight="1">
+      <c r="A55" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="B55" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="C55" s="14"/>
+      <c r="D55" s="14" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" s="10" customFormat="1" ht="30" customHeight="1">
+      <c r="A56" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="B56" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="C56" s="14"/>
+      <c r="D56" s="14" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" s="10" customFormat="1" ht="30" customHeight="1">
+      <c r="A57" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="B57" s="6" t="s">
+        <v>209</v>
+      </c>
+      <c r="C57" s="14"/>
+      <c r="D57" s="14" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" s="10" customFormat="1" ht="30" customHeight="1">
+      <c r="A58" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="B58" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="C58" s="14" t="s">
+        <v>253</v>
+      </c>
+      <c r="D58" s="14"/>
+    </row>
+    <row r="59" spans="1:4" s="10" customFormat="1" ht="30" customHeight="1">
+      <c r="A59" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="B59" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="C59" s="14" t="s">
+        <v>253</v>
+      </c>
+      <c r="D59" s="14"/>
+    </row>
+    <row r="60" spans="1:4" s="10" customFormat="1" ht="30" customHeight="1">
+      <c r="A60" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="B60" s="6" t="s">
+        <v>212</v>
+      </c>
+      <c r="C60" s="14" t="s">
+        <v>253</v>
+      </c>
+      <c r="D60" s="14"/>
+    </row>
+    <row r="61" spans="1:4" s="10" customFormat="1" ht="30" customHeight="1">
+      <c r="A61" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="B61" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="C61" s="15"/>
+      <c r="D61" s="15" t="s">
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A2:AV36"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K27" sqref="K27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="11.25"/>
+  <cols>
+    <col min="1" max="1" width="8.7109375" style="18" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.42578125" style="18" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.28515625" style="18" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.28515625" style="18" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.85546875" style="18" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.7109375" style="18" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15" style="18" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.28515625" style="18" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.28515625" style="18" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.140625" style="18" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18" style="18" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.85546875" style="18" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.140625" style="18" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.140625" style="18" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.7109375" style="18" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.7109375" style="18" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.85546875" style="18" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="9.5703125" style="18" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="15.7109375" style="18" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="12.5703125" style="18" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="10" style="18" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="12.85546875" style="18" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="9.5703125" style="18" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="13.140625" style="18" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.28515625" style="18" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="15.28515625" style="18" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="9.42578125" style="18" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="8.28515625" style="18" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="16.7109375" style="18" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="14.140625" style="18" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="14.7109375" style="18" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="11" style="18" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="18.28515625" style="18" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="15.5703125" style="18" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="16.140625" style="18" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="15.42578125" style="18" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="12.7109375" style="18" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="13.42578125" style="18" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="9.28515625" style="18" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="16.42578125" style="18" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="13.85546875" style="18" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="14.42578125" style="18" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="17.85546875" style="18" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="16.140625" style="18" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="12.28515625" style="18" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="12.5703125" style="18" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="10.28515625" style="18" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="13.5703125" style="18" bestFit="1" customWidth="1"/>
+    <col min="49" max="16384" width="9.140625" style="18"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:48">
+      <c r="A2" s="19" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="3" spans="1:48">
+      <c r="A3" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="B3" s="18" t="s">
+        <v>131</v>
+      </c>
+      <c r="C3" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="D3" s="18" t="s">
+        <v>133</v>
+      </c>
+      <c r="E3" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="F3" s="18" t="s">
+        <v>135</v>
+      </c>
+      <c r="G3" s="18" t="s">
+        <v>136</v>
+      </c>
+      <c r="H3" s="18" t="s">
+        <v>137</v>
+      </c>
+      <c r="I3" s="18" t="s">
+        <v>138</v>
+      </c>
+      <c r="J3" s="18" t="s">
+        <v>139</v>
+      </c>
+      <c r="K3" s="18" t="s">
+        <v>140</v>
+      </c>
+      <c r="L3" s="18" t="s">
+        <v>141</v>
+      </c>
+      <c r="M3" s="18" t="s">
+        <v>142</v>
+      </c>
+      <c r="N3" s="18" t="s">
+        <v>143</v>
+      </c>
+      <c r="O3" s="18" t="s">
+        <v>144</v>
+      </c>
+      <c r="P3" s="18" t="s">
+        <v>145</v>
+      </c>
+      <c r="Q3" s="18" t="s">
+        <v>146</v>
+      </c>
+      <c r="R3" s="18" t="s">
+        <v>147</v>
+      </c>
+      <c r="S3" s="18" t="s">
+        <v>148</v>
+      </c>
+      <c r="T3" s="18" t="s">
+        <v>149</v>
+      </c>
+      <c r="U3" s="18" t="s">
+        <v>150</v>
+      </c>
+      <c r="V3" s="18" t="s">
+        <v>151</v>
+      </c>
+      <c r="W3" s="18" t="s">
+        <v>152</v>
+      </c>
+      <c r="X3" s="18" t="s">
+        <v>153</v>
+      </c>
+      <c r="Y3" s="18" t="s">
+        <v>154</v>
+      </c>
+      <c r="Z3" s="18" t="s">
+        <v>155</v>
+      </c>
+      <c r="AA3" s="18" t="s">
+        <v>156</v>
+      </c>
+      <c r="AB3" s="18" t="s">
+        <v>157</v>
+      </c>
+      <c r="AC3" s="18" t="s">
+        <v>158</v>
+      </c>
+      <c r="AD3" s="18" t="s">
+        <v>159</v>
+      </c>
+      <c r="AE3" s="18" t="s">
+        <v>160</v>
+      </c>
+      <c r="AF3" s="18" t="s">
+        <v>161</v>
+      </c>
+      <c r="AG3" s="18" t="s">
+        <v>162</v>
+      </c>
+      <c r="AH3" s="18" t="s">
+        <v>163</v>
+      </c>
+      <c r="AI3" s="18" t="s">
+        <v>164</v>
+      </c>
+      <c r="AJ3" s="18" t="s">
+        <v>165</v>
+      </c>
+      <c r="AK3" s="18" t="s">
+        <v>166</v>
+      </c>
+      <c r="AL3" s="18" t="s">
+        <v>167</v>
+      </c>
+      <c r="AM3" s="18" t="s">
+        <v>168</v>
+      </c>
+      <c r="AN3" s="18" t="s">
+        <v>169</v>
+      </c>
+      <c r="AO3" s="18" t="s">
+        <v>170</v>
+      </c>
+      <c r="AP3" s="18" t="s">
+        <v>171</v>
+      </c>
+      <c r="AQ3" s="18" t="s">
+        <v>172</v>
+      </c>
+      <c r="AR3" s="18" t="s">
+        <v>173</v>
+      </c>
+      <c r="AS3" s="18" t="s">
+        <v>174</v>
+      </c>
+      <c r="AT3" s="18" t="s">
+        <v>175</v>
+      </c>
+      <c r="AU3" s="18" t="s">
+        <v>176</v>
+      </c>
+      <c r="AV3" s="18" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="4" spans="1:48">
+      <c r="A4" s="18" t="s">
+        <v>352</v>
+      </c>
+      <c r="B4" s="18" t="s">
+        <v>353</v>
+      </c>
+      <c r="C4" s="18" t="s">
+        <v>354</v>
+      </c>
+      <c r="D4" s="18" t="s">
+        <v>355</v>
+      </c>
+      <c r="E4" s="18" t="s">
+        <v>356</v>
+      </c>
+      <c r="F4" s="18" t="s">
+        <v>357</v>
+      </c>
+      <c r="G4" s="18" t="s">
+        <v>358</v>
+      </c>
+      <c r="H4" s="18" t="s">
+        <v>254</v>
+      </c>
+      <c r="I4" s="18" t="s">
+        <v>359</v>
+      </c>
+      <c r="J4" s="18" t="s">
+        <v>360</v>
+      </c>
+      <c r="K4" s="18" t="s">
+        <v>360</v>
+      </c>
+      <c r="L4" s="18" t="s">
+        <v>353</v>
+      </c>
+      <c r="M4" s="18" t="s">
+        <v>255</v>
+      </c>
+      <c r="N4" s="18" t="s">
+        <v>256</v>
+      </c>
+      <c r="O4" s="18" t="s">
+        <v>257</v>
+      </c>
+      <c r="P4" s="18" t="s">
+        <v>361</v>
+      </c>
+      <c r="Q4" s="18" t="s">
+        <v>362</v>
+      </c>
+      <c r="R4" s="18" t="s">
+        <v>258</v>
+      </c>
+      <c r="S4" s="18" t="s">
+        <v>259</v>
+      </c>
+      <c r="T4" s="18" t="s">
+        <v>260</v>
+      </c>
+      <c r="U4" s="18" t="s">
+        <v>259</v>
+      </c>
+      <c r="V4" s="18" t="s">
+        <v>259</v>
+      </c>
+      <c r="W4" s="18" t="s">
+        <v>259</v>
+      </c>
+      <c r="X4" s="18" t="s">
+        <v>259</v>
+      </c>
+      <c r="Y4" s="18" t="s">
+        <v>261</v>
+      </c>
+      <c r="Z4" s="18" t="s">
+        <v>259</v>
+      </c>
+      <c r="AA4" s="18" t="s">
+        <v>255</v>
+      </c>
+      <c r="AB4" s="18" t="s">
+        <v>262</v>
+      </c>
+      <c r="AC4" s="18" t="s">
+        <v>258</v>
+      </c>
+      <c r="AD4" s="18" t="s">
+        <v>259</v>
+      </c>
+      <c r="AE4" s="18" t="s">
+        <v>259</v>
+      </c>
+      <c r="AF4" s="18" t="s">
+        <v>263</v>
+      </c>
+      <c r="AG4" s="18" t="s">
+        <v>264</v>
+      </c>
+      <c r="AH4" s="18" t="s">
+        <v>259</v>
+      </c>
+      <c r="AI4" s="18" t="s">
+        <v>265</v>
+      </c>
+      <c r="AJ4" s="18" t="s">
+        <v>266</v>
+      </c>
+      <c r="AK4" s="18" t="s">
+        <v>259</v>
+      </c>
+      <c r="AL4" s="18" t="s">
+        <v>267</v>
+      </c>
+      <c r="AM4" s="18" t="s">
+        <v>255</v>
+      </c>
+      <c r="AN4" s="18" t="s">
+        <v>255</v>
+      </c>
+      <c r="AO4" s="18" t="s">
+        <v>255</v>
+      </c>
+      <c r="AP4" s="18" t="s">
+        <v>255</v>
+      </c>
+      <c r="AQ4" s="18" t="s">
+        <v>259</v>
+      </c>
+      <c r="AR4" s="18" t="s">
+        <v>259</v>
+      </c>
+      <c r="AS4" s="18" t="s">
+        <v>268</v>
+      </c>
+      <c r="AT4" s="18" t="s">
+        <v>269</v>
+      </c>
+      <c r="AU4" s="18" t="s">
+        <v>270</v>
+      </c>
+      <c r="AV4" s="18" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="5" spans="1:48">
+      <c r="A5" s="18" t="s">
+        <v>352</v>
+      </c>
+      <c r="B5" s="18" t="s">
+        <v>353</v>
+      </c>
+      <c r="C5" s="18" t="s">
+        <v>354</v>
+      </c>
+      <c r="D5" s="18" t="s">
+        <v>363</v>
+      </c>
+      <c r="E5" s="18" t="s">
+        <v>364</v>
+      </c>
+      <c r="F5" s="18" t="s">
+        <v>357</v>
+      </c>
+      <c r="G5" s="18" t="s">
+        <v>358</v>
+      </c>
+      <c r="H5" s="18" t="s">
+        <v>254</v>
+      </c>
+      <c r="I5" s="18" t="s">
+        <v>365</v>
+      </c>
+      <c r="J5" s="18" t="s">
+        <v>366</v>
+      </c>
+      <c r="K5" s="18" t="s">
+        <v>366</v>
+      </c>
+      <c r="L5" s="18" t="s">
+        <v>353</v>
+      </c>
+      <c r="M5" s="18" t="s">
+        <v>255</v>
+      </c>
+      <c r="N5" s="18" t="s">
+        <v>256</v>
+      </c>
+      <c r="O5" s="18" t="s">
+        <v>257</v>
+      </c>
+      <c r="P5" s="18" t="s">
+        <v>367</v>
+      </c>
+      <c r="Q5" s="18" t="s">
+        <v>362</v>
+      </c>
+      <c r="R5" s="18" t="s">
+        <v>271</v>
+      </c>
+      <c r="S5" s="18" t="s">
+        <v>259</v>
+      </c>
+      <c r="T5" s="18" t="s">
+        <v>272</v>
+      </c>
+      <c r="U5" s="18" t="s">
+        <v>259</v>
+      </c>
+      <c r="V5" s="18" t="s">
+        <v>259</v>
+      </c>
+      <c r="W5" s="18" t="s">
+        <v>259</v>
+      </c>
+      <c r="X5" s="18" t="s">
+        <v>259</v>
+      </c>
+      <c r="Y5" s="18" t="s">
+        <v>272</v>
+      </c>
+      <c r="Z5" s="18" t="s">
+        <v>259</v>
+      </c>
+      <c r="AA5" s="18" t="s">
+        <v>255</v>
+      </c>
+      <c r="AB5" s="18" t="s">
+        <v>273</v>
+      </c>
+      <c r="AC5" s="18" t="s">
+        <v>271</v>
+      </c>
+      <c r="AD5" s="18" t="s">
+        <v>259</v>
+      </c>
+      <c r="AE5" s="18" t="s">
+        <v>259</v>
+      </c>
+      <c r="AF5" s="18" t="s">
+        <v>274</v>
+      </c>
+      <c r="AG5" s="18" t="s">
+        <v>274</v>
+      </c>
+      <c r="AH5" s="18" t="s">
+        <v>259</v>
+      </c>
+      <c r="AI5" s="18" t="s">
+        <v>259</v>
+      </c>
+      <c r="AJ5" s="18" t="s">
+        <v>273</v>
+      </c>
+      <c r="AK5" s="18" t="s">
+        <v>259</v>
+      </c>
+      <c r="AL5" s="18" t="s">
+        <v>259</v>
+      </c>
+      <c r="AM5" s="18" t="s">
+        <v>255</v>
+      </c>
+      <c r="AN5" s="18" t="s">
+        <v>255</v>
+      </c>
+      <c r="AO5" s="18" t="s">
+        <v>259</v>
+      </c>
+      <c r="AP5" s="18" t="s">
+        <v>255</v>
+      </c>
+      <c r="AQ5" s="18" t="s">
+        <v>259</v>
+      </c>
+      <c r="AR5" s="18" t="s">
+        <v>259</v>
+      </c>
+      <c r="AS5" s="18" t="s">
+        <v>275</v>
+      </c>
+      <c r="AT5" s="18" t="s">
+        <v>269</v>
+      </c>
+      <c r="AU5" s="18" t="s">
+        <v>276</v>
+      </c>
+      <c r="AV5" s="18" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="6" spans="1:48">
+      <c r="A6" s="18" t="s">
+        <v>352</v>
+      </c>
+      <c r="B6" s="18" t="s">
+        <v>353</v>
+      </c>
+      <c r="C6" s="18" t="s">
+        <v>354</v>
+      </c>
+      <c r="D6" s="18" t="s">
+        <v>363</v>
+      </c>
+      <c r="E6" s="18" t="s">
+        <v>364</v>
+      </c>
+      <c r="F6" s="18" t="s">
+        <v>357</v>
+      </c>
+      <c r="G6" s="18" t="s">
+        <v>358</v>
+      </c>
+      <c r="H6" s="18" t="s">
+        <v>254</v>
+      </c>
+      <c r="I6" s="18" t="s">
+        <v>365</v>
+      </c>
+      <c r="J6" s="18" t="s">
+        <v>366</v>
+      </c>
+      <c r="K6" s="18" t="s">
+        <v>366</v>
+      </c>
+      <c r="L6" s="18" t="s">
+        <v>353</v>
+      </c>
+      <c r="M6" s="18" t="s">
+        <v>255</v>
+      </c>
+      <c r="N6" s="18" t="s">
+        <v>256</v>
+      </c>
+      <c r="O6" s="18" t="s">
+        <v>257</v>
+      </c>
+      <c r="P6" s="18" t="s">
+        <v>368</v>
+      </c>
+      <c r="Q6" s="18" t="s">
+        <v>362</v>
+      </c>
+      <c r="R6" s="18" t="s">
+        <v>277</v>
+      </c>
+      <c r="S6" s="18" t="s">
+        <v>259</v>
+      </c>
+      <c r="T6" s="18" t="s">
+        <v>278</v>
+      </c>
+      <c r="U6" s="18" t="s">
+        <v>259</v>
+      </c>
+      <c r="V6" s="18" t="s">
+        <v>259</v>
+      </c>
+      <c r="W6" s="18" t="s">
+        <v>259</v>
+      </c>
+      <c r="X6" s="18" t="s">
+        <v>259</v>
+      </c>
+      <c r="Y6" s="18" t="s">
+        <v>278</v>
+      </c>
+      <c r="Z6" s="18" t="s">
+        <v>259</v>
+      </c>
+      <c r="AA6" s="18" t="s">
+        <v>255</v>
+      </c>
+      <c r="AB6" s="18" t="s">
+        <v>279</v>
+      </c>
+      <c r="AC6" s="18" t="s">
+        <v>277</v>
+      </c>
+      <c r="AD6" s="18" t="s">
+        <v>259</v>
+      </c>
+      <c r="AE6" s="18" t="s">
+        <v>259</v>
+      </c>
+      <c r="AF6" s="18" t="s">
+        <v>280</v>
+      </c>
+      <c r="AG6" s="18" t="s">
+        <v>280</v>
+      </c>
+      <c r="AH6" s="18" t="s">
+        <v>259</v>
+      </c>
+      <c r="AI6" s="18" t="s">
+        <v>259</v>
+      </c>
+      <c r="AJ6" s="18" t="s">
+        <v>279</v>
+      </c>
+      <c r="AK6" s="18" t="s">
+        <v>259</v>
+      </c>
+      <c r="AL6" s="18" t="s">
+        <v>259</v>
+      </c>
+      <c r="AM6" s="18" t="s">
+        <v>255</v>
+      </c>
+      <c r="AN6" s="18" t="s">
+        <v>255</v>
+      </c>
+      <c r="AO6" s="18" t="s">
+        <v>259</v>
+      </c>
+      <c r="AP6" s="18" t="s">
+        <v>255</v>
+      </c>
+      <c r="AQ6" s="18" t="s">
+        <v>259</v>
+      </c>
+      <c r="AR6" s="18" t="s">
+        <v>259</v>
+      </c>
+      <c r="AS6" s="18" t="s">
+        <v>275</v>
+      </c>
+      <c r="AT6" s="18" t="s">
+        <v>269</v>
+      </c>
+      <c r="AU6" s="18" t="s">
+        <v>276</v>
+      </c>
+      <c r="AV6" s="18" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="7" spans="1:48">
+      <c r="A7" s="18" t="s">
+        <v>352</v>
+      </c>
+      <c r="B7" s="18" t="s">
+        <v>353</v>
+      </c>
+      <c r="C7" s="18" t="s">
+        <v>354</v>
+      </c>
+      <c r="D7" s="18" t="s">
+        <v>369</v>
+      </c>
+      <c r="E7" s="18" t="s">
+        <v>364</v>
+      </c>
+      <c r="F7" s="18" t="s">
+        <v>357</v>
+      </c>
+      <c r="G7" s="18" t="s">
+        <v>358</v>
+      </c>
+      <c r="H7" s="18" t="s">
+        <v>254</v>
+      </c>
+      <c r="I7" s="18" t="s">
+        <v>370</v>
+      </c>
+      <c r="J7" s="18" t="s">
+        <v>371</v>
+      </c>
+      <c r="K7" s="18" t="s">
+        <v>371</v>
+      </c>
+      <c r="L7" s="18" t="s">
+        <v>352</v>
+      </c>
+      <c r="M7" s="18" t="s">
+        <v>255</v>
+      </c>
+      <c r="N7" s="18" t="s">
+        <v>256</v>
+      </c>
+      <c r="O7" s="18" t="s">
+        <v>257</v>
+      </c>
+      <c r="P7" s="18" t="s">
+        <v>372</v>
+      </c>
+      <c r="Q7" s="18" t="s">
+        <v>373</v>
+      </c>
+      <c r="R7" s="18" t="s">
+        <v>281</v>
+      </c>
+      <c r="S7" s="18" t="s">
+        <v>259</v>
+      </c>
+      <c r="T7" s="18" t="s">
+        <v>282</v>
+      </c>
+      <c r="U7" s="18" t="s">
+        <v>259</v>
+      </c>
+      <c r="V7" s="18" t="s">
+        <v>259</v>
+      </c>
+      <c r="W7" s="18" t="s">
+        <v>259</v>
+      </c>
+      <c r="X7" s="18" t="s">
+        <v>259</v>
+      </c>
+      <c r="Y7" s="18" t="s">
+        <v>283</v>
+      </c>
+      <c r="Z7" s="18" t="s">
+        <v>259</v>
+      </c>
+      <c r="AA7" s="18" t="s">
+        <v>255</v>
+      </c>
+      <c r="AB7" s="18" t="s">
+        <v>273</v>
+      </c>
+      <c r="AC7" s="18" t="s">
+        <v>281</v>
+      </c>
+      <c r="AD7" s="18" t="s">
+        <v>259</v>
+      </c>
+      <c r="AE7" s="18" t="s">
+        <v>259</v>
+      </c>
+      <c r="AF7" s="18" t="s">
+        <v>284</v>
+      </c>
+      <c r="AG7" s="18" t="s">
+        <v>285</v>
+      </c>
+      <c r="AH7" s="18" t="s">
+        <v>259</v>
+      </c>
+      <c r="AI7" s="18" t="s">
+        <v>286</v>
+      </c>
+      <c r="AJ7" s="18" t="s">
+        <v>287</v>
+      </c>
+      <c r="AK7" s="18" t="s">
+        <v>259</v>
+      </c>
+      <c r="AL7" s="18" t="s">
+        <v>267</v>
+      </c>
+      <c r="AM7" s="18" t="s">
+        <v>255</v>
+      </c>
+      <c r="AN7" s="18" t="s">
+        <v>255</v>
+      </c>
+      <c r="AO7" s="18" t="s">
+        <v>255</v>
+      </c>
+      <c r="AP7" s="18" t="s">
+        <v>255</v>
+      </c>
+      <c r="AQ7" s="18" t="s">
+        <v>259</v>
+      </c>
+      <c r="AR7" s="18" t="s">
+        <v>259</v>
+      </c>
+      <c r="AS7" s="18" t="s">
+        <v>288</v>
+      </c>
+      <c r="AT7" s="18" t="s">
+        <v>269</v>
+      </c>
+      <c r="AU7" s="18" t="s">
+        <v>289</v>
+      </c>
+      <c r="AV7" s="18" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="8" spans="1:48">
+      <c r="A8" s="18" t="s">
+        <v>352</v>
+      </c>
+      <c r="B8" s="18" t="s">
+        <v>353</v>
+      </c>
+      <c r="C8" s="18" t="s">
+        <v>354</v>
+      </c>
+      <c r="D8" s="18" t="s">
+        <v>374</v>
+      </c>
+      <c r="E8" s="18" t="s">
+        <v>364</v>
+      </c>
+      <c r="F8" s="18" t="s">
+        <v>375</v>
+      </c>
+      <c r="G8" s="18" t="s">
+        <v>376</v>
+      </c>
+      <c r="H8" s="18" t="s">
+        <v>290</v>
+      </c>
+      <c r="I8" s="18" t="s">
+        <v>377</v>
+      </c>
+      <c r="J8" s="18" t="s">
+        <v>378</v>
+      </c>
+      <c r="K8" s="18" t="s">
+        <v>378</v>
+      </c>
+      <c r="L8" s="18" t="s">
+        <v>352</v>
+      </c>
+      <c r="M8" s="18" t="s">
+        <v>255</v>
+      </c>
+      <c r="N8" s="18" t="s">
+        <v>256</v>
+      </c>
+      <c r="O8" s="18" t="s">
+        <v>257</v>
+      </c>
+      <c r="P8" s="18" t="s">
+        <v>379</v>
+      </c>
+      <c r="Q8" s="18" t="s">
+        <v>380</v>
+      </c>
+      <c r="R8" s="18" t="s">
+        <v>291</v>
+      </c>
+      <c r="S8" s="18" t="s">
+        <v>259</v>
+      </c>
+      <c r="T8" s="18" t="s">
+        <v>292</v>
+      </c>
+      <c r="U8" s="18" t="s">
+        <v>259</v>
+      </c>
+      <c r="V8" s="18" t="s">
+        <v>259</v>
+      </c>
+      <c r="W8" s="18" t="s">
+        <v>259</v>
+      </c>
+      <c r="X8" s="18" t="s">
+        <v>259</v>
+      </c>
+      <c r="Y8" s="18" t="s">
+        <v>292</v>
+      </c>
+      <c r="Z8" s="18" t="s">
+        <v>259</v>
+      </c>
+      <c r="AA8" s="18" t="s">
+        <v>255</v>
+      </c>
+      <c r="AB8" s="18" t="s">
+        <v>259</v>
+      </c>
+      <c r="AC8" s="18" t="s">
+        <v>291</v>
+      </c>
+      <c r="AD8" s="18" t="s">
+        <v>259</v>
+      </c>
+      <c r="AE8" s="18" t="s">
+        <v>259</v>
+      </c>
+      <c r="AF8" s="18" t="s">
+        <v>259</v>
+      </c>
+      <c r="AG8" s="18" t="s">
+        <v>259</v>
+      </c>
+      <c r="AH8" s="18" t="s">
+        <v>259</v>
+      </c>
+      <c r="AI8" s="18" t="s">
+        <v>259</v>
+      </c>
+      <c r="AJ8" s="18" t="s">
+        <v>259</v>
+      </c>
+      <c r="AK8" s="18" t="s">
+        <v>259</v>
+      </c>
+      <c r="AL8" s="18" t="s">
+        <v>259</v>
+      </c>
+      <c r="AM8" s="18" t="s">
+        <v>255</v>
+      </c>
+      <c r="AN8" s="18" t="s">
+        <v>255</v>
+      </c>
+      <c r="AO8" s="18" t="s">
+        <v>259</v>
+      </c>
+      <c r="AP8" s="18" t="s">
+        <v>255</v>
+      </c>
+      <c r="AQ8" s="18" t="s">
+        <v>255</v>
+      </c>
+      <c r="AR8" s="18" t="s">
+        <v>255</v>
+      </c>
+      <c r="AS8" s="18" t="s">
+        <v>293</v>
+      </c>
+      <c r="AT8" s="18" t="s">
+        <v>269</v>
+      </c>
+      <c r="AU8" s="18" t="s">
+        <v>270</v>
+      </c>
+      <c r="AV8" s="18" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="9" spans="1:48">
+      <c r="A9" s="18" t="s">
+        <v>352</v>
+      </c>
+      <c r="B9" s="18" t="s">
+        <v>353</v>
+      </c>
+      <c r="C9" s="18" t="s">
+        <v>354</v>
+      </c>
+      <c r="D9" s="18" t="s">
+        <v>381</v>
+      </c>
+      <c r="E9" s="18" t="s">
+        <v>364</v>
+      </c>
+      <c r="F9" s="18" t="s">
+        <v>357</v>
+      </c>
+      <c r="G9" s="18" t="s">
+        <v>358</v>
+      </c>
+      <c r="H9" s="18" t="s">
+        <v>290</v>
+      </c>
+      <c r="I9" s="18" t="s">
+        <v>382</v>
+      </c>
+      <c r="J9" s="18" t="s">
+        <v>383</v>
+      </c>
+      <c r="K9" s="18" t="s">
+        <v>383</v>
+      </c>
+      <c r="L9" s="18" t="s">
+        <v>352</v>
+      </c>
+      <c r="M9" s="18" t="s">
+        <v>255</v>
+      </c>
+      <c r="N9" s="18" t="s">
+        <v>256</v>
+      </c>
+      <c r="O9" s="18" t="s">
+        <v>257</v>
+      </c>
+      <c r="P9" s="18" t="s">
+        <v>379</v>
+      </c>
+      <c r="Q9" s="18" t="s">
+        <v>380</v>
+      </c>
+      <c r="R9" s="18" t="s">
+        <v>259</v>
+      </c>
+      <c r="S9" s="18" t="s">
+        <v>259</v>
+      </c>
+      <c r="T9" s="18" t="s">
+        <v>292</v>
+      </c>
+      <c r="U9" s="18" t="s">
+        <v>259</v>
+      </c>
+      <c r="V9" s="18" t="s">
+        <v>259</v>
+      </c>
+      <c r="W9" s="18" t="s">
+        <v>259</v>
+      </c>
+      <c r="X9" s="18" t="s">
+        <v>259</v>
+      </c>
+      <c r="Y9" s="18" t="s">
+        <v>292</v>
+      </c>
+      <c r="Z9" s="18" t="s">
+        <v>259</v>
+      </c>
+      <c r="AA9" s="18" t="s">
+        <v>255</v>
+      </c>
+      <c r="AB9" s="18" t="s">
+        <v>294</v>
+      </c>
+      <c r="AC9" s="18" t="s">
+        <v>259</v>
+      </c>
+      <c r="AD9" s="18" t="s">
+        <v>259</v>
+      </c>
+      <c r="AE9" s="18" t="s">
+        <v>259</v>
+      </c>
+      <c r="AF9" s="18" t="s">
+        <v>295</v>
+      </c>
+      <c r="AG9" s="18" t="s">
+        <v>295</v>
+      </c>
+      <c r="AH9" s="18" t="s">
+        <v>259</v>
+      </c>
+      <c r="AI9" s="18" t="s">
+        <v>259</v>
+      </c>
+      <c r="AJ9" s="18" t="s">
+        <v>294</v>
+      </c>
+      <c r="AK9" s="18" t="s">
+        <v>259</v>
+      </c>
+      <c r="AL9" s="18" t="s">
+        <v>259</v>
+      </c>
+      <c r="AM9" s="18" t="s">
+        <v>255</v>
+      </c>
+      <c r="AN9" s="18" t="s">
+        <v>255</v>
+      </c>
+      <c r="AO9" s="18" t="s">
+        <v>259</v>
+      </c>
+      <c r="AP9" s="18" t="s">
+        <v>255</v>
+      </c>
+      <c r="AQ9" s="18" t="s">
+        <v>259</v>
+      </c>
+      <c r="AR9" s="18" t="s">
+        <v>259</v>
+      </c>
+      <c r="AS9" s="18" t="s">
+        <v>275</v>
+      </c>
+      <c r="AT9" s="18" t="s">
+        <v>269</v>
+      </c>
+      <c r="AU9" s="18" t="s">
+        <v>276</v>
+      </c>
+      <c r="AV9" s="18" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="10" spans="1:48">
+      <c r="A10" s="18" t="s">
+        <v>352</v>
+      </c>
+      <c r="B10" s="18" t="s">
+        <v>353</v>
+      </c>
+      <c r="C10" s="18" t="s">
+        <v>354</v>
+      </c>
+      <c r="D10" s="18" t="s">
+        <v>384</v>
+      </c>
+      <c r="E10" s="18" t="s">
+        <v>364</v>
+      </c>
+      <c r="F10" s="18" t="s">
+        <v>357</v>
+      </c>
+      <c r="G10" s="18" t="s">
+        <v>358</v>
+      </c>
+      <c r="H10" s="18" t="s">
+        <v>290</v>
+      </c>
+      <c r="I10" s="18" t="s">
+        <v>385</v>
+      </c>
+      <c r="J10" s="18" t="s">
+        <v>366</v>
+      </c>
+      <c r="K10" s="18" t="s">
+        <v>366</v>
+      </c>
+      <c r="L10" s="18" t="s">
+        <v>353</v>
+      </c>
+      <c r="M10" s="18" t="s">
+        <v>255</v>
+      </c>
+      <c r="N10" s="18" t="s">
+        <v>256</v>
+      </c>
+      <c r="O10" s="18" t="s">
+        <v>257</v>
+      </c>
+      <c r="P10" s="18" t="s">
+        <v>386</v>
+      </c>
+      <c r="Q10" s="18" t="s">
+        <v>362</v>
+      </c>
+      <c r="R10" s="18" t="s">
+        <v>296</v>
+      </c>
+      <c r="S10" s="18" t="s">
+        <v>259</v>
+      </c>
+      <c r="T10" s="18" t="s">
+        <v>297</v>
+      </c>
+      <c r="U10" s="18" t="s">
+        <v>259</v>
+      </c>
+      <c r="V10" s="18" t="s">
+        <v>259</v>
+      </c>
+      <c r="W10" s="18" t="s">
+        <v>259</v>
+      </c>
+      <c r="X10" s="18" t="s">
+        <v>259</v>
+      </c>
+      <c r="Y10" s="18" t="s">
+        <v>297</v>
+      </c>
+      <c r="Z10" s="18" t="s">
+        <v>259</v>
+      </c>
+      <c r="AA10" s="18" t="s">
+        <v>255</v>
+      </c>
+      <c r="AB10" s="18" t="s">
+        <v>298</v>
+      </c>
+      <c r="AC10" s="18" t="s">
+        <v>296</v>
+      </c>
+      <c r="AD10" s="18" t="s">
+        <v>259</v>
+      </c>
+      <c r="AE10" s="18" t="s">
+        <v>259</v>
+      </c>
+      <c r="AF10" s="18" t="s">
+        <v>299</v>
+      </c>
+      <c r="AG10" s="18" t="s">
+        <v>299</v>
+      </c>
+      <c r="AH10" s="18" t="s">
+        <v>259</v>
+      </c>
+      <c r="AI10" s="18" t="s">
+        <v>259</v>
+      </c>
+      <c r="AJ10" s="18" t="s">
+        <v>298</v>
+      </c>
+      <c r="AK10" s="18" t="s">
+        <v>259</v>
+      </c>
+      <c r="AL10" s="18" t="s">
+        <v>259</v>
+      </c>
+      <c r="AM10" s="18" t="s">
+        <v>255</v>
+      </c>
+      <c r="AN10" s="18" t="s">
+        <v>255</v>
+      </c>
+      <c r="AO10" s="18" t="s">
+        <v>259</v>
+      </c>
+      <c r="AP10" s="18" t="s">
+        <v>255</v>
+      </c>
+      <c r="AQ10" s="18" t="s">
+        <v>259</v>
+      </c>
+      <c r="AR10" s="18" t="s">
+        <v>259</v>
+      </c>
+      <c r="AS10" s="18" t="s">
+        <v>275</v>
+      </c>
+      <c r="AT10" s="18" t="s">
+        <v>269</v>
+      </c>
+      <c r="AU10" s="18" t="s">
+        <v>276</v>
+      </c>
+      <c r="AV10" s="18" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="11" spans="1:48">
+      <c r="A11" s="18" t="s">
+        <v>352</v>
+      </c>
+      <c r="B11" s="18" t="s">
+        <v>353</v>
+      </c>
+      <c r="C11" s="18" t="s">
+        <v>354</v>
+      </c>
+      <c r="D11" s="18" t="s">
+        <v>384</v>
+      </c>
+      <c r="E11" s="18" t="s">
+        <v>364</v>
+      </c>
+      <c r="F11" s="18" t="s">
+        <v>357</v>
+      </c>
+      <c r="G11" s="18" t="s">
+        <v>358</v>
+      </c>
+      <c r="H11" s="18" t="s">
+        <v>290</v>
+      </c>
+      <c r="I11" s="18" t="s">
+        <v>385</v>
+      </c>
+      <c r="J11" s="18" t="s">
+        <v>366</v>
+      </c>
+      <c r="K11" s="18" t="s">
+        <v>366</v>
+      </c>
+      <c r="L11" s="18" t="s">
+        <v>353</v>
+      </c>
+      <c r="M11" s="18" t="s">
+        <v>255</v>
+      </c>
+      <c r="N11" s="18" t="s">
+        <v>256</v>
+      </c>
+      <c r="O11" s="18" t="s">
+        <v>257</v>
+      </c>
+      <c r="P11" s="18" t="s">
+        <v>387</v>
+      </c>
+      <c r="Q11" s="18" t="s">
+        <v>362</v>
+      </c>
+      <c r="R11" s="18" t="s">
+        <v>300</v>
+      </c>
+      <c r="S11" s="18" t="s">
+        <v>259</v>
+      </c>
+      <c r="T11" s="18" t="s">
+        <v>301</v>
+      </c>
+      <c r="U11" s="18" t="s">
+        <v>259</v>
+      </c>
+      <c r="V11" s="18" t="s">
+        <v>259</v>
+      </c>
+      <c r="W11" s="18" t="s">
+        <v>259</v>
+      </c>
+      <c r="X11" s="18" t="s">
+        <v>259</v>
+      </c>
+      <c r="Y11" s="18" t="s">
+        <v>301</v>
+      </c>
+      <c r="Z11" s="18" t="s">
+        <v>259</v>
+      </c>
+      <c r="AA11" s="18" t="s">
+        <v>255</v>
+      </c>
+      <c r="AB11" s="18" t="s">
+        <v>302</v>
+      </c>
+      <c r="AC11" s="18" t="s">
+        <v>300</v>
+      </c>
+      <c r="AD11" s="18" t="s">
+        <v>259</v>
+      </c>
+      <c r="AE11" s="18" t="s">
+        <v>259</v>
+      </c>
+      <c r="AF11" s="18" t="s">
+        <v>303</v>
+      </c>
+      <c r="AG11" s="18" t="s">
+        <v>303</v>
+      </c>
+      <c r="AH11" s="18" t="s">
+        <v>259</v>
+      </c>
+      <c r="AI11" s="18" t="s">
+        <v>259</v>
+      </c>
+      <c r="AJ11" s="18" t="s">
+        <v>302</v>
+      </c>
+      <c r="AK11" s="18" t="s">
+        <v>259</v>
+      </c>
+      <c r="AL11" s="18" t="s">
+        <v>259</v>
+      </c>
+      <c r="AM11" s="18" t="s">
+        <v>255</v>
+      </c>
+      <c r="AN11" s="18" t="s">
+        <v>255</v>
+      </c>
+      <c r="AO11" s="18" t="s">
+        <v>259</v>
+      </c>
+      <c r="AP11" s="18" t="s">
+        <v>255</v>
+      </c>
+      <c r="AQ11" s="18" t="s">
+        <v>259</v>
+      </c>
+      <c r="AR11" s="18" t="s">
+        <v>259</v>
+      </c>
+      <c r="AS11" s="18" t="s">
+        <v>275</v>
+      </c>
+      <c r="AT11" s="18" t="s">
+        <v>269</v>
+      </c>
+      <c r="AU11" s="18" t="s">
+        <v>276</v>
+      </c>
+      <c r="AV11" s="18" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="12" spans="1:48">
+      <c r="A12" s="18" t="s">
+        <v>352</v>
+      </c>
+      <c r="B12" s="18" t="s">
+        <v>353</v>
+      </c>
+      <c r="C12" s="18" t="s">
+        <v>354</v>
+      </c>
+      <c r="D12" s="18" t="s">
+        <v>388</v>
+      </c>
+      <c r="E12" s="18" t="s">
+        <v>356</v>
+      </c>
+      <c r="F12" s="18" t="s">
+        <v>357</v>
+      </c>
+      <c r="G12" s="18" t="s">
+        <v>358</v>
+      </c>
+      <c r="H12" s="18" t="s">
+        <v>290</v>
+      </c>
+      <c r="I12" s="18" t="s">
+        <v>389</v>
+      </c>
+      <c r="J12" s="18" t="s">
+        <v>390</v>
+      </c>
+      <c r="K12" s="18" t="s">
+        <v>390</v>
+      </c>
+      <c r="L12" s="18" t="s">
+        <v>391</v>
+      </c>
+      <c r="M12" s="18" t="s">
+        <v>255</v>
+      </c>
+      <c r="N12" s="18" t="s">
+        <v>256</v>
+      </c>
+      <c r="O12" s="18" t="s">
+        <v>257</v>
+      </c>
+      <c r="P12" s="18" t="s">
+        <v>392</v>
+      </c>
+      <c r="Q12" s="18" t="s">
+        <v>393</v>
+      </c>
+      <c r="R12" s="18" t="s">
+        <v>304</v>
+      </c>
+      <c r="S12" s="18" t="s">
+        <v>259</v>
+      </c>
+      <c r="T12" s="18" t="s">
+        <v>305</v>
+      </c>
+      <c r="U12" s="18" t="s">
+        <v>259</v>
+      </c>
+      <c r="V12" s="18" t="s">
+        <v>259</v>
+      </c>
+      <c r="W12" s="18" t="s">
+        <v>259</v>
+      </c>
+      <c r="X12" s="18" t="s">
+        <v>259</v>
+      </c>
+      <c r="Y12" s="18" t="s">
+        <v>305</v>
+      </c>
+      <c r="Z12" s="18" t="s">
+        <v>259</v>
+      </c>
+      <c r="AA12" s="18" t="s">
+        <v>255</v>
+      </c>
+      <c r="AB12" s="18" t="s">
+        <v>306</v>
+      </c>
+      <c r="AC12" s="18" t="s">
+        <v>304</v>
+      </c>
+      <c r="AD12" s="18" t="s">
+        <v>259</v>
+      </c>
+      <c r="AE12" s="18" t="s">
+        <v>259</v>
+      </c>
+      <c r="AF12" s="18" t="s">
+        <v>307</v>
+      </c>
+      <c r="AG12" s="18" t="s">
+        <v>307</v>
+      </c>
+      <c r="AH12" s="18" t="s">
+        <v>259</v>
+      </c>
+      <c r="AI12" s="18" t="s">
+        <v>259</v>
+      </c>
+      <c r="AJ12" s="18" t="s">
+        <v>306</v>
+      </c>
+      <c r="AK12" s="18" t="s">
+        <v>259</v>
+      </c>
+      <c r="AL12" s="18" t="s">
+        <v>259</v>
+      </c>
+      <c r="AM12" s="18" t="s">
+        <v>255</v>
+      </c>
+      <c r="AN12" s="18" t="s">
+        <v>255</v>
+      </c>
+      <c r="AO12" s="18" t="s">
+        <v>259</v>
+      </c>
+      <c r="AP12" s="18" t="s">
+        <v>255</v>
+      </c>
+      <c r="AQ12" s="18" t="s">
+        <v>259</v>
+      </c>
+      <c r="AR12" s="18" t="s">
+        <v>259</v>
+      </c>
+      <c r="AS12" s="18" t="s">
+        <v>275</v>
+      </c>
+      <c r="AT12" s="18" t="s">
+        <v>269</v>
+      </c>
+      <c r="AU12" s="18" t="s">
+        <v>276</v>
+      </c>
+      <c r="AV12" s="18" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="13" spans="1:48">
+      <c r="A13" s="18" t="s">
+        <v>352</v>
+      </c>
+      <c r="B13" s="18" t="s">
+        <v>353</v>
+      </c>
+      <c r="C13" s="18" t="s">
+        <v>354</v>
+      </c>
+      <c r="D13" s="18" t="s">
+        <v>388</v>
+      </c>
+      <c r="E13" s="18" t="s">
+        <v>356</v>
+      </c>
+      <c r="F13" s="18" t="s">
+        <v>357</v>
+      </c>
+      <c r="G13" s="18" t="s">
+        <v>358</v>
+      </c>
+      <c r="H13" s="18" t="s">
+        <v>290</v>
+      </c>
+      <c r="I13" s="18" t="s">
+        <v>389</v>
+      </c>
+      <c r="J13" s="18" t="s">
+        <v>390</v>
+      </c>
+      <c r="K13" s="18" t="s">
+        <v>390</v>
+      </c>
+      <c r="L13" s="18" t="s">
+        <v>391</v>
+      </c>
+      <c r="M13" s="18" t="s">
+        <v>255</v>
+      </c>
+      <c r="N13" s="18" t="s">
+        <v>256</v>
+      </c>
+      <c r="O13" s="18" t="s">
+        <v>257</v>
+      </c>
+      <c r="P13" s="18" t="s">
+        <v>394</v>
+      </c>
+      <c r="Q13" s="18" t="s">
+        <v>393</v>
+      </c>
+      <c r="R13" s="18" t="s">
+        <v>304</v>
+      </c>
+      <c r="S13" s="18" t="s">
+        <v>259</v>
+      </c>
+      <c r="T13" s="18" t="s">
+        <v>305</v>
+      </c>
+      <c r="U13" s="18" t="s">
+        <v>259</v>
+      </c>
+      <c r="V13" s="18" t="s">
+        <v>259</v>
+      </c>
+      <c r="W13" s="18" t="s">
+        <v>259</v>
+      </c>
+      <c r="X13" s="18" t="s">
+        <v>259</v>
+      </c>
+      <c r="Y13" s="18" t="s">
+        <v>305</v>
+      </c>
+      <c r="Z13" s="18" t="s">
+        <v>259</v>
+      </c>
+      <c r="AA13" s="18" t="s">
+        <v>255</v>
+      </c>
+      <c r="AB13" s="18" t="s">
+        <v>306</v>
+      </c>
+      <c r="AC13" s="18" t="s">
+        <v>304</v>
+      </c>
+      <c r="AD13" s="18" t="s">
+        <v>259</v>
+      </c>
+      <c r="AE13" s="18" t="s">
+        <v>259</v>
+      </c>
+      <c r="AF13" s="18" t="s">
+        <v>307</v>
+      </c>
+      <c r="AG13" s="18" t="s">
+        <v>307</v>
+      </c>
+      <c r="AH13" s="18" t="s">
+        <v>259</v>
+      </c>
+      <c r="AI13" s="18" t="s">
+        <v>259</v>
+      </c>
+      <c r="AJ13" s="18" t="s">
+        <v>306</v>
+      </c>
+      <c r="AK13" s="18" t="s">
+        <v>259</v>
+      </c>
+      <c r="AL13" s="18" t="s">
+        <v>259</v>
+      </c>
+      <c r="AM13" s="18" t="s">
+        <v>255</v>
+      </c>
+      <c r="AN13" s="18" t="s">
+        <v>255</v>
+      </c>
+      <c r="AO13" s="18" t="s">
+        <v>259</v>
+      </c>
+      <c r="AP13" s="18" t="s">
+        <v>255</v>
+      </c>
+      <c r="AQ13" s="18" t="s">
+        <v>259</v>
+      </c>
+      <c r="AR13" s="18" t="s">
+        <v>259</v>
+      </c>
+      <c r="AS13" s="18" t="s">
+        <v>275</v>
+      </c>
+      <c r="AT13" s="18" t="s">
+        <v>269</v>
+      </c>
+      <c r="AU13" s="18" t="s">
+        <v>276</v>
+      </c>
+      <c r="AV13" s="18" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="14" spans="1:48">
+      <c r="A14" s="18" t="s">
+        <v>352</v>
+      </c>
+      <c r="B14" s="18" t="s">
+        <v>353</v>
+      </c>
+      <c r="C14" s="18" t="s">
+        <v>354</v>
+      </c>
+      <c r="D14" s="18" t="s">
+        <v>395</v>
+      </c>
+      <c r="E14" s="18" t="s">
+        <v>356</v>
+      </c>
+      <c r="F14" s="18" t="s">
+        <v>357</v>
+      </c>
+      <c r="G14" s="18" t="s">
+        <v>358</v>
+      </c>
+      <c r="H14" s="18" t="s">
+        <v>290</v>
+      </c>
+      <c r="I14" s="18" t="s">
+        <v>396</v>
+      </c>
+      <c r="J14" s="18" t="s">
+        <v>397</v>
+      </c>
+      <c r="K14" s="18" t="s">
+        <v>397</v>
+      </c>
+      <c r="L14" s="18" t="s">
+        <v>398</v>
+      </c>
+      <c r="M14" s="18" t="s">
+        <v>255</v>
+      </c>
+      <c r="N14" s="18" t="s">
+        <v>256</v>
+      </c>
+      <c r="O14" s="18" t="s">
+        <v>257</v>
+      </c>
+      <c r="P14" s="18" t="s">
+        <v>399</v>
+      </c>
+      <c r="Q14" s="18" t="s">
+        <v>362</v>
+      </c>
+      <c r="R14" s="18" t="s">
+        <v>308</v>
+      </c>
+      <c r="S14" s="18" t="s">
+        <v>259</v>
+      </c>
+      <c r="T14" s="18" t="s">
+        <v>309</v>
+      </c>
+      <c r="U14" s="18" t="s">
+        <v>259</v>
+      </c>
+      <c r="V14" s="18" t="s">
+        <v>259</v>
+      </c>
+      <c r="W14" s="18" t="s">
+        <v>259</v>
+      </c>
+      <c r="X14" s="18" t="s">
+        <v>259</v>
+      </c>
+      <c r="Y14" s="18" t="s">
+        <v>310</v>
+      </c>
+      <c r="Z14" s="18" t="s">
+        <v>259</v>
+      </c>
+      <c r="AA14" s="18" t="s">
+        <v>255</v>
+      </c>
+      <c r="AB14" s="18" t="s">
+        <v>311</v>
+      </c>
+      <c r="AC14" s="18" t="s">
+        <v>308</v>
+      </c>
+      <c r="AD14" s="18" t="s">
+        <v>259</v>
+      </c>
+      <c r="AE14" s="18" t="s">
+        <v>259</v>
+      </c>
+      <c r="AF14" s="18" t="s">
+        <v>312</v>
+      </c>
+      <c r="AG14" s="18" t="s">
+        <v>313</v>
+      </c>
+      <c r="AH14" s="18" t="s">
+        <v>259</v>
+      </c>
+      <c r="AI14" s="18" t="s">
+        <v>314</v>
+      </c>
+      <c r="AJ14" s="18" t="s">
+        <v>315</v>
+      </c>
+      <c r="AK14" s="18" t="s">
+        <v>259</v>
+      </c>
+      <c r="AL14" s="18" t="s">
+        <v>316</v>
+      </c>
+      <c r="AM14" s="18" t="s">
+        <v>255</v>
+      </c>
+      <c r="AN14" s="18" t="s">
+        <v>255</v>
+      </c>
+      <c r="AO14" s="18" t="s">
+        <v>255</v>
+      </c>
+      <c r="AP14" s="18" t="s">
+        <v>255</v>
+      </c>
+      <c r="AQ14" s="18" t="s">
+        <v>259</v>
+      </c>
+      <c r="AR14" s="18" t="s">
+        <v>259</v>
+      </c>
+      <c r="AS14" s="18" t="s">
+        <v>317</v>
+      </c>
+      <c r="AT14" s="18" t="s">
+        <v>269</v>
+      </c>
+      <c r="AU14" s="18" t="s">
+        <v>318</v>
+      </c>
+      <c r="AV14" s="18" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="15" spans="1:48">
+      <c r="A15" s="18" t="s">
+        <v>352</v>
+      </c>
+      <c r="B15" s="18" t="s">
+        <v>353</v>
+      </c>
+      <c r="C15" s="18" t="s">
+        <v>354</v>
+      </c>
+      <c r="D15" s="18" t="s">
+        <v>400</v>
+      </c>
+      <c r="E15" s="18" t="s">
+        <v>364</v>
+      </c>
+      <c r="F15" s="18" t="s">
+        <v>357</v>
+      </c>
+      <c r="G15" s="18" t="s">
+        <v>358</v>
+      </c>
+      <c r="H15" s="18" t="s">
+        <v>290</v>
+      </c>
+      <c r="I15" s="18" t="s">
+        <v>401</v>
+      </c>
+      <c r="J15" s="18" t="s">
+        <v>366</v>
+      </c>
+      <c r="K15" s="18" t="s">
+        <v>366</v>
+      </c>
+      <c r="L15" s="18" t="s">
+        <v>353</v>
+      </c>
+      <c r="M15" s="18" t="s">
+        <v>255</v>
+      </c>
+      <c r="N15" s="18" t="s">
+        <v>256</v>
+      </c>
+      <c r="O15" s="18" t="s">
+        <v>257</v>
+      </c>
+      <c r="P15" s="18" t="s">
+        <v>402</v>
+      </c>
+      <c r="Q15" s="18" t="s">
+        <v>393</v>
+      </c>
+      <c r="R15" s="18" t="s">
+        <v>319</v>
+      </c>
+      <c r="S15" s="18" t="s">
+        <v>259</v>
+      </c>
+      <c r="T15" s="18" t="s">
+        <v>320</v>
+      </c>
+      <c r="U15" s="18" t="s">
+        <v>259</v>
+      </c>
+      <c r="V15" s="18" t="s">
+        <v>259</v>
+      </c>
+      <c r="W15" s="18" t="s">
+        <v>259</v>
+      </c>
+      <c r="X15" s="18" t="s">
+        <v>259</v>
+      </c>
+      <c r="Y15" s="18" t="s">
+        <v>320</v>
+      </c>
+      <c r="Z15" s="18" t="s">
+        <v>259</v>
+      </c>
+      <c r="AA15" s="18" t="s">
+        <v>255</v>
+      </c>
+      <c r="AB15" s="18" t="s">
+        <v>321</v>
+      </c>
+      <c r="AC15" s="18" t="s">
+        <v>319</v>
+      </c>
+      <c r="AD15" s="18" t="s">
+        <v>259</v>
+      </c>
+      <c r="AE15" s="18" t="s">
+        <v>259</v>
+      </c>
+      <c r="AF15" s="18" t="s">
+        <v>322</v>
+      </c>
+      <c r="AG15" s="18" t="s">
+        <v>322</v>
+      </c>
+      <c r="AH15" s="18" t="s">
+        <v>259</v>
+      </c>
+      <c r="AI15" s="18" t="s">
+        <v>259</v>
+      </c>
+      <c r="AJ15" s="18" t="s">
+        <v>321</v>
+      </c>
+      <c r="AK15" s="18" t="s">
+        <v>259</v>
+      </c>
+      <c r="AL15" s="18" t="s">
+        <v>259</v>
+      </c>
+      <c r="AM15" s="18" t="s">
+        <v>255</v>
+      </c>
+      <c r="AN15" s="18" t="s">
+        <v>255</v>
+      </c>
+      <c r="AO15" s="18" t="s">
+        <v>259</v>
+      </c>
+      <c r="AP15" s="18" t="s">
+        <v>255</v>
+      </c>
+      <c r="AQ15" s="18" t="s">
+        <v>259</v>
+      </c>
+      <c r="AR15" s="18" t="s">
+        <v>259</v>
+      </c>
+      <c r="AS15" s="18" t="s">
+        <v>275</v>
+      </c>
+      <c r="AT15" s="18" t="s">
+        <v>269</v>
+      </c>
+      <c r="AU15" s="18" t="s">
+        <v>276</v>
+      </c>
+      <c r="AV15" s="18" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="16" spans="1:48">
+      <c r="A16" s="18" t="s">
+        <v>352</v>
+      </c>
+      <c r="B16" s="18" t="s">
+        <v>353</v>
+      </c>
+      <c r="C16" s="18" t="s">
+        <v>354</v>
+      </c>
+      <c r="D16" s="18" t="s">
+        <v>400</v>
+      </c>
+      <c r="E16" s="18" t="s">
+        <v>364</v>
+      </c>
+      <c r="F16" s="18" t="s">
+        <v>357</v>
+      </c>
+      <c r="G16" s="18" t="s">
+        <v>358</v>
+      </c>
+      <c r="H16" s="18" t="s">
+        <v>290</v>
+      </c>
+      <c r="I16" s="18" t="s">
+        <v>401</v>
+      </c>
+      <c r="J16" s="18" t="s">
+        <v>366</v>
+      </c>
+      <c r="K16" s="18" t="s">
+        <v>366</v>
+      </c>
+      <c r="L16" s="18" t="s">
+        <v>353</v>
+      </c>
+      <c r="M16" s="18" t="s">
+        <v>255</v>
+      </c>
+      <c r="N16" s="18" t="s">
+        <v>256</v>
+      </c>
+      <c r="O16" s="18" t="s">
+        <v>257</v>
+      </c>
+      <c r="P16" s="18" t="s">
+        <v>403</v>
+      </c>
+      <c r="Q16" s="18" t="s">
+        <v>393</v>
+      </c>
+      <c r="R16" s="18" t="s">
+        <v>323</v>
+      </c>
+      <c r="S16" s="18" t="s">
+        <v>259</v>
+      </c>
+      <c r="T16" s="18" t="s">
+        <v>324</v>
+      </c>
+      <c r="U16" s="18" t="s">
+        <v>259</v>
+      </c>
+      <c r="V16" s="18" t="s">
+        <v>259</v>
+      </c>
+      <c r="W16" s="18" t="s">
+        <v>259</v>
+      </c>
+      <c r="X16" s="18" t="s">
+        <v>259</v>
+      </c>
+      <c r="Y16" s="18" t="s">
+        <v>324</v>
+      </c>
+      <c r="Z16" s="18" t="s">
+        <v>259</v>
+      </c>
+      <c r="AA16" s="18" t="s">
+        <v>255</v>
+      </c>
+      <c r="AB16" s="18" t="s">
+        <v>325</v>
+      </c>
+      <c r="AC16" s="18" t="s">
+        <v>323</v>
+      </c>
+      <c r="AD16" s="18" t="s">
+        <v>259</v>
+      </c>
+      <c r="AE16" s="18" t="s">
+        <v>259</v>
+      </c>
+      <c r="AF16" s="18" t="s">
+        <v>326</v>
+      </c>
+      <c r="AG16" s="18" t="s">
+        <v>326</v>
+      </c>
+      <c r="AH16" s="18" t="s">
+        <v>259</v>
+      </c>
+      <c r="AI16" s="18" t="s">
+        <v>259</v>
+      </c>
+      <c r="AJ16" s="18" t="s">
+        <v>325</v>
+      </c>
+      <c r="AK16" s="18" t="s">
+        <v>259</v>
+      </c>
+      <c r="AL16" s="18" t="s">
+        <v>259</v>
+      </c>
+      <c r="AM16" s="18" t="s">
+        <v>255</v>
+      </c>
+      <c r="AN16" s="18" t="s">
+        <v>255</v>
+      </c>
+      <c r="AO16" s="18" t="s">
+        <v>259</v>
+      </c>
+      <c r="AP16" s="18" t="s">
+        <v>255</v>
+      </c>
+      <c r="AQ16" s="18" t="s">
+        <v>259</v>
+      </c>
+      <c r="AR16" s="18" t="s">
+        <v>259</v>
+      </c>
+      <c r="AS16" s="18" t="s">
+        <v>275</v>
+      </c>
+      <c r="AT16" s="18" t="s">
+        <v>269</v>
+      </c>
+      <c r="AU16" s="18" t="s">
+        <v>276</v>
+      </c>
+      <c r="AV16" s="18" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="17" spans="1:48">
+      <c r="A17" s="18" t="s">
+        <v>352</v>
+      </c>
+      <c r="B17" s="18" t="s">
+        <v>353</v>
+      </c>
+      <c r="C17" s="18" t="s">
+        <v>354</v>
+      </c>
+      <c r="D17" s="18" t="s">
+        <v>404</v>
+      </c>
+      <c r="E17" s="18" t="s">
+        <v>405</v>
+      </c>
+      <c r="F17" s="18" t="s">
+        <v>357</v>
+      </c>
+      <c r="G17" s="18" t="s">
+        <v>358</v>
+      </c>
+      <c r="H17" s="18" t="s">
+        <v>327</v>
+      </c>
+      <c r="I17" s="18" t="s">
+        <v>406</v>
+      </c>
+      <c r="J17" s="18" t="s">
+        <v>407</v>
+      </c>
+      <c r="K17" s="18" t="s">
+        <v>407</v>
+      </c>
+      <c r="L17" s="18" t="s">
+        <v>398</v>
+      </c>
+      <c r="M17" s="18" t="s">
+        <v>255</v>
+      </c>
+      <c r="N17" s="18" t="s">
+        <v>256</v>
+      </c>
+      <c r="O17" s="18" t="s">
+        <v>257</v>
+      </c>
+      <c r="P17" s="18" t="s">
+        <v>408</v>
+      </c>
+      <c r="Q17" s="18" t="s">
+        <v>362</v>
+      </c>
+      <c r="R17" s="18" t="s">
+        <v>328</v>
+      </c>
+      <c r="S17" s="18" t="s">
+        <v>259</v>
+      </c>
+      <c r="T17" s="18" t="s">
+        <v>329</v>
+      </c>
+      <c r="U17" s="18" t="s">
+        <v>330</v>
+      </c>
+      <c r="V17" s="18" t="s">
+        <v>259</v>
+      </c>
+      <c r="W17" s="18" t="s">
+        <v>259</v>
+      </c>
+      <c r="X17" s="18" t="s">
+        <v>259</v>
+      </c>
+      <c r="Y17" s="18" t="s">
+        <v>331</v>
+      </c>
+      <c r="Z17" s="18" t="s">
+        <v>259</v>
+      </c>
+      <c r="AA17" s="18" t="s">
+        <v>255</v>
+      </c>
+      <c r="AB17" s="18" t="s">
+        <v>332</v>
+      </c>
+      <c r="AC17" s="18" t="s">
+        <v>333</v>
+      </c>
+      <c r="AD17" s="18" t="s">
+        <v>334</v>
+      </c>
+      <c r="AE17" s="18" t="s">
+        <v>259</v>
+      </c>
+      <c r="AF17" s="18" t="s">
+        <v>335</v>
+      </c>
+      <c r="AG17" s="18" t="s">
+        <v>336</v>
+      </c>
+      <c r="AH17" s="18" t="s">
+        <v>337</v>
+      </c>
+      <c r="AI17" s="18" t="s">
+        <v>259</v>
+      </c>
+      <c r="AJ17" s="18" t="s">
+        <v>338</v>
+      </c>
+      <c r="AK17" s="18" t="s">
+        <v>339</v>
+      </c>
+      <c r="AL17" s="18" t="s">
+        <v>259</v>
+      </c>
+      <c r="AM17" s="18" t="s">
+        <v>255</v>
+      </c>
+      <c r="AN17" s="18" t="s">
+        <v>255</v>
+      </c>
+      <c r="AO17" s="18" t="s">
+        <v>255</v>
+      </c>
+      <c r="AP17" s="18" t="s">
+        <v>255</v>
+      </c>
+      <c r="AQ17" s="18" t="s">
+        <v>259</v>
+      </c>
+      <c r="AR17" s="18" t="s">
+        <v>259</v>
+      </c>
+      <c r="AS17" s="18" t="s">
+        <v>275</v>
+      </c>
+      <c r="AT17" s="18" t="s">
+        <v>269</v>
+      </c>
+      <c r="AU17" s="18" t="s">
+        <v>276</v>
+      </c>
+      <c r="AV17" s="18" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="18" spans="1:48">
+      <c r="A18" s="18" t="s">
+        <v>352</v>
+      </c>
+      <c r="B18" s="18" t="s">
+        <v>353</v>
+      </c>
+      <c r="C18" s="18" t="s">
+        <v>354</v>
+      </c>
+      <c r="D18" s="18" t="s">
+        <v>409</v>
+      </c>
+      <c r="E18" s="18" t="s">
+        <v>405</v>
+      </c>
+      <c r="F18" s="18" t="s">
+        <v>357</v>
+      </c>
+      <c r="G18" s="18" t="s">
+        <v>358</v>
+      </c>
+      <c r="H18" s="18" t="s">
+        <v>327</v>
+      </c>
+      <c r="I18" s="18" t="s">
+        <v>410</v>
+      </c>
+      <c r="J18" s="18" t="s">
+        <v>407</v>
+      </c>
+      <c r="K18" s="18" t="s">
+        <v>407</v>
+      </c>
+      <c r="L18" s="18" t="s">
+        <v>398</v>
+      </c>
+      <c r="M18" s="18" t="s">
+        <v>255</v>
+      </c>
+      <c r="N18" s="18" t="s">
+        <v>256</v>
+      </c>
+      <c r="O18" s="18" t="s">
+        <v>257</v>
+      </c>
+      <c r="P18" s="18" t="s">
+        <v>411</v>
+      </c>
+      <c r="Q18" s="18" t="s">
+        <v>393</v>
+      </c>
+      <c r="R18" s="18" t="s">
+        <v>340</v>
+      </c>
+      <c r="S18" s="18" t="s">
+        <v>259</v>
+      </c>
+      <c r="T18" s="18" t="s">
+        <v>341</v>
+      </c>
+      <c r="U18" s="18" t="s">
+        <v>342</v>
+      </c>
+      <c r="V18" s="18" t="s">
+        <v>259</v>
+      </c>
+      <c r="W18" s="18" t="s">
+        <v>259</v>
+      </c>
+      <c r="X18" s="18" t="s">
+        <v>259</v>
+      </c>
+      <c r="Y18" s="18" t="s">
+        <v>343</v>
+      </c>
+      <c r="Z18" s="18" t="s">
+        <v>259</v>
+      </c>
+      <c r="AA18" s="18" t="s">
+        <v>255</v>
+      </c>
+      <c r="AB18" s="18" t="s">
+        <v>344</v>
+      </c>
+      <c r="AC18" s="18" t="s">
+        <v>345</v>
+      </c>
+      <c r="AD18" s="18" t="s">
+        <v>346</v>
+      </c>
+      <c r="AE18" s="18" t="s">
+        <v>259</v>
+      </c>
+      <c r="AF18" s="18" t="s">
+        <v>347</v>
+      </c>
+      <c r="AG18" s="18" t="s">
+        <v>348</v>
+      </c>
+      <c r="AH18" s="18" t="s">
+        <v>349</v>
+      </c>
+      <c r="AI18" s="18" t="s">
+        <v>259</v>
+      </c>
+      <c r="AJ18" s="18" t="s">
+        <v>350</v>
+      </c>
+      <c r="AK18" s="18" t="s">
+        <v>351</v>
+      </c>
+      <c r="AL18" s="18" t="s">
+        <v>259</v>
+      </c>
+      <c r="AM18" s="18" t="s">
+        <v>255</v>
+      </c>
+      <c r="AN18" s="18" t="s">
+        <v>255</v>
+      </c>
+      <c r="AO18" s="18" t="s">
+        <v>255</v>
+      </c>
+      <c r="AP18" s="18" t="s">
+        <v>255</v>
+      </c>
+      <c r="AQ18" s="18" t="s">
+        <v>259</v>
+      </c>
+      <c r="AR18" s="18" t="s">
+        <v>259</v>
+      </c>
+      <c r="AS18" s="18" t="s">
+        <v>275</v>
+      </c>
+      <c r="AT18" s="18" t="s">
+        <v>269</v>
+      </c>
+      <c r="AU18" s="18" t="s">
+        <v>276</v>
+      </c>
+      <c r="AV18" s="18" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="22" spans="1:48">
+      <c r="A22" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="B22" s="18" t="s">
+        <v>131</v>
+      </c>
+      <c r="C22" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="D22" s="18" t="s">
+        <v>133</v>
+      </c>
+      <c r="E22" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="F22" s="18" t="s">
+        <v>135</v>
+      </c>
+      <c r="G22" s="18" t="s">
+        <v>136</v>
+      </c>
+      <c r="H22" s="18" t="s">
+        <v>137</v>
+      </c>
+      <c r="I22" s="18" t="s">
+        <v>138</v>
+      </c>
+      <c r="J22" s="18" t="s">
+        <v>139</v>
+      </c>
+      <c r="K22" s="18" t="s">
+        <v>140</v>
+      </c>
+      <c r="L22" s="18" t="s">
+        <v>142</v>
+      </c>
+      <c r="M22" s="18" t="s">
+        <v>141</v>
+      </c>
+      <c r="N22" s="18" t="s">
+        <v>144</v>
+      </c>
+      <c r="O22" s="18" t="s">
+        <v>143</v>
+      </c>
+      <c r="P22" s="18" t="s">
+        <v>145</v>
+      </c>
+      <c r="Q22" s="18" t="s">
+        <v>146</v>
+      </c>
+      <c r="R22" s="18" t="s">
+        <v>147</v>
+      </c>
+      <c r="S22" s="18" t="s">
+        <v>148</v>
+      </c>
+      <c r="T22" s="18" t="s">
+        <v>149</v>
+      </c>
+      <c r="U22" s="18" t="s">
+        <v>150</v>
+      </c>
+      <c r="V22" s="18" t="s">
+        <v>151</v>
+      </c>
+      <c r="W22" s="18" t="s">
+        <v>152</v>
+      </c>
+      <c r="X22" s="18" t="s">
+        <v>153</v>
+      </c>
+      <c r="Y22" s="18" t="s">
+        <v>154</v>
+      </c>
+      <c r="Z22" s="18" t="s">
+        <v>155</v>
+      </c>
+      <c r="AA22" s="18" t="s">
+        <v>156</v>
+      </c>
+      <c r="AB22" s="18" t="s">
+        <v>157</v>
+      </c>
+      <c r="AC22" s="18" t="s">
+        <v>158</v>
+      </c>
+      <c r="AD22" s="18" t="s">
+        <v>159</v>
+      </c>
+      <c r="AE22" s="18" t="s">
+        <v>160</v>
+      </c>
+      <c r="AF22" s="18" t="s">
+        <v>161</v>
+      </c>
+      <c r="AG22" s="18" t="s">
+        <v>162</v>
+      </c>
+      <c r="AH22" s="18" t="s">
+        <v>163</v>
+      </c>
+      <c r="AI22" s="18" t="s">
+        <v>164</v>
+      </c>
+      <c r="AJ22" s="18" t="s">
+        <v>165</v>
+      </c>
+      <c r="AK22" s="18" t="s">
+        <v>166</v>
+      </c>
+      <c r="AL22" s="18" t="s">
+        <v>167</v>
+      </c>
+      <c r="AM22" s="18" t="s">
+        <v>168</v>
+      </c>
+      <c r="AN22" s="18" t="s">
+        <v>169</v>
+      </c>
+      <c r="AO22" s="18" t="s">
+        <v>170</v>
+      </c>
+      <c r="AP22" s="18" t="s">
+        <v>171</v>
+      </c>
+      <c r="AQ22" s="18" t="s">
+        <v>172</v>
+      </c>
+      <c r="AR22" s="18" t="s">
+        <v>173</v>
+      </c>
+      <c r="AS22" s="18" t="s">
+        <v>174</v>
+      </c>
+      <c r="AT22" s="18" t="s">
+        <v>175</v>
+      </c>
+      <c r="AU22" s="18" t="s">
+        <v>176</v>
+      </c>
+      <c r="AV22" s="18" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="23" spans="1:48">
+      <c r="A23" s="18" t="s">
+        <v>413</v>
+      </c>
+      <c r="B23" s="18" t="s">
+        <v>398</v>
+      </c>
+      <c r="C23" s="18" t="s">
+        <v>255</v>
+      </c>
+      <c r="D23" s="18" t="s">
+        <v>414</v>
+      </c>
+      <c r="E23" s="18" t="s">
+        <v>352</v>
+      </c>
+      <c r="F23" s="18" t="s">
+        <v>415</v>
+      </c>
+      <c r="G23" s="18" t="s">
+        <v>416</v>
+      </c>
+      <c r="H23" s="18" t="s">
+        <v>417</v>
+      </c>
+      <c r="I23" s="18" t="s">
+        <v>418</v>
+      </c>
+      <c r="J23" s="18" t="s">
+        <v>419</v>
+      </c>
+      <c r="K23" s="18" t="s">
+        <v>419</v>
+      </c>
+      <c r="L23" s="18" t="s">
+        <v>255</v>
+      </c>
+      <c r="N23" s="18" t="s">
+        <v>255</v>
+      </c>
+      <c r="P23" s="18" t="s">
+        <v>420</v>
+      </c>
+      <c r="Q23" s="18" t="s">
+        <v>421</v>
+      </c>
+      <c r="R23" s="18" t="s">
+        <v>422</v>
+      </c>
+      <c r="S23" s="18" t="s">
+        <v>255</v>
+      </c>
+      <c r="T23" s="18" t="s">
+        <v>423</v>
+      </c>
+      <c r="U23" s="18" t="s">
+        <v>422</v>
+      </c>
+      <c r="V23" s="18" t="s">
+        <v>259</v>
+      </c>
+      <c r="W23" s="18" t="s">
+        <v>422</v>
+      </c>
+      <c r="X23" s="18" t="s">
+        <v>422</v>
+      </c>
+      <c r="Y23" s="18" t="s">
+        <v>423</v>
+      </c>
+      <c r="Z23" s="18" t="s">
+        <v>422</v>
+      </c>
+      <c r="AA23" s="18" t="s">
+        <v>259</v>
+      </c>
+      <c r="AB23" s="18" t="s">
+        <v>422</v>
+      </c>
+      <c r="AC23" s="18" t="s">
+        <v>422</v>
+      </c>
+      <c r="AD23" s="18" t="s">
+        <v>422</v>
+      </c>
+      <c r="AE23" s="18" t="s">
+        <v>422</v>
+      </c>
+      <c r="AF23" s="18" t="s">
+        <v>422</v>
+      </c>
+      <c r="AG23" s="18" t="s">
+        <v>422</v>
+      </c>
+      <c r="AH23" s="18" t="s">
+        <v>422</v>
+      </c>
+      <c r="AI23" s="18" t="s">
+        <v>422</v>
+      </c>
+      <c r="AJ23" s="18" t="s">
+        <v>422</v>
+      </c>
+      <c r="AK23" s="18" t="s">
+        <v>422</v>
+      </c>
+      <c r="AL23" s="18" t="s">
+        <v>422</v>
+      </c>
+      <c r="AM23" s="18" t="s">
+        <v>422</v>
+      </c>
+      <c r="AN23" s="18" t="s">
+        <v>422</v>
+      </c>
+      <c r="AO23" s="18" t="s">
+        <v>422</v>
+      </c>
+      <c r="AP23" s="18" t="s">
+        <v>422</v>
+      </c>
+      <c r="AQ23" s="18" t="s">
+        <v>259</v>
+      </c>
+      <c r="AR23" s="18" t="s">
+        <v>255</v>
+      </c>
+      <c r="AS23" s="18" t="s">
+        <v>424</v>
+      </c>
+      <c r="AT23" s="18" t="s">
+        <v>425</v>
+      </c>
+      <c r="AU23" s="18" t="s">
+        <v>426</v>
+      </c>
+      <c r="AV23" s="18" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="24" spans="1:48">
+      <c r="A24" s="18" t="s">
+        <v>413</v>
+      </c>
+      <c r="B24" s="18" t="s">
+        <v>398</v>
+      </c>
+      <c r="C24" s="18" t="s">
+        <v>255</v>
+      </c>
+      <c r="D24" s="18" t="s">
+        <v>414</v>
+      </c>
+      <c r="E24" s="18" t="s">
+        <v>352</v>
+      </c>
+      <c r="F24" s="18" t="s">
+        <v>415</v>
+      </c>
+      <c r="G24" s="18" t="s">
+        <v>416</v>
+      </c>
+      <c r="H24" s="18" t="s">
+        <v>417</v>
+      </c>
+      <c r="I24" s="18" t="s">
+        <v>418</v>
+      </c>
+      <c r="J24" s="18" t="s">
+        <v>427</v>
+      </c>
+      <c r="K24" s="18" t="s">
+        <v>427</v>
+      </c>
+      <c r="L24" s="18" t="s">
+        <v>255</v>
+      </c>
+      <c r="N24" s="18" t="s">
+        <v>255</v>
+      </c>
+      <c r="P24" s="18" t="s">
+        <v>428</v>
+      </c>
+      <c r="Q24" s="18" t="s">
+        <v>429</v>
+      </c>
+      <c r="R24" s="18" t="s">
+        <v>422</v>
+      </c>
+      <c r="S24" s="18" t="s">
+        <v>255</v>
+      </c>
+      <c r="T24" s="18" t="s">
+        <v>430</v>
+      </c>
+      <c r="U24" s="18" t="s">
+        <v>422</v>
+      </c>
+      <c r="V24" s="18" t="s">
+        <v>259</v>
+      </c>
+      <c r="W24" s="18" t="s">
+        <v>422</v>
+      </c>
+      <c r="X24" s="18" t="s">
+        <v>422</v>
+      </c>
+      <c r="Y24" s="18" t="s">
+        <v>430</v>
+      </c>
+      <c r="Z24" s="18" t="s">
+        <v>422</v>
+      </c>
+      <c r="AA24" s="18" t="s">
+        <v>259</v>
+      </c>
+      <c r="AB24" s="18" t="s">
+        <v>422</v>
+      </c>
+      <c r="AC24" s="18" t="s">
+        <v>422</v>
+      </c>
+      <c r="AD24" s="18" t="s">
+        <v>422</v>
+      </c>
+      <c r="AE24" s="18" t="s">
+        <v>422</v>
+      </c>
+      <c r="AF24" s="18" t="s">
+        <v>422</v>
+      </c>
+      <c r="AG24" s="18" t="s">
+        <v>422</v>
+      </c>
+      <c r="AH24" s="18" t="s">
+        <v>422</v>
+      </c>
+      <c r="AI24" s="18" t="s">
+        <v>422</v>
+      </c>
+      <c r="AJ24" s="18" t="s">
+        <v>422</v>
+      </c>
+      <c r="AK24" s="18" t="s">
+        <v>422</v>
+      </c>
+      <c r="AL24" s="18" t="s">
+        <v>422</v>
+      </c>
+      <c r="AM24" s="18" t="s">
+        <v>422</v>
+      </c>
+      <c r="AN24" s="18" t="s">
+        <v>422</v>
+      </c>
+      <c r="AO24" s="18" t="s">
+        <v>422</v>
+      </c>
+      <c r="AP24" s="18" t="s">
+        <v>422</v>
+      </c>
+      <c r="AQ24" s="18" t="s">
+        <v>259</v>
+      </c>
+      <c r="AR24" s="18" t="s">
+        <v>255</v>
+      </c>
+      <c r="AS24" s="18" t="s">
+        <v>424</v>
+      </c>
+      <c r="AT24" s="18" t="s">
+        <v>425</v>
+      </c>
+      <c r="AU24" s="18" t="s">
+        <v>426</v>
+      </c>
+      <c r="AV24" s="18" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="25" spans="1:48">
+      <c r="A25" s="18" t="s">
+        <v>413</v>
+      </c>
+      <c r="B25" s="18" t="s">
+        <v>398</v>
+      </c>
+      <c r="C25" s="18" t="s">
+        <v>255</v>
+      </c>
+      <c r="D25" s="18" t="s">
+        <v>414</v>
+      </c>
+      <c r="E25" s="18" t="s">
+        <v>352</v>
+      </c>
+      <c r="F25" s="18" t="s">
+        <v>357</v>
+      </c>
+      <c r="G25" s="18" t="s">
+        <v>431</v>
+      </c>
+      <c r="H25" s="18" t="s">
+        <v>417</v>
+      </c>
+      <c r="I25" s="18" t="s">
+        <v>418</v>
+      </c>
+      <c r="J25" s="18" t="s">
+        <v>432</v>
+      </c>
+      <c r="K25" s="18" t="s">
+        <v>432</v>
+      </c>
+      <c r="L25" s="18" t="s">
+        <v>255</v>
+      </c>
+      <c r="N25" s="18" t="s">
+        <v>433</v>
+      </c>
+      <c r="P25" s="18" t="s">
+        <v>434</v>
+      </c>
+      <c r="Q25" s="18" t="s">
+        <v>435</v>
+      </c>
+      <c r="R25" s="18" t="s">
+        <v>422</v>
+      </c>
+      <c r="S25" s="18" t="s">
+        <v>255</v>
+      </c>
+      <c r="T25" s="18" t="s">
+        <v>436</v>
+      </c>
+      <c r="U25" s="18" t="s">
+        <v>422</v>
+      </c>
+      <c r="V25" s="18" t="s">
+        <v>259</v>
+      </c>
+      <c r="W25" s="18" t="s">
+        <v>422</v>
+      </c>
+      <c r="X25" s="18" t="s">
+        <v>422</v>
+      </c>
+      <c r="Y25" s="18" t="s">
+        <v>436</v>
+      </c>
+      <c r="Z25" s="18" t="s">
+        <v>422</v>
+      </c>
+      <c r="AA25" s="18" t="s">
+        <v>259</v>
+      </c>
+      <c r="AB25" s="18" t="s">
+        <v>422</v>
+      </c>
+      <c r="AC25" s="18" t="s">
+        <v>422</v>
+      </c>
+      <c r="AD25" s="18" t="s">
+        <v>422</v>
+      </c>
+      <c r="AE25" s="18" t="s">
+        <v>422</v>
+      </c>
+      <c r="AF25" s="18" t="s">
+        <v>422</v>
+      </c>
+      <c r="AG25" s="18" t="s">
+        <v>422</v>
+      </c>
+      <c r="AH25" s="18" t="s">
+        <v>422</v>
+      </c>
+      <c r="AI25" s="18" t="s">
+        <v>422</v>
+      </c>
+      <c r="AJ25" s="18" t="s">
+        <v>422</v>
+      </c>
+      <c r="AK25" s="18" t="s">
+        <v>422</v>
+      </c>
+      <c r="AL25" s="18" t="s">
+        <v>422</v>
+      </c>
+      <c r="AM25" s="18" t="s">
+        <v>422</v>
+      </c>
+      <c r="AN25" s="18" t="s">
+        <v>422</v>
+      </c>
+      <c r="AO25" s="18" t="s">
+        <v>422</v>
+      </c>
+      <c r="AP25" s="18" t="s">
+        <v>422</v>
+      </c>
+      <c r="AQ25" s="18" t="s">
+        <v>259</v>
+      </c>
+      <c r="AR25" s="18" t="s">
+        <v>255</v>
+      </c>
+      <c r="AS25" s="18" t="s">
+        <v>437</v>
+      </c>
+      <c r="AT25" s="18" t="s">
+        <v>425</v>
+      </c>
+      <c r="AU25" s="18" t="s">
+        <v>289</v>
+      </c>
+      <c r="AV25" s="18" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="26" spans="1:48">
+      <c r="A26" s="18" t="s">
+        <v>413</v>
+      </c>
+      <c r="B26" s="18" t="s">
+        <v>398</v>
+      </c>
+      <c r="C26" s="18" t="s">
+        <v>255</v>
+      </c>
+      <c r="D26" s="18" t="s">
+        <v>414</v>
+      </c>
+      <c r="E26" s="18" t="s">
+        <v>352</v>
+      </c>
+      <c r="F26" s="18" t="s">
+        <v>357</v>
+      </c>
+      <c r="G26" s="18" t="s">
+        <v>431</v>
+      </c>
+      <c r="H26" s="18" t="s">
+        <v>417</v>
+      </c>
+      <c r="I26" s="18" t="s">
+        <v>418</v>
+      </c>
+      <c r="J26" s="18" t="s">
+        <v>432</v>
+      </c>
+      <c r="K26" s="18" t="s">
+        <v>432</v>
+      </c>
+      <c r="L26" s="18" t="s">
+        <v>255</v>
+      </c>
+      <c r="N26" s="18" t="s">
+        <v>433</v>
+      </c>
+      <c r="P26" s="18" t="s">
+        <v>434</v>
+      </c>
+      <c r="Q26" s="18" t="s">
+        <v>435</v>
+      </c>
+      <c r="R26" s="18" t="s">
+        <v>422</v>
+      </c>
+      <c r="S26" s="18" t="s">
+        <v>255</v>
+      </c>
+      <c r="T26" s="18" t="s">
+        <v>436</v>
+      </c>
+      <c r="U26" s="18" t="s">
+        <v>422</v>
+      </c>
+      <c r="V26" s="18" t="s">
+        <v>259</v>
+      </c>
+      <c r="W26" s="18" t="s">
+        <v>422</v>
+      </c>
+      <c r="X26" s="18" t="s">
+        <v>422</v>
+      </c>
+      <c r="Y26" s="18" t="s">
+        <v>436</v>
+      </c>
+      <c r="Z26" s="18" t="s">
+        <v>422</v>
+      </c>
+      <c r="AA26" s="18" t="s">
+        <v>259</v>
+      </c>
+      <c r="AB26" s="18" t="s">
+        <v>422</v>
+      </c>
+      <c r="AC26" s="18" t="s">
+        <v>422</v>
+      </c>
+      <c r="AD26" s="18" t="s">
+        <v>422</v>
+      </c>
+      <c r="AE26" s="18" t="s">
+        <v>422</v>
+      </c>
+      <c r="AF26" s="18" t="s">
+        <v>422</v>
+      </c>
+      <c r="AG26" s="18" t="s">
+        <v>422</v>
+      </c>
+      <c r="AH26" s="18" t="s">
+        <v>422</v>
+      </c>
+      <c r="AI26" s="18" t="s">
+        <v>422</v>
+      </c>
+      <c r="AJ26" s="18" t="s">
+        <v>422</v>
+      </c>
+      <c r="AK26" s="18" t="s">
+        <v>422</v>
+      </c>
+      <c r="AL26" s="18" t="s">
+        <v>422</v>
+      </c>
+      <c r="AM26" s="18" t="s">
+        <v>422</v>
+      </c>
+      <c r="AN26" s="18" t="s">
+        <v>422</v>
+      </c>
+      <c r="AO26" s="18" t="s">
+        <v>422</v>
+      </c>
+      <c r="AP26" s="18" t="s">
+        <v>422</v>
+      </c>
+      <c r="AQ26" s="18" t="s">
+        <v>259</v>
+      </c>
+      <c r="AR26" s="18" t="s">
+        <v>255</v>
+      </c>
+      <c r="AS26" s="18" t="s">
+        <v>438</v>
+      </c>
+      <c r="AT26" s="18" t="s">
+        <v>425</v>
+      </c>
+      <c r="AU26" s="18" t="s">
+        <v>439</v>
+      </c>
+      <c r="AV26" s="18" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="27" spans="1:48">
+      <c r="A27" s="18" t="s">
+        <v>413</v>
+      </c>
+      <c r="B27" s="18" t="s">
+        <v>398</v>
+      </c>
+      <c r="C27" s="18" t="s">
+        <v>255</v>
+      </c>
+      <c r="D27" s="18" t="s">
+        <v>414</v>
+      </c>
+      <c r="E27" s="18" t="s">
+        <v>440</v>
+      </c>
+      <c r="F27" s="18" t="s">
+        <v>415</v>
+      </c>
+      <c r="G27" s="18" t="s">
+        <v>416</v>
+      </c>
+      <c r="H27" s="18" t="s">
+        <v>417</v>
+      </c>
+      <c r="I27" s="18" t="s">
+        <v>418</v>
+      </c>
+      <c r="J27" s="18" t="s">
+        <v>419</v>
+      </c>
+      <c r="K27" s="18" t="s">
+        <v>419</v>
+      </c>
+      <c r="L27" s="18" t="s">
+        <v>255</v>
+      </c>
+      <c r="N27" s="18" t="s">
+        <v>255</v>
+      </c>
+      <c r="P27" s="18" t="s">
+        <v>441</v>
+      </c>
+      <c r="Q27" s="18" t="s">
+        <v>442</v>
+      </c>
+      <c r="R27" s="18" t="s">
+        <v>422</v>
+      </c>
+      <c r="S27" s="18" t="s">
+        <v>255</v>
+      </c>
+      <c r="T27" s="18" t="s">
+        <v>443</v>
+      </c>
+      <c r="U27" s="18" t="s">
+        <v>422</v>
+      </c>
+      <c r="V27" s="18" t="s">
+        <v>259</v>
+      </c>
+      <c r="W27" s="18" t="s">
+        <v>422</v>
+      </c>
+      <c r="X27" s="18" t="s">
+        <v>422</v>
+      </c>
+      <c r="Y27" s="18" t="s">
+        <v>443</v>
+      </c>
+      <c r="Z27" s="18" t="s">
+        <v>422</v>
+      </c>
+      <c r="AA27" s="18" t="s">
+        <v>259</v>
+      </c>
+      <c r="AB27" s="18" t="s">
+        <v>422</v>
+      </c>
+      <c r="AC27" s="18" t="s">
+        <v>422</v>
+      </c>
+      <c r="AD27" s="18" t="s">
+        <v>422</v>
+      </c>
+      <c r="AE27" s="18" t="s">
+        <v>422</v>
+      </c>
+      <c r="AF27" s="18" t="s">
+        <v>422</v>
+      </c>
+      <c r="AG27" s="18" t="s">
+        <v>422</v>
+      </c>
+      <c r="AH27" s="18" t="s">
+        <v>422</v>
+      </c>
+      <c r="AI27" s="18" t="s">
+        <v>422</v>
+      </c>
+      <c r="AJ27" s="18" t="s">
+        <v>422</v>
+      </c>
+      <c r="AK27" s="18" t="s">
+        <v>422</v>
+      </c>
+      <c r="AL27" s="18" t="s">
+        <v>422</v>
+      </c>
+      <c r="AM27" s="18" t="s">
+        <v>422</v>
+      </c>
+      <c r="AN27" s="18" t="s">
+        <v>422</v>
+      </c>
+      <c r="AO27" s="18" t="s">
+        <v>422</v>
+      </c>
+      <c r="AP27" s="18" t="s">
+        <v>422</v>
+      </c>
+      <c r="AQ27" s="18" t="s">
+        <v>259</v>
+      </c>
+      <c r="AR27" s="18" t="s">
+        <v>255</v>
+      </c>
+      <c r="AS27" s="18" t="s">
+        <v>424</v>
+      </c>
+      <c r="AT27" s="18" t="s">
+        <v>425</v>
+      </c>
+      <c r="AU27" s="18" t="s">
+        <v>426</v>
+      </c>
+      <c r="AV27" s="18" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="28" spans="1:48">
+      <c r="A28" s="18" t="s">
+        <v>413</v>
+      </c>
+      <c r="B28" s="18" t="s">
+        <v>398</v>
+      </c>
+      <c r="C28" s="18" t="s">
+        <v>255</v>
+      </c>
+      <c r="D28" s="18" t="s">
+        <v>414</v>
+      </c>
+      <c r="E28" s="18" t="s">
+        <v>440</v>
+      </c>
+      <c r="F28" s="18" t="s">
+        <v>415</v>
+      </c>
+      <c r="G28" s="18" t="s">
+        <v>416</v>
+      </c>
+      <c r="H28" s="18" t="s">
+        <v>417</v>
+      </c>
+      <c r="I28" s="18" t="s">
+        <v>418</v>
+      </c>
+      <c r="J28" s="18" t="s">
+        <v>419</v>
+      </c>
+      <c r="K28" s="18" t="s">
+        <v>419</v>
+      </c>
+      <c r="L28" s="18" t="s">
+        <v>255</v>
+      </c>
+      <c r="N28" s="18" t="s">
+        <v>255</v>
+      </c>
+      <c r="P28" s="18" t="s">
+        <v>444</v>
+      </c>
+      <c r="Q28" s="18" t="s">
+        <v>445</v>
+      </c>
+      <c r="R28" s="18" t="s">
+        <v>422</v>
+      </c>
+      <c r="S28" s="18" t="s">
+        <v>255</v>
+      </c>
+      <c r="T28" s="18" t="s">
+        <v>446</v>
+      </c>
+      <c r="U28" s="18" t="s">
+        <v>422</v>
+      </c>
+      <c r="V28" s="18" t="s">
+        <v>259</v>
+      </c>
+      <c r="W28" s="18" t="s">
+        <v>422</v>
+      </c>
+      <c r="X28" s="18" t="s">
+        <v>422</v>
+      </c>
+      <c r="Y28" s="18" t="s">
+        <v>446</v>
+      </c>
+      <c r="Z28" s="18" t="s">
+        <v>422</v>
+      </c>
+      <c r="AA28" s="18" t="s">
+        <v>259</v>
+      </c>
+      <c r="AB28" s="18" t="s">
+        <v>422</v>
+      </c>
+      <c r="AC28" s="18" t="s">
+        <v>422</v>
+      </c>
+      <c r="AD28" s="18" t="s">
+        <v>422</v>
+      </c>
+      <c r="AE28" s="18" t="s">
+        <v>422</v>
+      </c>
+      <c r="AF28" s="18" t="s">
+        <v>422</v>
+      </c>
+      <c r="AG28" s="18" t="s">
+        <v>422</v>
+      </c>
+      <c r="AH28" s="18" t="s">
+        <v>422</v>
+      </c>
+      <c r="AI28" s="18" t="s">
+        <v>422</v>
+      </c>
+      <c r="AJ28" s="18" t="s">
+        <v>422</v>
+      </c>
+      <c r="AK28" s="18" t="s">
+        <v>422</v>
+      </c>
+      <c r="AL28" s="18" t="s">
+        <v>422</v>
+      </c>
+      <c r="AM28" s="18" t="s">
+        <v>422</v>
+      </c>
+      <c r="AN28" s="18" t="s">
+        <v>422</v>
+      </c>
+      <c r="AO28" s="18" t="s">
+        <v>422</v>
+      </c>
+      <c r="AP28" s="18" t="s">
+        <v>422</v>
+      </c>
+      <c r="AQ28" s="18" t="s">
+        <v>259</v>
+      </c>
+      <c r="AR28" s="18" t="s">
+        <v>255</v>
+      </c>
+      <c r="AS28" s="18" t="s">
+        <v>424</v>
+      </c>
+      <c r="AT28" s="18" t="s">
+        <v>425</v>
+      </c>
+      <c r="AU28" s="18" t="s">
+        <v>426</v>
+      </c>
+      <c r="AV28" s="18" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="29" spans="1:48">
+      <c r="A29" s="18" t="s">
+        <v>413</v>
+      </c>
+      <c r="B29" s="18" t="s">
+        <v>398</v>
+      </c>
+      <c r="C29" s="18" t="s">
+        <v>255</v>
+      </c>
+      <c r="D29" s="18" t="s">
+        <v>414</v>
+      </c>
+      <c r="E29" s="18" t="s">
+        <v>440</v>
+      </c>
+      <c r="F29" s="18" t="s">
+        <v>415</v>
+      </c>
+      <c r="G29" s="18" t="s">
+        <v>416</v>
+      </c>
+      <c r="H29" s="18" t="s">
+        <v>417</v>
+      </c>
+      <c r="I29" s="18" t="s">
+        <v>418</v>
+      </c>
+      <c r="J29" s="18" t="s">
+        <v>419</v>
+      </c>
+      <c r="K29" s="18" t="s">
+        <v>419</v>
+      </c>
+      <c r="L29" s="18" t="s">
+        <v>255</v>
+      </c>
+      <c r="N29" s="18" t="s">
+        <v>255</v>
+      </c>
+      <c r="P29" s="18" t="s">
+        <v>447</v>
+      </c>
+      <c r="Q29" s="18" t="s">
+        <v>448</v>
+      </c>
+      <c r="R29" s="18" t="s">
+        <v>422</v>
+      </c>
+      <c r="S29" s="18" t="s">
+        <v>255</v>
+      </c>
+      <c r="T29" s="18" t="s">
+        <v>449</v>
+      </c>
+      <c r="U29" s="18" t="s">
+        <v>422</v>
+      </c>
+      <c r="V29" s="18" t="s">
+        <v>259</v>
+      </c>
+      <c r="W29" s="18" t="s">
+        <v>422</v>
+      </c>
+      <c r="X29" s="18" t="s">
+        <v>422</v>
+      </c>
+      <c r="Y29" s="18" t="s">
+        <v>449</v>
+      </c>
+      <c r="Z29" s="18" t="s">
+        <v>422</v>
+      </c>
+      <c r="AA29" s="18" t="s">
+        <v>259</v>
+      </c>
+      <c r="AB29" s="18" t="s">
+        <v>422</v>
+      </c>
+      <c r="AC29" s="18" t="s">
+        <v>422</v>
+      </c>
+      <c r="AD29" s="18" t="s">
+        <v>422</v>
+      </c>
+      <c r="AE29" s="18" t="s">
+        <v>422</v>
+      </c>
+      <c r="AF29" s="18" t="s">
+        <v>422</v>
+      </c>
+      <c r="AG29" s="18" t="s">
+        <v>422</v>
+      </c>
+      <c r="AH29" s="18" t="s">
+        <v>422</v>
+      </c>
+      <c r="AI29" s="18" t="s">
+        <v>422</v>
+      </c>
+      <c r="AJ29" s="18" t="s">
+        <v>422</v>
+      </c>
+      <c r="AK29" s="18" t="s">
+        <v>422</v>
+      </c>
+      <c r="AL29" s="18" t="s">
+        <v>422</v>
+      </c>
+      <c r="AM29" s="18" t="s">
+        <v>422</v>
+      </c>
+      <c r="AN29" s="18" t="s">
+        <v>422</v>
+      </c>
+      <c r="AO29" s="18" t="s">
+        <v>422</v>
+      </c>
+      <c r="AP29" s="18" t="s">
+        <v>422</v>
+      </c>
+      <c r="AQ29" s="18" t="s">
+        <v>259</v>
+      </c>
+      <c r="AR29" s="18" t="s">
+        <v>255</v>
+      </c>
+      <c r="AS29" s="18" t="s">
+        <v>424</v>
+      </c>
+      <c r="AT29" s="18" t="s">
+        <v>425</v>
+      </c>
+      <c r="AU29" s="18" t="s">
+        <v>426</v>
+      </c>
+      <c r="AV29" s="18" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="30" spans="1:48">
+      <c r="A30" s="18" t="s">
+        <v>413</v>
+      </c>
+      <c r="B30" s="18" t="s">
+        <v>398</v>
+      </c>
+      <c r="C30" s="18" t="s">
+        <v>255</v>
+      </c>
+      <c r="D30" s="18" t="s">
+        <v>450</v>
+      </c>
+      <c r="E30" s="18" t="s">
+        <v>440</v>
+      </c>
+      <c r="F30" s="18" t="s">
+        <v>415</v>
+      </c>
+      <c r="G30" s="18" t="s">
+        <v>416</v>
+      </c>
+      <c r="H30" s="18" t="s">
+        <v>451</v>
+      </c>
+      <c r="I30" s="18" t="s">
+        <v>452</v>
+      </c>
+      <c r="J30" s="18" t="s">
+        <v>419</v>
+      </c>
+      <c r="K30" s="18" t="s">
+        <v>419</v>
+      </c>
+      <c r="L30" s="18" t="s">
+        <v>255</v>
+      </c>
+      <c r="N30" s="18" t="s">
+        <v>255</v>
+      </c>
+      <c r="P30" s="18" t="s">
+        <v>444</v>
+      </c>
+      <c r="Q30" s="18" t="s">
+        <v>453</v>
+      </c>
+      <c r="R30" s="18" t="s">
+        <v>422</v>
+      </c>
+      <c r="S30" s="18" t="s">
+        <v>255</v>
+      </c>
+      <c r="T30" s="18" t="s">
+        <v>454</v>
+      </c>
+      <c r="U30" s="18" t="s">
+        <v>422</v>
+      </c>
+      <c r="V30" s="18" t="s">
+        <v>259</v>
+      </c>
+      <c r="W30" s="18" t="s">
+        <v>422</v>
+      </c>
+      <c r="X30" s="18" t="s">
+        <v>422</v>
+      </c>
+      <c r="Y30" s="18" t="s">
+        <v>454</v>
+      </c>
+      <c r="Z30" s="18" t="s">
+        <v>422</v>
+      </c>
+      <c r="AA30" s="18" t="s">
+        <v>259</v>
+      </c>
+      <c r="AB30" s="18" t="s">
+        <v>422</v>
+      </c>
+      <c r="AC30" s="18" t="s">
+        <v>422</v>
+      </c>
+      <c r="AD30" s="18" t="s">
+        <v>422</v>
+      </c>
+      <c r="AE30" s="18" t="s">
+        <v>422</v>
+      </c>
+      <c r="AF30" s="18" t="s">
+        <v>422</v>
+      </c>
+      <c r="AG30" s="18" t="s">
+        <v>422</v>
+      </c>
+      <c r="AH30" s="18" t="s">
+        <v>422</v>
+      </c>
+      <c r="AI30" s="18" t="s">
+        <v>422</v>
+      </c>
+      <c r="AJ30" s="18" t="s">
+        <v>422</v>
+      </c>
+      <c r="AK30" s="18" t="s">
+        <v>422</v>
+      </c>
+      <c r="AL30" s="18" t="s">
+        <v>422</v>
+      </c>
+      <c r="AM30" s="18" t="s">
+        <v>422</v>
+      </c>
+      <c r="AN30" s="18" t="s">
+        <v>422</v>
+      </c>
+      <c r="AO30" s="18" t="s">
+        <v>422</v>
+      </c>
+      <c r="AP30" s="18" t="s">
+        <v>422</v>
+      </c>
+      <c r="AQ30" s="18" t="s">
+        <v>259</v>
+      </c>
+      <c r="AR30" s="18" t="s">
+        <v>255</v>
+      </c>
+      <c r="AS30" s="18" t="s">
+        <v>424</v>
+      </c>
+      <c r="AT30" s="18" t="s">
+        <v>425</v>
+      </c>
+      <c r="AU30" s="18" t="s">
+        <v>426</v>
+      </c>
+      <c r="AV30" s="18" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="31" spans="1:48">
+      <c r="A31" s="18" t="s">
+        <v>413</v>
+      </c>
+      <c r="B31" s="18" t="s">
+        <v>398</v>
+      </c>
+      <c r="C31" s="18" t="s">
+        <v>255</v>
+      </c>
+      <c r="D31" s="18" t="s">
+        <v>450</v>
+      </c>
+      <c r="E31" s="18" t="s">
+        <v>440</v>
+      </c>
+      <c r="F31" s="18" t="s">
+        <v>415</v>
+      </c>
+      <c r="G31" s="18" t="s">
+        <v>416</v>
+      </c>
+      <c r="H31" s="18" t="s">
+        <v>451</v>
+      </c>
+      <c r="I31" s="18" t="s">
+        <v>452</v>
+      </c>
+      <c r="J31" s="18" t="s">
+        <v>419</v>
+      </c>
+      <c r="K31" s="18" t="s">
+        <v>419</v>
+      </c>
+      <c r="L31" s="18" t="s">
+        <v>255</v>
+      </c>
+      <c r="N31" s="18" t="s">
+        <v>255</v>
+      </c>
+      <c r="P31" s="18" t="s">
+        <v>455</v>
+      </c>
+      <c r="Q31" s="18" t="s">
+        <v>453</v>
+      </c>
+      <c r="R31" s="18" t="s">
+        <v>422</v>
+      </c>
+      <c r="S31" s="18" t="s">
+        <v>255</v>
+      </c>
+      <c r="T31" s="18" t="s">
+        <v>456</v>
+      </c>
+      <c r="U31" s="18" t="s">
+        <v>422</v>
+      </c>
+      <c r="V31" s="18" t="s">
+        <v>259</v>
+      </c>
+      <c r="W31" s="18" t="s">
+        <v>422</v>
+      </c>
+      <c r="X31" s="18" t="s">
+        <v>422</v>
+      </c>
+      <c r="Y31" s="18" t="s">
+        <v>456</v>
+      </c>
+      <c r="Z31" s="18" t="s">
+        <v>422</v>
+      </c>
+      <c r="AA31" s="18" t="s">
+        <v>259</v>
+      </c>
+      <c r="AB31" s="18" t="s">
+        <v>422</v>
+      </c>
+      <c r="AC31" s="18" t="s">
+        <v>422</v>
+      </c>
+      <c r="AD31" s="18" t="s">
+        <v>422</v>
+      </c>
+      <c r="AE31" s="18" t="s">
+        <v>422</v>
+      </c>
+      <c r="AF31" s="18" t="s">
+        <v>422</v>
+      </c>
+      <c r="AG31" s="18" t="s">
+        <v>422</v>
+      </c>
+      <c r="AH31" s="18" t="s">
+        <v>422</v>
+      </c>
+      <c r="AI31" s="18" t="s">
+        <v>422</v>
+      </c>
+      <c r="AJ31" s="18" t="s">
+        <v>422</v>
+      </c>
+      <c r="AK31" s="18" t="s">
+        <v>422</v>
+      </c>
+      <c r="AL31" s="18" t="s">
+        <v>422</v>
+      </c>
+      <c r="AM31" s="18" t="s">
+        <v>422</v>
+      </c>
+      <c r="AN31" s="18" t="s">
+        <v>422</v>
+      </c>
+      <c r="AO31" s="18" t="s">
+        <v>422</v>
+      </c>
+      <c r="AP31" s="18" t="s">
+        <v>422</v>
+      </c>
+      <c r="AQ31" s="18" t="s">
+        <v>259</v>
+      </c>
+      <c r="AR31" s="18" t="s">
+        <v>255</v>
+      </c>
+      <c r="AS31" s="18" t="s">
+        <v>424</v>
+      </c>
+      <c r="AT31" s="18" t="s">
+        <v>425</v>
+      </c>
+      <c r="AU31" s="18" t="s">
+        <v>426</v>
+      </c>
+      <c r="AV31" s="18" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="32" spans="1:48">
+      <c r="A32" s="18" t="s">
+        <v>413</v>
+      </c>
+      <c r="B32" s="18" t="s">
+        <v>398</v>
+      </c>
+      <c r="C32" s="18" t="s">
+        <v>255</v>
+      </c>
+      <c r="D32" s="18" t="s">
+        <v>450</v>
+      </c>
+      <c r="E32" s="18" t="s">
+        <v>440</v>
+      </c>
+      <c r="F32" s="18" t="s">
+        <v>415</v>
+      </c>
+      <c r="G32" s="18" t="s">
+        <v>416</v>
+      </c>
+      <c r="H32" s="18" t="s">
+        <v>451</v>
+      </c>
+      <c r="I32" s="18" t="s">
+        <v>452</v>
+      </c>
+      <c r="J32" s="18" t="s">
+        <v>419</v>
+      </c>
+      <c r="K32" s="18" t="s">
+        <v>419</v>
+      </c>
+      <c r="L32" s="18" t="s">
+        <v>255</v>
+      </c>
+      <c r="N32" s="18" t="s">
+        <v>255</v>
+      </c>
+      <c r="P32" s="18" t="s">
+        <v>457</v>
+      </c>
+      <c r="Q32" s="18" t="s">
+        <v>453</v>
+      </c>
+      <c r="R32" s="18" t="s">
+        <v>422</v>
+      </c>
+      <c r="S32" s="18" t="s">
+        <v>255</v>
+      </c>
+      <c r="T32" s="18" t="s">
+        <v>458</v>
+      </c>
+      <c r="U32" s="18" t="s">
+        <v>422</v>
+      </c>
+      <c r="V32" s="18" t="s">
+        <v>259</v>
+      </c>
+      <c r="W32" s="18" t="s">
+        <v>422</v>
+      </c>
+      <c r="X32" s="18" t="s">
+        <v>422</v>
+      </c>
+      <c r="Y32" s="18" t="s">
+        <v>458</v>
+      </c>
+      <c r="Z32" s="18" t="s">
+        <v>422</v>
+      </c>
+      <c r="AA32" s="18" t="s">
+        <v>259</v>
+      </c>
+      <c r="AB32" s="18" t="s">
+        <v>422</v>
+      </c>
+      <c r="AC32" s="18" t="s">
+        <v>422</v>
+      </c>
+      <c r="AD32" s="18" t="s">
+        <v>422</v>
+      </c>
+      <c r="AE32" s="18" t="s">
+        <v>422</v>
+      </c>
+      <c r="AF32" s="18" t="s">
+        <v>422</v>
+      </c>
+      <c r="AG32" s="18" t="s">
+        <v>422</v>
+      </c>
+      <c r="AH32" s="18" t="s">
+        <v>422</v>
+      </c>
+      <c r="AI32" s="18" t="s">
+        <v>422</v>
+      </c>
+      <c r="AJ32" s="18" t="s">
+        <v>422</v>
+      </c>
+      <c r="AK32" s="18" t="s">
+        <v>422</v>
+      </c>
+      <c r="AL32" s="18" t="s">
+        <v>422</v>
+      </c>
+      <c r="AM32" s="18" t="s">
+        <v>422</v>
+      </c>
+      <c r="AN32" s="18" t="s">
+        <v>422</v>
+      </c>
+      <c r="AO32" s="18" t="s">
+        <v>422</v>
+      </c>
+      <c r="AP32" s="18" t="s">
+        <v>422</v>
+      </c>
+      <c r="AQ32" s="18" t="s">
+        <v>259</v>
+      </c>
+      <c r="AR32" s="18" t="s">
+        <v>255</v>
+      </c>
+      <c r="AS32" s="18" t="s">
+        <v>424</v>
+      </c>
+      <c r="AT32" s="18" t="s">
+        <v>425</v>
+      </c>
+      <c r="AU32" s="18" t="s">
+        <v>426</v>
+      </c>
+      <c r="AV32" s="18" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="33" spans="1:48">
+      <c r="A33" s="18" t="s">
+        <v>413</v>
+      </c>
+      <c r="B33" s="18" t="s">
+        <v>398</v>
+      </c>
+      <c r="C33" s="18" t="s">
+        <v>255</v>
+      </c>
+      <c r="D33" s="18" t="s">
+        <v>459</v>
+      </c>
+      <c r="E33" s="18" t="s">
+        <v>440</v>
+      </c>
+      <c r="F33" s="18" t="s">
+        <v>415</v>
+      </c>
+      <c r="G33" s="18" t="s">
+        <v>416</v>
+      </c>
+      <c r="H33" s="18" t="s">
+        <v>460</v>
+      </c>
+      <c r="I33" s="18" t="s">
+        <v>461</v>
+      </c>
+      <c r="J33" s="18" t="s">
+        <v>419</v>
+      </c>
+      <c r="K33" s="18" t="s">
+        <v>419</v>
+      </c>
+      <c r="L33" s="18" t="s">
+        <v>255</v>
+      </c>
+      <c r="N33" s="18" t="s">
+        <v>255</v>
+      </c>
+      <c r="P33" s="18" t="s">
+        <v>462</v>
+      </c>
+      <c r="Q33" s="18" t="s">
+        <v>453</v>
+      </c>
+      <c r="R33" s="18" t="s">
+        <v>422</v>
+      </c>
+      <c r="S33" s="18" t="s">
+        <v>255</v>
+      </c>
+      <c r="T33" s="18" t="s">
+        <v>463</v>
+      </c>
+      <c r="U33" s="18" t="s">
+        <v>422</v>
+      </c>
+      <c r="V33" s="18" t="s">
+        <v>259</v>
+      </c>
+      <c r="W33" s="18" t="s">
+        <v>422</v>
+      </c>
+      <c r="X33" s="18" t="s">
+        <v>422</v>
+      </c>
+      <c r="Y33" s="18" t="s">
+        <v>463</v>
+      </c>
+      <c r="Z33" s="18" t="s">
+        <v>422</v>
+      </c>
+      <c r="AA33" s="18" t="s">
+        <v>259</v>
+      </c>
+      <c r="AB33" s="18" t="s">
+        <v>422</v>
+      </c>
+      <c r="AC33" s="18" t="s">
+        <v>422</v>
+      </c>
+      <c r="AD33" s="18" t="s">
+        <v>422</v>
+      </c>
+      <c r="AE33" s="18" t="s">
+        <v>422</v>
+      </c>
+      <c r="AF33" s="18" t="s">
+        <v>422</v>
+      </c>
+      <c r="AG33" s="18" t="s">
+        <v>422</v>
+      </c>
+      <c r="AH33" s="18" t="s">
+        <v>422</v>
+      </c>
+      <c r="AI33" s="18" t="s">
+        <v>422</v>
+      </c>
+      <c r="AJ33" s="18" t="s">
+        <v>422</v>
+      </c>
+      <c r="AK33" s="18" t="s">
+        <v>422</v>
+      </c>
+      <c r="AL33" s="18" t="s">
+        <v>422</v>
+      </c>
+      <c r="AM33" s="18" t="s">
+        <v>422</v>
+      </c>
+      <c r="AN33" s="18" t="s">
+        <v>422</v>
+      </c>
+      <c r="AO33" s="18" t="s">
+        <v>422</v>
+      </c>
+      <c r="AP33" s="18" t="s">
+        <v>422</v>
+      </c>
+      <c r="AQ33" s="18" t="s">
+        <v>259</v>
+      </c>
+      <c r="AR33" s="18" t="s">
+        <v>255</v>
+      </c>
+      <c r="AS33" s="18" t="s">
+        <v>424</v>
+      </c>
+      <c r="AT33" s="18" t="s">
+        <v>425</v>
+      </c>
+      <c r="AU33" s="18" t="s">
+        <v>426</v>
+      </c>
+      <c r="AV33" s="18" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="34" spans="1:48">
+      <c r="A34" s="18" t="s">
+        <v>413</v>
+      </c>
+      <c r="B34" s="18" t="s">
+        <v>398</v>
+      </c>
+      <c r="C34" s="18" t="s">
+        <v>255</v>
+      </c>
+      <c r="D34" s="18" t="s">
+        <v>464</v>
+      </c>
+      <c r="E34" s="18" t="s">
+        <v>352</v>
+      </c>
+      <c r="F34" s="18" t="s">
+        <v>415</v>
+      </c>
+      <c r="G34" s="18" t="s">
+        <v>416</v>
+      </c>
+      <c r="H34" s="18" t="s">
+        <v>465</v>
+      </c>
+      <c r="I34" s="18" t="s">
+        <v>466</v>
+      </c>
+      <c r="J34" s="18" t="s">
+        <v>419</v>
+      </c>
+      <c r="K34" s="18" t="s">
+        <v>419</v>
+      </c>
+      <c r="L34" s="18" t="s">
+        <v>255</v>
+      </c>
+      <c r="N34" s="18" t="s">
+        <v>255</v>
+      </c>
+      <c r="P34" s="18" t="s">
+        <v>467</v>
+      </c>
+      <c r="Q34" s="18" t="s">
+        <v>442</v>
+      </c>
+      <c r="R34" s="18" t="s">
+        <v>422</v>
+      </c>
+      <c r="S34" s="18" t="s">
+        <v>255</v>
+      </c>
+      <c r="T34" s="18" t="s">
+        <v>468</v>
+      </c>
+      <c r="U34" s="18" t="s">
+        <v>422</v>
+      </c>
+      <c r="V34" s="18" t="s">
+        <v>259</v>
+      </c>
+      <c r="W34" s="18" t="s">
+        <v>422</v>
+      </c>
+      <c r="X34" s="18" t="s">
+        <v>422</v>
+      </c>
+      <c r="Y34" s="18" t="s">
+        <v>468</v>
+      </c>
+      <c r="Z34" s="18" t="s">
+        <v>422</v>
+      </c>
+      <c r="AA34" s="18" t="s">
+        <v>259</v>
+      </c>
+      <c r="AB34" s="18" t="s">
+        <v>422</v>
+      </c>
+      <c r="AC34" s="18" t="s">
+        <v>422</v>
+      </c>
+      <c r="AD34" s="18" t="s">
+        <v>422</v>
+      </c>
+      <c r="AE34" s="18" t="s">
+        <v>422</v>
+      </c>
+      <c r="AF34" s="18" t="s">
+        <v>422</v>
+      </c>
+      <c r="AG34" s="18" t="s">
+        <v>422</v>
+      </c>
+      <c r="AH34" s="18" t="s">
+        <v>422</v>
+      </c>
+      <c r="AI34" s="18" t="s">
+        <v>422</v>
+      </c>
+      <c r="AJ34" s="18" t="s">
+        <v>422</v>
+      </c>
+      <c r="AK34" s="18" t="s">
+        <v>422</v>
+      </c>
+      <c r="AL34" s="18" t="s">
+        <v>422</v>
+      </c>
+      <c r="AM34" s="18" t="s">
+        <v>422</v>
+      </c>
+      <c r="AN34" s="18" t="s">
+        <v>422</v>
+      </c>
+      <c r="AO34" s="18" t="s">
+        <v>422</v>
+      </c>
+      <c r="AP34" s="18" t="s">
+        <v>422</v>
+      </c>
+      <c r="AQ34" s="18" t="s">
+        <v>259</v>
+      </c>
+      <c r="AR34" s="18" t="s">
+        <v>255</v>
+      </c>
+      <c r="AS34" s="18" t="s">
+        <v>424</v>
+      </c>
+      <c r="AT34" s="18" t="s">
+        <v>425</v>
+      </c>
+      <c r="AU34" s="18" t="s">
+        <v>426</v>
+      </c>
+      <c r="AV34" s="18" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="35" spans="1:48">
+      <c r="A35" s="18" t="s">
+        <v>413</v>
+      </c>
+      <c r="B35" s="18" t="s">
+        <v>398</v>
+      </c>
+      <c r="C35" s="18" t="s">
+        <v>255</v>
+      </c>
+      <c r="D35" s="18" t="s">
+        <v>469</v>
+      </c>
+      <c r="E35" s="18" t="s">
+        <v>352</v>
+      </c>
+      <c r="F35" s="18" t="s">
+        <v>415</v>
+      </c>
+      <c r="G35" s="18" t="s">
+        <v>416</v>
+      </c>
+      <c r="H35" s="18" t="s">
+        <v>470</v>
+      </c>
+      <c r="I35" s="18" t="s">
+        <v>471</v>
+      </c>
+      <c r="J35" s="18" t="s">
+        <v>427</v>
+      </c>
+      <c r="K35" s="18" t="s">
+        <v>427</v>
+      </c>
+      <c r="L35" s="18" t="s">
+        <v>255</v>
+      </c>
+      <c r="N35" s="18" t="s">
+        <v>255</v>
+      </c>
+      <c r="P35" s="18" t="s">
+        <v>428</v>
+      </c>
+      <c r="Q35" s="18" t="s">
+        <v>429</v>
+      </c>
+      <c r="R35" s="18" t="s">
+        <v>422</v>
+      </c>
+      <c r="S35" s="18" t="s">
+        <v>255</v>
+      </c>
+      <c r="T35" s="18" t="s">
+        <v>430</v>
+      </c>
+      <c r="U35" s="18" t="s">
+        <v>422</v>
+      </c>
+      <c r="V35" s="18" t="s">
+        <v>259</v>
+      </c>
+      <c r="W35" s="18" t="s">
+        <v>422</v>
+      </c>
+      <c r="X35" s="18" t="s">
+        <v>422</v>
+      </c>
+      <c r="Y35" s="18" t="s">
+        <v>430</v>
+      </c>
+      <c r="Z35" s="18" t="s">
+        <v>422</v>
+      </c>
+      <c r="AA35" s="18" t="s">
+        <v>259</v>
+      </c>
+      <c r="AB35" s="18" t="s">
+        <v>422</v>
+      </c>
+      <c r="AC35" s="18" t="s">
+        <v>422</v>
+      </c>
+      <c r="AD35" s="18" t="s">
+        <v>422</v>
+      </c>
+      <c r="AE35" s="18" t="s">
+        <v>422</v>
+      </c>
+      <c r="AF35" s="18" t="s">
+        <v>422</v>
+      </c>
+      <c r="AG35" s="18" t="s">
+        <v>422</v>
+      </c>
+      <c r="AH35" s="18" t="s">
+        <v>422</v>
+      </c>
+      <c r="AI35" s="18" t="s">
+        <v>422</v>
+      </c>
+      <c r="AJ35" s="18" t="s">
+        <v>422</v>
+      </c>
+      <c r="AK35" s="18" t="s">
+        <v>422</v>
+      </c>
+      <c r="AL35" s="18" t="s">
+        <v>422</v>
+      </c>
+      <c r="AM35" s="18" t="s">
+        <v>422</v>
+      </c>
+      <c r="AN35" s="18" t="s">
+        <v>422</v>
+      </c>
+      <c r="AO35" s="18" t="s">
+        <v>422</v>
+      </c>
+      <c r="AP35" s="18" t="s">
+        <v>422</v>
+      </c>
+      <c r="AQ35" s="18" t="s">
+        <v>259</v>
+      </c>
+      <c r="AR35" s="18" t="s">
+        <v>255</v>
+      </c>
+      <c r="AS35" s="18" t="s">
+        <v>424</v>
+      </c>
+      <c r="AT35" s="18" t="s">
+        <v>425</v>
+      </c>
+      <c r="AU35" s="18" t="s">
+        <v>426</v>
+      </c>
+      <c r="AV35" s="18" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="36" spans="1:48">
+      <c r="A36" s="18" t="s">
+        <v>413</v>
+      </c>
+      <c r="B36" s="18" t="s">
+        <v>353</v>
+      </c>
+      <c r="C36" s="18" t="s">
+        <v>255</v>
+      </c>
+      <c r="D36" s="18" t="s">
+        <v>472</v>
+      </c>
+      <c r="E36" s="18" t="s">
+        <v>352</v>
+      </c>
+      <c r="F36" s="18" t="s">
+        <v>375</v>
+      </c>
+      <c r="G36" s="18" t="s">
+        <v>473</v>
+      </c>
+      <c r="H36" s="18" t="s">
+        <v>474</v>
+      </c>
+      <c r="I36" s="18" t="s">
+        <v>475</v>
+      </c>
+      <c r="J36" s="18" t="s">
+        <v>476</v>
+      </c>
+      <c r="K36" s="18" t="s">
+        <v>476</v>
+      </c>
+      <c r="L36" s="18" t="s">
+        <v>255</v>
+      </c>
+      <c r="N36" s="18" t="s">
+        <v>255</v>
+      </c>
+      <c r="P36" s="18" t="s">
+        <v>441</v>
+      </c>
+      <c r="Q36" s="18" t="s">
+        <v>477</v>
+      </c>
+      <c r="R36" s="18" t="s">
+        <v>422</v>
+      </c>
+      <c r="S36" s="18" t="s">
+        <v>255</v>
+      </c>
+      <c r="T36" s="18" t="s">
+        <v>478</v>
+      </c>
+      <c r="U36" s="18" t="s">
+        <v>422</v>
+      </c>
+      <c r="V36" s="18" t="s">
+        <v>259</v>
+      </c>
+      <c r="W36" s="18" t="s">
+        <v>422</v>
+      </c>
+      <c r="X36" s="18" t="s">
+        <v>422</v>
+      </c>
+      <c r="Y36" s="18" t="s">
+        <v>478</v>
+      </c>
+      <c r="Z36" s="18" t="s">
+        <v>422</v>
+      </c>
+      <c r="AA36" s="18" t="s">
+        <v>259</v>
+      </c>
+      <c r="AB36" s="18" t="s">
+        <v>422</v>
+      </c>
+      <c r="AC36" s="18" t="s">
+        <v>422</v>
+      </c>
+      <c r="AD36" s="18" t="s">
+        <v>422</v>
+      </c>
+      <c r="AE36" s="18" t="s">
+        <v>422</v>
+      </c>
+      <c r="AF36" s="18" t="s">
+        <v>422</v>
+      </c>
+      <c r="AG36" s="18" t="s">
+        <v>422</v>
+      </c>
+      <c r="AH36" s="18" t="s">
+        <v>422</v>
+      </c>
+      <c r="AI36" s="18" t="s">
+        <v>422</v>
+      </c>
+      <c r="AJ36" s="18" t="s">
+        <v>422</v>
+      </c>
+      <c r="AK36" s="18" t="s">
+        <v>422</v>
+      </c>
+      <c r="AL36" s="18" t="s">
+        <v>422</v>
+      </c>
+      <c r="AM36" s="18" t="s">
+        <v>422</v>
+      </c>
+      <c r="AN36" s="18" t="s">
+        <v>422</v>
+      </c>
+      <c r="AO36" s="18" t="s">
+        <v>422</v>
+      </c>
+      <c r="AP36" s="18" t="s">
+        <v>422</v>
+      </c>
+      <c r="AQ36" s="18" t="s">
+        <v>259</v>
+      </c>
+      <c r="AR36" s="18" t="s">
+        <v>255</v>
+      </c>
+      <c r="AS36" s="18" t="s">
+        <v>479</v>
+      </c>
+      <c r="AT36" s="18" t="s">
+        <v>425</v>
+      </c>
+      <c r="AU36" s="18" t="s">
+        <v>439</v>
+      </c>
+      <c r="AV36" s="18" t="s">
+        <v>478</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Documentação/Planilhas/Layouts/Gestao_ICMS_Atacado.xlsx
+++ b/Documentação/Planilhas/Layouts/Gestao_ICMS_Atacado.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="360" windowWidth="19875" windowHeight="7710" tabRatio="864" activeTab="5"/>
+    <workbookView xWindow="480" yWindow="360" windowWidth="19875" windowHeight="7710" tabRatio="864" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="stg_gestao_icms_endereco_ent" sheetId="79" r:id="rId1"/>
@@ -3339,8 +3339,8 @@
   </sheetPr>
   <dimension ref="A1:F61"/>
   <sheetViews>
-    <sheetView topLeftCell="A55" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A61" sqref="A61"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -4019,7 +4019,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:AV36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K27" sqref="K27"/>
     </sheetView>
   </sheetViews>

--- a/Documentação/Planilhas/Layouts/Gestao_ICMS_Atacado.xlsx
+++ b/Documentação/Planilhas/Layouts/Gestao_ICMS_Atacado.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="360" windowWidth="19875" windowHeight="7710" tabRatio="864" activeTab="4"/>
+    <workbookView xWindow="480" yWindow="360" windowWidth="19875" windowHeight="7710" tabRatio="864"/>
   </bookViews>
   <sheets>
     <sheet name="stg_gestao_icms_endereco_ent" sheetId="79" r:id="rId1"/>
@@ -2244,9 +2244,7 @@
   </sheetPr>
   <dimension ref="A1:C23"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:XFD13"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
@@ -2421,9 +2419,7 @@
   </sheetPr>
   <dimension ref="A1:F41"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
@@ -2757,9 +2753,7 @@
   </sheetPr>
   <dimension ref="A1:E32"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14:E18"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
@@ -3012,9 +3006,7 @@
   </sheetPr>
   <dimension ref="A1:E41"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
@@ -3339,9 +3331,7 @@
   </sheetPr>
   <dimension ref="A1:F61"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
@@ -4019,9 +4009,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:AV36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K27" sqref="K27"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>
   <cols>

--- a/Documentação/Planilhas/Layouts/Gestao_ICMS_Atacado.xlsx
+++ b/Documentação/Planilhas/Layouts/Gestao_ICMS_Atacado.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="360" windowWidth="19875" windowHeight="7710" tabRatio="864"/>
+    <workbookView xWindow="480" yWindow="360" windowWidth="19875" windowHeight="7710" tabRatio="864" firstSheet="2" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Resumo" sheetId="93" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="605" uniqueCount="346">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="605" uniqueCount="345">
   <si>
     <t>Campo</t>
   </si>
@@ -29,9 +29,6 @@
     <t>Descrição</t>
   </si>
   <si>
-    <t>MIS_MIGRACAO</t>
-  </si>
-  <si>
     <t>LN (Server Name: DLN01 - Username: INTEGRA_MIS)</t>
   </si>
   <si>
@@ -306,9 +303,6 @@
   </si>
   <si>
     <t xml:space="preserve">Identifica a Unidade Federativa do Faturamento através da sua sigla. Ex: RJ, SP, etc </t>
-  </si>
-  <si>
-    <t>stg_fat_faturamento</t>
   </si>
   <si>
     <t>NR_NF</t>
@@ -667,9 +661,6 @@
     <t>Valor Base do ICMS</t>
   </si>
   <si>
-    <t>stg_nfv_det</t>
-  </si>
-  <si>
     <t>CD_NATUREZA_OPERACAO</t>
   </si>
   <si>
@@ -728,9 +719,6 @@
   </si>
   <si>
     <t>Identifica o Fornecedor para o qual foi emitida a NF de devolução através do seu CNPJ ou CPF completo, sem qualquer separador. Ex: 76492701000742, 4222931000195, etc</t>
-  </si>
-  <si>
-    <t>stg_nfv_cab</t>
   </si>
   <si>
     <t>SQ_NATUREZA_OPERACAO</t>
@@ -1065,6 +1053,15 @@
   </si>
   <si>
     <t>stg_sige_devolucao_fornecedor</t>
+  </si>
+  <si>
+    <t>ods_fat_faturamento</t>
+  </si>
+  <si>
+    <t>ods_nfv_cab</t>
+  </si>
+  <si>
+    <t>ods_nfv_det</t>
   </si>
 </sst>
 </file>
@@ -2082,7 +2079,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:D12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
@@ -2095,18 +2092,18 @@
   <sheetData>
     <row r="2" spans="2:4">
       <c r="B2" s="18" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="C2" s="19" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="D2" s="20" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
     </row>
     <row r="3" spans="2:4">
       <c r="B3" s="21" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="C3" s="22" t="str">
         <f>ods_devolucao_fornecedor!B10</f>
@@ -2116,7 +2113,7 @@
     </row>
     <row r="4" spans="2:4">
       <c r="B4" s="21" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="C4" s="22" t="str">
         <f>ods_gestao_icms!B10</f>
@@ -2126,7 +2123,7 @@
     </row>
     <row r="5" spans="2:4">
       <c r="B5" s="21" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="C5" s="22" t="str">
         <f>stg_gestao_icms!B10</f>
@@ -2136,7 +2133,7 @@
     </row>
     <row r="6" spans="2:4">
       <c r="B6" s="21" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="C6" s="22" t="str">
         <f>stg_gestao_icms_dev!B10</f>
@@ -2146,7 +2143,7 @@
     </row>
     <row r="7" spans="2:4">
       <c r="B7" s="21" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="C7" s="22" t="str">
         <f>stg_gestao_icms_dev_for!B10</f>
@@ -2156,7 +2153,7 @@
     </row>
     <row r="8" spans="2:4">
       <c r="B8" s="21" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="C8" s="22" t="str">
         <f>stg_gestao_icms_endereco_ent!B10</f>
@@ -2166,7 +2163,7 @@
     </row>
     <row r="9" spans="2:4">
       <c r="B9" s="21" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="C9" s="22" t="str">
         <f>stg_sige_devolucao_fornecedor!B10</f>
@@ -2201,7 +2198,7 @@
   </sheetPr>
   <dimension ref="A1:F59"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
@@ -2220,42 +2217,42 @@
     <row r="5" spans="1:5" ht="18" customHeight="1"/>
     <row r="6" spans="1:5">
       <c r="A6" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="29.25" customHeight="1"/>
@@ -2267,184 +2264,184 @@
         <v>1</v>
       </c>
       <c r="D13" s="17" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E13" s="17" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="30" customHeight="1">
       <c r="A14" s="6" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D14" s="13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E14" s="13" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="30" customHeight="1">
       <c r="A15" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D15" s="13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E15" s="13" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="30" customHeight="1">
       <c r="A16" s="6" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D16" s="15"/>
       <c r="E16" s="15"/>
     </row>
     <row r="17" spans="1:2" ht="30" customHeight="1">
       <c r="A17" s="6" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="30" customHeight="1">
       <c r="A18" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="30" customHeight="1">
       <c r="A19" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="30" customHeight="1">
       <c r="A20" s="6" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="30" customHeight="1">
       <c r="A21" s="6" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="30" customHeight="1">
       <c r="A22" s="6" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="30" customHeight="1">
       <c r="A23" s="6" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="30" customHeight="1">
       <c r="A24" s="6" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="30" customHeight="1">
       <c r="A25" s="6" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="30" customHeight="1">
       <c r="A26" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="30" customHeight="1">
       <c r="A27" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="30" customHeight="1">
       <c r="A28" s="6" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="30" customHeight="1">
       <c r="A29" s="6" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="30" customHeight="1">
       <c r="A30" s="6" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="30" customHeight="1">
       <c r="A31" s="6" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="30" customHeight="1">
       <c r="A32" s="6" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="33" spans="1:6" s="10" customFormat="1" ht="30" customHeight="1">
       <c r="A33" s="6" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" s="4"/>
@@ -2453,10 +2450,10 @@
     </row>
     <row r="34" spans="1:6" s="10" customFormat="1" ht="30" customHeight="1">
       <c r="A34" s="6" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" s="4"/>
@@ -2465,10 +2462,10 @@
     </row>
     <row r="35" spans="1:6" s="10" customFormat="1" ht="30" customHeight="1">
       <c r="A35" s="6" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" s="4"/>
@@ -2477,10 +2474,10 @@
     </row>
     <row r="36" spans="1:6" s="10" customFormat="1" ht="30" customHeight="1">
       <c r="A36" s="6" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" s="4"/>
@@ -2489,10 +2486,10 @@
     </row>
     <row r="37" spans="1:6" s="10" customFormat="1" ht="30" customHeight="1">
       <c r="A37" s="6" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" s="4"/>
@@ -2501,10 +2498,10 @@
     </row>
     <row r="38" spans="1:6" s="10" customFormat="1" ht="30" customHeight="1">
       <c r="A38" s="6" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" s="4"/>
@@ -2512,10 +2509,10 @@
     </row>
     <row r="39" spans="1:6" s="10" customFormat="1" ht="30" customHeight="1">
       <c r="A39" s="6" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" s="4"/>
@@ -2523,10 +2520,10 @@
     </row>
     <row r="40" spans="1:6" s="10" customFormat="1" ht="30" customHeight="1">
       <c r="A40" s="6" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" s="4"/>
@@ -2534,10 +2531,10 @@
     </row>
     <row r="41" spans="1:6" s="10" customFormat="1" ht="30" customHeight="1">
       <c r="A41" s="6" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" s="4"/>
@@ -2545,10 +2542,10 @@
     </row>
     <row r="42" spans="1:6" s="10" customFormat="1" ht="30" customHeight="1">
       <c r="A42" s="6" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" s="4"/>
@@ -2556,10 +2553,10 @@
     </row>
     <row r="43" spans="1:6" s="10" customFormat="1" ht="30" customHeight="1">
       <c r="A43" s="6" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" s="4"/>
@@ -2567,10 +2564,10 @@
     </row>
     <row r="44" spans="1:6" s="10" customFormat="1" ht="30" customHeight="1">
       <c r="A44" s="6" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" s="4"/>
@@ -2578,10 +2575,10 @@
     </row>
     <row r="45" spans="1:6" s="10" customFormat="1" ht="30" customHeight="1">
       <c r="A45" s="6" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" s="4"/>
@@ -2589,10 +2586,10 @@
     </row>
     <row r="46" spans="1:6" s="10" customFormat="1" ht="30" customHeight="1">
       <c r="A46" s="6" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" s="4"/>
@@ -2600,10 +2597,10 @@
     </row>
     <row r="47" spans="1:6" s="10" customFormat="1" ht="30" customHeight="1">
       <c r="A47" s="6" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" s="4"/>
@@ -2611,10 +2608,10 @@
     </row>
     <row r="48" spans="1:6" s="10" customFormat="1" ht="30" customHeight="1">
       <c r="A48" s="6" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" s="4"/>
@@ -2622,10 +2619,10 @@
     </row>
     <row r="49" spans="1:5" s="10" customFormat="1" ht="30" customHeight="1">
       <c r="A49" s="6" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" s="4"/>
@@ -2633,10 +2630,10 @@
     </row>
     <row r="50" spans="1:5" s="10" customFormat="1" ht="30" customHeight="1">
       <c r="A50" s="6" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" s="4"/>
@@ -2644,10 +2641,10 @@
     </row>
     <row r="51" spans="1:5" s="10" customFormat="1" ht="30" customHeight="1">
       <c r="A51" s="6" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" s="4"/>
@@ -2655,10 +2652,10 @@
     </row>
     <row r="52" spans="1:5" s="10" customFormat="1" ht="30" customHeight="1">
       <c r="A52" s="6" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" s="4"/>
@@ -2666,10 +2663,10 @@
     </row>
     <row r="53" spans="1:5" s="10" customFormat="1" ht="30" customHeight="1">
       <c r="A53" s="6" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" s="4"/>
@@ -2677,10 +2674,10 @@
     </row>
     <row r="54" spans="1:5" s="10" customFormat="1" ht="30" customHeight="1">
       <c r="A54" s="6" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="B54" s="6" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" s="4"/>
@@ -2688,10 +2685,10 @@
     </row>
     <row r="55" spans="1:5" s="10" customFormat="1" ht="30" customHeight="1">
       <c r="A55" s="6" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="B55" s="6" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" s="4"/>
@@ -2699,10 +2696,10 @@
     </row>
     <row r="56" spans="1:5" s="10" customFormat="1" ht="30" customHeight="1">
       <c r="A56" s="6" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="B56" s="6" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" s="4"/>
@@ -2710,10 +2707,10 @@
     </row>
     <row r="57" spans="1:5" s="10" customFormat="1" ht="30" customHeight="1">
       <c r="A57" s="6" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="B57" s="6" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" s="4"/>
@@ -2721,10 +2718,10 @@
     </row>
     <row r="58" spans="1:5" s="10" customFormat="1" ht="30" customHeight="1">
       <c r="A58" s="6" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="B58" s="6" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" s="4"/>
@@ -2732,10 +2729,10 @@
     </row>
     <row r="59" spans="1:5" s="10" customFormat="1" ht="30" customHeight="1">
       <c r="A59" s="7" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="B59" s="7" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" s="4"/>
@@ -2774,42 +2771,42 @@
     <row r="5" spans="1:5" ht="18" customHeight="1"/>
     <row r="6" spans="1:5">
       <c r="A6" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="29.25" customHeight="1"/>
@@ -2821,196 +2818,196 @@
         <v>1</v>
       </c>
       <c r="D13" s="17" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E13" s="17" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="30" customHeight="1">
       <c r="A14" s="6" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="D14" s="13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E14" s="13" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="30" customHeight="1">
       <c r="A15" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D15" s="13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E15" s="13" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="30" customHeight="1">
       <c r="A16" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D16" s="13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E16" s="13" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="30" customHeight="1">
       <c r="A17" s="6" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D17" s="13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E17" s="13" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="30" customHeight="1">
       <c r="A18" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D18" s="15"/>
       <c r="E18" s="15"/>
     </row>
     <row r="19" spans="1:5" ht="30" customHeight="1">
       <c r="A19" s="6" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="30" customHeight="1">
       <c r="A20" s="6" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="30" customHeight="1">
       <c r="A21" s="6" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="30" customHeight="1">
       <c r="A22" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="30" customHeight="1">
       <c r="A23" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="30" customHeight="1">
       <c r="A24" s="6" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="30" customHeight="1">
       <c r="A25" s="6" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="30" customHeight="1">
       <c r="A26" s="6" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="30" customHeight="1">
       <c r="A27" s="6" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="30" customHeight="1">
       <c r="A28" s="6" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="30" customHeight="1">
       <c r="A29" s="6" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="30" customHeight="1">
       <c r="A30" s="6" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="30" customHeight="1">
       <c r="A31" s="6" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="30" customHeight="1">
       <c r="A32" s="6" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="33" spans="1:6" s="10" customFormat="1" ht="30" customHeight="1">
       <c r="A33" s="6" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" s="4"/>
@@ -3019,10 +3016,10 @@
     </row>
     <row r="34" spans="1:6" s="10" customFormat="1" ht="30" customHeight="1">
       <c r="A34" s="6" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" s="4"/>
@@ -3031,10 +3028,10 @@
     </row>
     <row r="35" spans="1:6" s="10" customFormat="1" ht="30" customHeight="1">
       <c r="A35" s="6" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" s="4"/>
@@ -3043,10 +3040,10 @@
     </row>
     <row r="36" spans="1:6" s="10" customFormat="1" ht="30" customHeight="1">
       <c r="A36" s="6" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" s="4"/>
@@ -3055,10 +3052,10 @@
     </row>
     <row r="37" spans="1:6" s="10" customFormat="1" ht="30" customHeight="1">
       <c r="A37" s="6" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" s="4"/>
@@ -3067,10 +3064,10 @@
     </row>
     <row r="38" spans="1:6" s="10" customFormat="1" ht="30" customHeight="1">
       <c r="A38" s="7" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" s="4"/>
@@ -3111,42 +3108,42 @@
     <row r="5" spans="1:5" ht="18" customHeight="1"/>
     <row r="6" spans="1:5">
       <c r="A6" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="35.1" customHeight="1">
@@ -3157,257 +3154,257 @@
         <v>1</v>
       </c>
       <c r="D13" s="17" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E13" s="17" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="30" customHeight="1">
       <c r="A14" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B14" s="6" t="s">
-        <v>31</v>
-      </c>
       <c r="D14" s="13" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E14" s="13" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="30" customHeight="1">
       <c r="A15" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D15" s="13" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E15" s="13" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="30" customHeight="1">
       <c r="A16" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D16" s="13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E16" s="13" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="30" customHeight="1">
       <c r="A17" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D17" s="13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E17" s="13" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="30" customHeight="1">
       <c r="A18" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D18" s="13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E18" s="13" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="30" customHeight="1">
       <c r="A19" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D19" s="15" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E19" s="15" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="30" customHeight="1">
       <c r="A20" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="30" customHeight="1">
       <c r="A21" s="6" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="30" customHeight="1">
       <c r="A22" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="30" customHeight="1">
       <c r="A23" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="30" customHeight="1">
       <c r="A24" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="30" customHeight="1">
       <c r="A25" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="30" customHeight="1">
       <c r="A26" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="30" customHeight="1">
       <c r="A27" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="30" customHeight="1">
       <c r="A28" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="30" customHeight="1">
       <c r="A29" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="30" customHeight="1">
       <c r="A30" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="30" customHeight="1">
       <c r="A31" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="30" customHeight="1">
       <c r="A32" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="30" customHeight="1">
       <c r="A33" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="30" customHeight="1">
       <c r="A34" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="30" customHeight="1">
       <c r="A35" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="30" customHeight="1">
       <c r="A36" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="30" customHeight="1">
       <c r="A37" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="30" customHeight="1">
       <c r="A38" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="30" customHeight="1">
       <c r="A39" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B39" s="9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="30" customHeight="1"/>
@@ -3445,42 +3442,42 @@
     <row r="5" spans="1:5" ht="18" customHeight="1"/>
     <row r="6" spans="1:5">
       <c r="A6" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="35.1" customHeight="1">
@@ -3491,176 +3488,176 @@
         <v>1</v>
       </c>
       <c r="D13" s="17" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E13" s="17" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="30" customHeight="1">
       <c r="A14" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D14" s="13" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E14" s="13" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="30" customHeight="1">
       <c r="A15" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D15" s="13" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E15" s="13" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="30" customHeight="1">
       <c r="A16" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D16" s="13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E16" s="13" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="30" customHeight="1">
       <c r="A17" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D17" s="13" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E17" s="13" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="30" customHeight="1">
       <c r="A18" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D18" s="15" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E18" s="15" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="30" customHeight="1">
       <c r="A19" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="30" customHeight="1">
       <c r="A20" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="30" customHeight="1">
       <c r="A21" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="30" customHeight="1">
       <c r="A22" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="30" customHeight="1">
       <c r="A23" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="30" customHeight="1">
       <c r="A24" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="30" customHeight="1">
       <c r="A25" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="30" customHeight="1">
       <c r="A26" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="30" customHeight="1">
       <c r="A27" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="30" customHeight="1">
       <c r="A28" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="30" customHeight="1">
       <c r="A29" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="30" customHeight="1">
       <c r="A30" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="30" customHeight="1"/>
@@ -3698,42 +3695,42 @@
     <row r="5" spans="1:5" ht="18" customHeight="1"/>
     <row r="6" spans="1:5">
       <c r="A6" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="35.1" customHeight="1">
@@ -3744,248 +3741,248 @@
         <v>1</v>
       </c>
       <c r="D13" s="17" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E13" s="17" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="30" customHeight="1">
       <c r="A14" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B14" s="6" t="s">
-        <v>31</v>
-      </c>
       <c r="D14" s="13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E14" s="13" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="30" customHeight="1">
       <c r="A15" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D15" s="13" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E15" s="13" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="30" customHeight="1">
       <c r="A16" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D16" s="13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E16" s="13" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="30" customHeight="1">
       <c r="A17" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D17" s="13" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E17" s="13" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="30" customHeight="1">
       <c r="A18" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D18" s="15" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E18" s="15" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="30" customHeight="1">
       <c r="A19" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="30" customHeight="1">
       <c r="A20" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="30" customHeight="1">
       <c r="A21" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="30" customHeight="1">
       <c r="A22" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="30" customHeight="1">
       <c r="A23" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="30" customHeight="1">
       <c r="A24" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="30" customHeight="1">
       <c r="A25" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="30" customHeight="1">
       <c r="A26" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="30" customHeight="1">
       <c r="A27" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="30" customHeight="1">
       <c r="A28" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="30" customHeight="1">
       <c r="A29" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="30" customHeight="1">
       <c r="A30" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="30" customHeight="1">
       <c r="A31" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="30" customHeight="1">
       <c r="A32" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="30" customHeight="1">
       <c r="A33" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="30" customHeight="1">
       <c r="A34" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="30" customHeight="1">
       <c r="A35" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="30" customHeight="1">
       <c r="A36" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="30" customHeight="1">
       <c r="A37" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="30" customHeight="1">
       <c r="A38" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="30" customHeight="1">
       <c r="A39" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B39" s="9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="30" customHeight="1"/>
@@ -4021,47 +4018,47 @@
     <row r="5" spans="1:3" ht="18" customHeight="1"/>
     <row r="6" spans="1:3">
       <c r="A6" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="29.25" customHeight="1">
       <c r="C12" s="16" t="s">
-        <v>2</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="35.1" customHeight="1">
@@ -4072,95 +4069,95 @@
         <v>1</v>
       </c>
       <c r="C13" s="17" t="s">
-        <v>95</v>
+        <v>342</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="30" customHeight="1">
       <c r="A14" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C14" s="13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="30" customHeight="1">
       <c r="A15" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="30" customHeight="1">
       <c r="A16" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="30" customHeight="1">
       <c r="A17" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="30" customHeight="1">
       <c r="A18" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C18" s="14" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="30" customHeight="1">
       <c r="A19" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C19" s="14" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="30" customHeight="1">
       <c r="A20" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B20" s="12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C20" s="14" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="30" customHeight="1">
       <c r="A21" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C21" s="15" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="30" customHeight="1"/>
@@ -4179,8 +4176,8 @@
   </sheetPr>
   <dimension ref="A1:F61"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView tabSelected="1" topLeftCell="A55" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -4198,50 +4195,50 @@
     <row r="5" spans="1:4" ht="18" customHeight="1"/>
     <row r="6" spans="1:4">
       <c r="A6" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="29.25" customHeight="1">
       <c r="C12" s="16" t="s">
-        <v>2</v>
+        <v>28</v>
       </c>
       <c r="D12" s="16" t="s">
-        <v>2</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="35.1" customHeight="1">
@@ -4252,600 +4249,600 @@
         <v>1</v>
       </c>
       <c r="C13" s="17" t="s">
-        <v>235</v>
+        <v>343</v>
       </c>
       <c r="D13" s="17" t="s">
-        <v>214</v>
+        <v>344</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="30" customHeight="1">
       <c r="A14" s="6" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C14" s="13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D14" s="13"/>
     </row>
     <row r="15" spans="1:4" ht="30" customHeight="1">
       <c r="A15" s="6" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D15" s="14"/>
     </row>
     <row r="16" spans="1:4" ht="30" customHeight="1">
       <c r="A16" s="6" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D16" s="14"/>
     </row>
     <row r="17" spans="1:4" ht="30" customHeight="1">
       <c r="A17" s="6" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D17" s="14"/>
     </row>
     <row r="18" spans="1:4" ht="30" customHeight="1">
       <c r="A18" s="6" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C18" s="14" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D18" s="14"/>
     </row>
     <row r="19" spans="1:4" ht="30" customHeight="1">
       <c r="A19" s="6" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C19" s="14"/>
       <c r="D19" s="14" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="30" customHeight="1">
       <c r="A20" s="6" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C20" s="14"/>
       <c r="D20" s="14" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="30" customHeight="1">
       <c r="A21" s="6" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="C21" s="14" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="D21" s="14"/>
     </row>
     <row r="22" spans="1:4" ht="30" customHeight="1">
       <c r="A22" s="6" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="C22" s="14" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="D22" s="14"/>
     </row>
     <row r="23" spans="1:4" ht="30" customHeight="1">
       <c r="A23" s="6" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="C23" s="14" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="D23" s="14"/>
     </row>
     <row r="24" spans="1:4" ht="30" customHeight="1">
       <c r="A24" s="6" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="C24" s="14" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="D24" s="14"/>
     </row>
     <row r="25" spans="1:4" ht="30" customHeight="1">
       <c r="A25" s="6" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C25" s="14" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D25" s="14" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="30" customHeight="1">
       <c r="A26" s="6" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="C26" s="14" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="D26" s="14"/>
     </row>
     <row r="27" spans="1:4" ht="30" customHeight="1">
       <c r="A27" s="6" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="C27" s="14" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D27" s="14" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="30" customHeight="1">
       <c r="A28" s="6" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C28" s="14" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="D28" s="14"/>
     </row>
     <row r="29" spans="1:4" ht="30" customHeight="1">
       <c r="A29" s="6" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C29" s="14"/>
       <c r="D29" s="14" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="30" customHeight="1">
       <c r="A30" s="6" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C30" s="14"/>
       <c r="D30" s="14" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="30" customHeight="1">
       <c r="A31" s="6" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C31" s="14"/>
       <c r="D31" s="14" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="30" customHeight="1">
       <c r="A32" s="6" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C32" s="14"/>
       <c r="D32" s="14" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
     </row>
     <row r="33" spans="1:6" s="10" customFormat="1" ht="30" customHeight="1">
       <c r="A33" s="6" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C33" s="14"/>
       <c r="D33" s="14" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" s="2"/>
     </row>
     <row r="34" spans="1:6" s="10" customFormat="1" ht="30" customHeight="1">
       <c r="A34" s="6" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C34" s="14"/>
       <c r="D34" s="14" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" s="2"/>
     </row>
     <row r="35" spans="1:6" s="10" customFormat="1" ht="30" customHeight="1">
       <c r="A35" s="6" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C35" s="14"/>
       <c r="D35" s="14" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" s="2"/>
     </row>
     <row r="36" spans="1:6" s="10" customFormat="1" ht="30" customHeight="1">
       <c r="A36" s="6" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C36" s="14"/>
       <c r="D36" s="14" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" s="2"/>
     </row>
     <row r="37" spans="1:6" s="10" customFormat="1" ht="30" customHeight="1">
       <c r="A37" s="6" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C37" s="14"/>
       <c r="D37" s="14" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" s="2"/>
     </row>
     <row r="38" spans="1:6" s="10" customFormat="1" ht="30" customHeight="1">
       <c r="A38" s="6" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C38" s="14"/>
       <c r="D38" s="14" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="39" spans="1:6" s="10" customFormat="1" ht="30" customHeight="1">
       <c r="A39" s="6" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C39" s="14"/>
       <c r="D39" s="14" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
     </row>
     <row r="40" spans="1:6" s="10" customFormat="1" ht="30" customHeight="1">
       <c r="A40" s="6" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C40" s="14"/>
       <c r="D40" s="14" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="41" spans="1:6" s="10" customFormat="1" ht="30" customHeight="1">
       <c r="A41" s="6" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C41" s="14"/>
       <c r="D41" s="14" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
     </row>
     <row r="42" spans="1:6" s="10" customFormat="1" ht="30" customHeight="1">
       <c r="A42" s="6" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C42" s="14"/>
       <c r="D42" s="14" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="43" spans="1:6" s="10" customFormat="1" ht="30" customHeight="1">
       <c r="A43" s="6" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C43" s="14"/>
       <c r="D43" s="14" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
     </row>
     <row r="44" spans="1:6" s="10" customFormat="1" ht="30" customHeight="1">
       <c r="A44" s="6" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C44" s="14"/>
       <c r="D44" s="14" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
     </row>
     <row r="45" spans="1:6" s="10" customFormat="1" ht="30" customHeight="1">
       <c r="A45" s="6" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C45" s="14"/>
       <c r="D45" s="14" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
     </row>
     <row r="46" spans="1:6" s="10" customFormat="1" ht="30" customHeight="1">
       <c r="A46" s="6" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C46" s="14"/>
       <c r="D46" s="14" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
     </row>
     <row r="47" spans="1:6" s="10" customFormat="1" ht="30" customHeight="1">
       <c r="A47" s="6" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C47" s="14"/>
       <c r="D47" s="14" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
     </row>
     <row r="48" spans="1:6" s="10" customFormat="1" ht="30" customHeight="1">
       <c r="A48" s="6" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C48" s="14"/>
       <c r="D48" s="14" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
     </row>
     <row r="49" spans="1:4" s="10" customFormat="1" ht="30" customHeight="1">
       <c r="A49" s="6" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C49" s="14"/>
       <c r="D49" s="14" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
     </row>
     <row r="50" spans="1:4" s="10" customFormat="1" ht="30" customHeight="1">
       <c r="A50" s="6" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C50" s="14"/>
       <c r="D50" s="14" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
     </row>
     <row r="51" spans="1:4" s="10" customFormat="1" ht="30" customHeight="1">
       <c r="A51" s="6" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C51" s="14"/>
       <c r="D51" s="14" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
     </row>
     <row r="52" spans="1:4" s="10" customFormat="1" ht="30" customHeight="1">
       <c r="A52" s="6" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C52" s="14"/>
       <c r="D52" s="14" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
     </row>
     <row r="53" spans="1:4" s="10" customFormat="1" ht="30" customHeight="1">
       <c r="A53" s="6" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C53" s="14"/>
       <c r="D53" s="14" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
     </row>
     <row r="54" spans="1:4" s="10" customFormat="1" ht="30" customHeight="1">
       <c r="A54" s="6" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B54" s="6" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C54" s="14"/>
       <c r="D54" s="14" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
     </row>
     <row r="55" spans="1:4" s="10" customFormat="1" ht="30" customHeight="1">
       <c r="A55" s="6" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B55" s="6" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C55" s="14"/>
       <c r="D55" s="14" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
     </row>
     <row r="56" spans="1:4" s="10" customFormat="1" ht="30" customHeight="1">
       <c r="A56" s="6" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B56" s="6" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C56" s="14"/>
       <c r="D56" s="14" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
     </row>
     <row r="57" spans="1:4" s="10" customFormat="1" ht="30" customHeight="1">
       <c r="A57" s="6" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B57" s="6" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C57" s="14"/>
       <c r="D57" s="14" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
     </row>
     <row r="58" spans="1:4" s="10" customFormat="1" ht="30" customHeight="1">
       <c r="A58" s="6" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B58" s="6" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C58" s="14" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="D58" s="14"/>
     </row>
     <row r="59" spans="1:4" s="10" customFormat="1" ht="30" customHeight="1">
       <c r="A59" s="6" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B59" s="6" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C59" s="14" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="D59" s="14"/>
     </row>
     <row r="60" spans="1:4" s="10" customFormat="1" ht="30" customHeight="1">
       <c r="A60" s="6" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B60" s="6" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C60" s="14" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="D60" s="14"/>
     </row>
     <row r="61" spans="1:4" s="10" customFormat="1" ht="30" customHeight="1">
       <c r="A61" s="7" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B61" s="7" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C61" s="15"/>
       <c r="D61" s="15" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
   </sheetData>

--- a/Documentação/Planilhas/Layouts/Gestao_ICMS_Atacado.xlsx
+++ b/Documentação/Planilhas/Layouts/Gestao_ICMS_Atacado.xlsx
@@ -4,24 +4,26 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="360" windowWidth="19875" windowHeight="7710" tabRatio="864" firstSheet="2" activeTab="7"/>
+    <workbookView xWindow="480" yWindow="360" windowWidth="19875" windowHeight="7710" tabRatio="864"/>
   </bookViews>
   <sheets>
     <sheet name="Resumo" sheetId="93" r:id="rId1"/>
-    <sheet name="ods_devolucao_fornecedor" sheetId="90" r:id="rId2"/>
-    <sheet name="ods_gestao_icms" sheetId="91" r:id="rId3"/>
-    <sheet name="stg_gestao_icms" sheetId="85" r:id="rId4"/>
-    <sheet name="stg_gestao_icms_dev" sheetId="86" r:id="rId5"/>
-    <sheet name="stg_gestao_icms_dev_for" sheetId="87" r:id="rId6"/>
-    <sheet name="stg_gestao_icms_endereco_ent" sheetId="79" r:id="rId7"/>
-    <sheet name="stg_sige_devolucao_fornecedor" sheetId="88" r:id="rId8"/>
+    <sheet name="aux_ods_gestao_icms_end_ent" sheetId="94" r:id="rId2"/>
+    <sheet name="ods_devolucao_fornecedor" sheetId="90" r:id="rId3"/>
+    <sheet name="ods_gestao_icms" sheetId="91" r:id="rId4"/>
+    <sheet name="ods_gestao_icms_endereco_ent" sheetId="95" r:id="rId5"/>
+    <sheet name="stg_gestao_icms" sheetId="85" r:id="rId6"/>
+    <sheet name="stg_gestao_icms_dev" sheetId="86" r:id="rId7"/>
+    <sheet name="stg_gestao_icms_dev_for" sheetId="87" r:id="rId8"/>
+    <sheet name="stg_gestao_icms_endereco_ent" sheetId="79" r:id="rId9"/>
+    <sheet name="stg_sige_devolucao_fornecedor" sheetId="88" r:id="rId10"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="605" uniqueCount="345">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="663" uniqueCount="353">
   <si>
     <t>Campo</t>
   </si>
@@ -1037,24 +1039,6 @@
     <t>OBSERVAÇÕES</t>
   </si>
   <si>
-    <t>ods_gestao_icms</t>
-  </si>
-  <si>
-    <t>stg_gestao_icms_endereco_ent</t>
-  </si>
-  <si>
-    <t>stg_gestao_icms</t>
-  </si>
-  <si>
-    <t>stg_gestao_icms_dev</t>
-  </si>
-  <si>
-    <t>stg_gestao_icms_dev_for</t>
-  </si>
-  <si>
-    <t>stg_sige_devolucao_fornecedor</t>
-  </si>
-  <si>
     <t>ods_fat_faturamento</t>
   </si>
   <si>
@@ -1062,13 +1046,55 @@
   </si>
   <si>
     <t>ods_nfv_det</t>
+  </si>
+  <si>
+    <t>BANCO</t>
+  </si>
+  <si>
+    <t>[com].[aux_ods_gestao_icms_endereco_ent]</t>
+  </si>
+  <si>
+    <t>nr_id_cia</t>
+  </si>
+  <si>
+    <t>nr_id_nota</t>
+  </si>
+  <si>
+    <t>ds_serie_nota</t>
+  </si>
+  <si>
+    <t>ds_situacao</t>
+  </si>
+  <si>
+    <t>ds_estado_entrega</t>
+  </si>
+  <si>
+    <t>ds_estado_fatura</t>
+  </si>
+  <si>
+    <t>Identifica a Filial através do seu código. Ex: 3, etc</t>
+  </si>
+  <si>
+    <t>Identifica a Entrega através do seu número. Ex: 4218957402, 4218960902, etc</t>
+  </si>
+  <si>
+    <t>Identifica a Unidade Federativa da entrega através da sua sigla. Ex: SP, RJ, SC, etc</t>
+  </si>
+  <si>
+    <t>Identifica a Unidade Federativa da fatura através da sua sigla. Ex: SP, RJ, SC, etc</t>
+  </si>
+  <si>
+    <t>com.stg_gestao_icms_endereco_ent</t>
+  </si>
+  <si>
+    <t>[com].[ods_gestao_icms_endereco_ent]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1098,6 +1124,13 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -1113,7 +1146,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="20">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -1325,43 +1358,6 @@
       <top style="hair">
         <color indexed="64"/>
       </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="hair">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="hair">
-        <color indexed="64"/>
-      </right>
-      <top style="hair">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="hair">
-        <color indexed="64"/>
-      </top>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -1372,6 +1368,36 @@
         <color indexed="64"/>
       </left>
       <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
         <color indexed="64"/>
       </right>
       <top style="hair">
@@ -1390,7 +1416,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1441,22 +1467,28 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1719,6 +1751,96 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="78442" y="67236"/>
+          <a:ext cx="2047875" cy="861732"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>78442</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>67236</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>545167</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>14568</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="78442" y="67236"/>
+          <a:ext cx="2047875" cy="861732"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>78442</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>67236</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>545167</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>14568</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
         <xdr:cNvPr id="1026" name="Picture 2"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
@@ -1747,7 +1869,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -2077,117 +2199,886 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B2:D12"/>
+  <dimension ref="B2:E14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="2" max="2" width="32.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="84.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="33.42578125" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="2"/>
+    <col min="2" max="2" width="36.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.85546875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="84.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="33.42578125" style="2" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4">
+    <row r="2" spans="2:5">
       <c r="B2" s="18" t="s">
         <v>333</v>
       </c>
       <c r="C2" s="19" t="s">
+        <v>339</v>
+      </c>
+      <c r="D2" s="19" t="s">
         <v>334</v>
       </c>
-      <c r="D2" s="20" t="s">
+      <c r="E2" s="20" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="3" spans="2:4">
-      <c r="B3" s="21" t="s">
-        <v>308</v>
-      </c>
-      <c r="C3" s="22" t="str">
+    <row r="3" spans="2:5">
+      <c r="B3" s="29" t="str">
+        <f>aux_ods_gestao_icms_end_ent!B9</f>
+        <v>[com].[aux_ods_gestao_icms_endereco_ent]</v>
+      </c>
+      <c r="C3" s="25" t="str">
+        <f>aux_ods_gestao_icms_end_ent!B8</f>
+        <v>MIS_STAGING</v>
+      </c>
+      <c r="D3" s="26" t="str">
+        <f>aux_ods_gestao_icms_end_ent!B10</f>
+        <v>N:\Migracao\Gestão ICMS Atacado\Gestão ICMS Atacado\stg_gestao_icms_ln.dtsx</v>
+      </c>
+      <c r="E3" s="22"/>
+    </row>
+    <row r="4" spans="2:5">
+      <c r="B4" s="29" t="str">
+        <f>ods_devolucao_fornecedor!B9</f>
+        <v>[com].[ods_devolucao_fornecedor]</v>
+      </c>
+      <c r="C4" s="25" t="str">
+        <f>ods_devolucao_fornecedor!B8</f>
+        <v>MIS_ODS</v>
+      </c>
+      <c r="D4" s="26" t="str">
         <f>ods_devolucao_fornecedor!B10</f>
         <v>N:\Migracao\Gestão ICMS Atacado\Gestão ICMS Atacado\ods_devolucao_fornecedor.dtsx</v>
       </c>
-      <c r="D3" s="22"/>
-    </row>
-    <row r="4" spans="2:4">
-      <c r="B4" s="21" t="s">
-        <v>336</v>
-      </c>
-      <c r="C4" s="22" t="str">
+      <c r="E4" s="22"/>
+    </row>
+    <row r="5" spans="2:5">
+      <c r="B5" s="29" t="str">
+        <f>ods_gestao_icms!B9</f>
+        <v>[com].[ods_gestao_icms]</v>
+      </c>
+      <c r="C5" s="25" t="str">
+        <f>ods_gestao_icms!B8</f>
+        <v>MIS_ODS</v>
+      </c>
+      <c r="D5" s="26" t="str">
         <f>ods_gestao_icms!B10</f>
         <v>N:\Migracao\Gestão ICMS Atacado\Gestão ICMS Atacado\ods_gestao_icms.dtsx</v>
       </c>
-      <c r="D4" s="22"/>
-    </row>
-    <row r="5" spans="2:4">
-      <c r="B5" s="21" t="s">
-        <v>338</v>
-      </c>
-      <c r="C5" s="22" t="str">
+      <c r="E5" s="22"/>
+    </row>
+    <row r="6" spans="2:5">
+      <c r="B6" s="29" t="str">
+        <f>ods_gestao_icms_endereco_ent!B9</f>
+        <v>[com].[ods_gestao_icms_endereco_ent]</v>
+      </c>
+      <c r="C6" s="25" t="str">
+        <f>ods_gestao_icms_endereco_ent!B8</f>
+        <v>MIS_ODS</v>
+      </c>
+      <c r="D6" s="26" t="str">
+        <f>ods_gestao_icms_endereco_ent!B10</f>
+        <v>N:\Migracao\Gestão ICMS Atacado\Gestão ICMS Atacado\stg_gestao_icms_ln.dtsx</v>
+      </c>
+      <c r="E6" s="22"/>
+    </row>
+    <row r="7" spans="2:5">
+      <c r="B7" s="29" t="str">
+        <f>stg_gestao_icms!B9</f>
+        <v>[com].[stg_gestao_icms]</v>
+      </c>
+      <c r="C7" s="25" t="str">
+        <f>stg_gestao_icms!B8</f>
+        <v>MIS_STAGING</v>
+      </c>
+      <c r="D7" s="26" t="str">
         <f>stg_gestao_icms!B10</f>
         <v>N:\Migracao\Gestão ICMS Atacado\Gestão ICMS Atacado\stg_gestao_icms_ln.dtsx</v>
       </c>
-      <c r="D5" s="22"/>
-    </row>
-    <row r="6" spans="2:4">
-      <c r="B6" s="21" t="s">
-        <v>339</v>
-      </c>
-      <c r="C6" s="22" t="str">
+      <c r="E7" s="22"/>
+    </row>
+    <row r="8" spans="2:5">
+      <c r="B8" s="29" t="str">
+        <f>stg_gestao_icms_dev!B9</f>
+        <v>[com].[stg_gestao_icms_dev]</v>
+      </c>
+      <c r="C8" s="25" t="str">
+        <f>stg_gestao_icms_dev!B8</f>
+        <v>MIS_STAGING</v>
+      </c>
+      <c r="D8" s="26" t="str">
         <f>stg_gestao_icms_dev!B10</f>
         <v>N:\Migracao\Gestão ICMS Atacado\Gestão ICMS Atacado\stg_gestao_icms_ln.dtsx</v>
       </c>
-      <c r="D6" s="22"/>
-    </row>
-    <row r="7" spans="2:4">
-      <c r="B7" s="21" t="s">
-        <v>340</v>
-      </c>
-      <c r="C7" s="22" t="str">
+      <c r="E8" s="22"/>
+    </row>
+    <row r="9" spans="2:5">
+      <c r="B9" s="29" t="str">
+        <f>stg_gestao_icms_dev_for!B9</f>
+        <v>[com].[stg_gestao_icms_dev_for]</v>
+      </c>
+      <c r="C9" s="25" t="str">
+        <f>stg_gestao_icms_dev_for!B8</f>
+        <v>MIS_STAGING</v>
+      </c>
+      <c r="D9" s="26" t="str">
         <f>stg_gestao_icms_dev_for!B10</f>
         <v>N:\Migracao\Gestão ICMS Atacado\Gestão ICMS Atacado\stg_gestao_icms_ln.dtsx</v>
       </c>
-      <c r="D7" s="22"/>
-    </row>
-    <row r="8" spans="2:4">
-      <c r="B8" s="21" t="s">
-        <v>337</v>
-      </c>
-      <c r="C8" s="22" t="str">
+      <c r="E9" s="22"/>
+    </row>
+    <row r="10" spans="2:5">
+      <c r="B10" s="29" t="str">
+        <f>stg_gestao_icms_endereco_ent!B9</f>
+        <v>[com].[stg_gestao_icms_endereco_ent]</v>
+      </c>
+      <c r="C10" s="25" t="str">
+        <f>stg_gestao_icms_endereco_ent!B8</f>
+        <v>MIS_STAGING</v>
+      </c>
+      <c r="D10" s="26" t="str">
         <f>stg_gestao_icms_endereco_ent!B10</f>
         <v>N:\Migracao\Gestão ICMS Atacado\Gestão ICMS Atacado\stg_gestao_icms_ln.dtsx</v>
       </c>
-      <c r="D8" s="22"/>
-    </row>
-    <row r="9" spans="2:4">
-      <c r="B9" s="21" t="s">
-        <v>341</v>
-      </c>
-      <c r="C9" s="22" t="str">
+      <c r="E10" s="22"/>
+    </row>
+    <row r="11" spans="2:5">
+      <c r="B11" s="29" t="str">
+        <f>stg_sige_devolucao_fornecedor!B9</f>
+        <v>[com].[stg_sige_devolucao_fornecedor]</v>
+      </c>
+      <c r="C11" s="25" t="str">
+        <f>stg_sige_devolucao_fornecedor!B8</f>
+        <v>MIS_STAGING</v>
+      </c>
+      <c r="D11" s="26" t="str">
         <f>stg_sige_devolucao_fornecedor!B10</f>
         <v>N:\Migracao\Gestão ICMS Atacado\Gestão ICMS Atacado\stg_devolucao_fornecedor_ln.dtsx</v>
       </c>
-      <c r="D9" s="22"/>
-    </row>
-    <row r="10" spans="2:4">
-      <c r="B10" s="23"/>
-      <c r="C10" s="22"/>
-      <c r="D10" s="24"/>
-    </row>
-    <row r="11" spans="2:4">
-      <c r="B11" s="23"/>
-      <c r="C11" s="22"/>
-      <c r="D11" s="24"/>
-    </row>
-    <row r="12" spans="2:4">
-      <c r="B12" s="25"/>
-      <c r="C12" s="26"/>
-      <c r="D12" s="27"/>
+      <c r="E11" s="22"/>
+    </row>
+    <row r="12" spans="2:5">
+      <c r="B12" s="21"/>
+      <c r="C12" s="25"/>
+      <c r="D12" s="26"/>
+      <c r="E12" s="22"/>
+    </row>
+    <row r="13" spans="2:5">
+      <c r="B13" s="21"/>
+      <c r="C13" s="25"/>
+      <c r="D13" s="26"/>
+      <c r="E13" s="22"/>
+    </row>
+    <row r="14" spans="2:5">
+      <c r="B14" s="23"/>
+      <c r="C14" s="27"/>
+      <c r="D14" s="28"/>
+      <c r="E14" s="24"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B4" location="ods_devolucao_fornecedor!A1" display="ods_devolucao_fornecedor!A1"/>
+    <hyperlink ref="B5" location="ods_gestao_icms!A1" display="ods_gestao_icms!A1"/>
+    <hyperlink ref="B7" location="stg_gestao_icms!A1" display="stg_gestao_icms!A1"/>
+    <hyperlink ref="B8" location="stg_gestao_icms_dev!A1" display="stg_gestao_icms_dev!A1"/>
+    <hyperlink ref="B9" location="stg_gestao_icms_dev_for!A1" display="stg_gestao_icms_dev_for!A1"/>
+    <hyperlink ref="B10" location="stg_gestao_icms_endereco_ent!A1" display="stg_gestao_icms_endereco_ent!A1"/>
+    <hyperlink ref="B11" location="stg_sige_devolucao_fornecedor!A1" display="stg_sige_devolucao_fornecedor!A1"/>
+    <hyperlink ref="B3" location="aux_ods_gestao_icms_end_ent!A1" display="aux_ods_gestao_icms_end_ent!A1"/>
+    <hyperlink ref="B6" location="ods_gestao_icms_endereco_ent!A1" display="ods_gestao_icms_endereco_ent!A1"/>
+  </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr>
+    <tabColor rgb="FF00B050"/>
+  </sheetPr>
+  <dimension ref="A1:F61"/>
+  <sheetViews>
+    <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17:B18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="1" width="23.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="75.7109375" style="1" customWidth="1"/>
+    <col min="3" max="4" width="35.7109375" style="10" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="18" customHeight="1"/>
+    <row r="2" spans="1:4" ht="18" customHeight="1"/>
+    <row r="3" spans="1:4" ht="18" customHeight="1"/>
+    <row r="4" spans="1:4" ht="18" customHeight="1"/>
+    <row r="5" spans="1:4" ht="18" customHeight="1"/>
+    <row r="6" spans="1:4">
+      <c r="A6" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="29.25" customHeight="1">
+      <c r="C12" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="D12" s="16" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="35.1" customHeight="1">
+      <c r="A13" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" s="17" t="s">
+        <v>337</v>
+      </c>
+      <c r="D13" s="17" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="30" customHeight="1">
+      <c r="A14" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" s="13"/>
+    </row>
+    <row r="15" spans="1:4" ht="30" customHeight="1">
+      <c r="A15" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15" s="14"/>
+    </row>
+    <row r="16" spans="1:4" ht="30" customHeight="1">
+      <c r="A16" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="C16" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="D16" s="14"/>
+    </row>
+    <row r="17" spans="1:4" ht="30" customHeight="1">
+      <c r="A17" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="C17" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="D17" s="14"/>
+    </row>
+    <row r="18" spans="1:4" ht="30" customHeight="1">
+      <c r="A18" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="C18" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="D18" s="14"/>
+    </row>
+    <row r="19" spans="1:4" ht="30" customHeight="1">
+      <c r="A19" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="C19" s="14"/>
+      <c r="D19" s="14" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="30" customHeight="1">
+      <c r="A20" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="C20" s="14"/>
+      <c r="D20" s="14" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="30" customHeight="1">
+      <c r="A21" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="C21" s="14" t="s">
+        <v>233</v>
+      </c>
+      <c r="D21" s="14"/>
+    </row>
+    <row r="22" spans="1:4" ht="30" customHeight="1">
+      <c r="A22" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="C22" s="14" t="s">
+        <v>234</v>
+      </c>
+      <c r="D22" s="14"/>
+    </row>
+    <row r="23" spans="1:4" ht="30" customHeight="1">
+      <c r="A23" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>231</v>
+      </c>
+      <c r="C23" s="14" t="s">
+        <v>235</v>
+      </c>
+      <c r="D23" s="14"/>
+    </row>
+    <row r="24" spans="1:4" ht="30" customHeight="1">
+      <c r="A24" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="C24" s="14" t="s">
+        <v>236</v>
+      </c>
+      <c r="D24" s="14"/>
+    </row>
+    <row r="25" spans="1:4" ht="30" customHeight="1">
+      <c r="A25" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="C25" s="14" t="s">
+        <v>190</v>
+      </c>
+      <c r="D25" s="14" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="30" customHeight="1">
+      <c r="A26" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>213</v>
+      </c>
+      <c r="C26" s="14" t="s">
+        <v>237</v>
+      </c>
+      <c r="D26" s="14"/>
+    </row>
+    <row r="27" spans="1:4" ht="30" customHeight="1">
+      <c r="A27" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="C27" s="14" t="s">
+        <v>190</v>
+      </c>
+      <c r="D27" s="14" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="30" customHeight="1">
+      <c r="A28" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="C28" s="14" t="s">
+        <v>238</v>
+      </c>
+      <c r="D28" s="14"/>
+    </row>
+    <row r="29" spans="1:4" ht="30" customHeight="1">
+      <c r="A29" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="C29" s="14"/>
+      <c r="D29" s="14" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="30" customHeight="1">
+      <c r="A30" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="C30" s="14"/>
+      <c r="D30" s="14" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="30" customHeight="1">
+      <c r="A31" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="C31" s="14"/>
+      <c r="D31" s="14" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="30" customHeight="1">
+      <c r="A32" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="C32" s="14"/>
+      <c r="D32" s="14" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" s="10" customFormat="1" ht="30" customHeight="1">
+      <c r="A33" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="C33" s="14"/>
+      <c r="D33" s="14" t="s">
+        <v>240</v>
+      </c>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2"/>
+    </row>
+    <row r="34" spans="1:6" s="10" customFormat="1" ht="30" customHeight="1">
+      <c r="A34" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="B34" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="C34" s="14"/>
+      <c r="D34" s="14" t="s">
+        <v>215</v>
+      </c>
+      <c r="E34" s="2"/>
+      <c r="F34" s="2"/>
+    </row>
+    <row r="35" spans="1:6" s="10" customFormat="1" ht="30" customHeight="1">
+      <c r="A35" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="C35" s="14"/>
+      <c r="D35" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="E35" s="2"/>
+      <c r="F35" s="2"/>
+    </row>
+    <row r="36" spans="1:6" s="10" customFormat="1" ht="30" customHeight="1">
+      <c r="A36" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="B36" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="C36" s="14"/>
+      <c r="D36" s="14" t="s">
+        <v>216</v>
+      </c>
+      <c r="E36" s="2"/>
+      <c r="F36" s="2"/>
+    </row>
+    <row r="37" spans="1:6" s="10" customFormat="1" ht="30" customHeight="1">
+      <c r="A37" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="C37" s="14"/>
+      <c r="D37" s="14" t="s">
+        <v>217</v>
+      </c>
+      <c r="E37" s="2"/>
+      <c r="F37" s="2"/>
+    </row>
+    <row r="38" spans="1:6" s="10" customFormat="1" ht="30" customHeight="1">
+      <c r="A38" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="B38" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="C38" s="14"/>
+      <c r="D38" s="14" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" s="10" customFormat="1" ht="30" customHeight="1">
+      <c r="A39" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="B39" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="C39" s="14"/>
+      <c r="D39" s="14" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" s="10" customFormat="1" ht="30" customHeight="1">
+      <c r="A40" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="B40" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="C40" s="14"/>
+      <c r="D40" s="14" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" s="10" customFormat="1" ht="30" customHeight="1">
+      <c r="A41" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="B41" s="6" t="s">
+        <v>198</v>
+      </c>
+      <c r="C41" s="14"/>
+      <c r="D41" s="14" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" s="10" customFormat="1" ht="30" customHeight="1">
+      <c r="A42" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="B42" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="C42" s="14"/>
+      <c r="D42" s="14" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" s="10" customFormat="1" ht="30" customHeight="1">
+      <c r="A43" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="B43" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="C43" s="14"/>
+      <c r="D43" s="14" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" s="10" customFormat="1" ht="30" customHeight="1">
+      <c r="A44" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="B44" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="C44" s="14"/>
+      <c r="D44" s="14" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" s="10" customFormat="1" ht="30" customHeight="1">
+      <c r="A45" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="B45" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="C45" s="14"/>
+      <c r="D45" s="14" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" s="10" customFormat="1" ht="30" customHeight="1">
+      <c r="A46" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="B46" s="6" t="s">
+        <v>195</v>
+      </c>
+      <c r="C46" s="14"/>
+      <c r="D46" s="14" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" s="10" customFormat="1" ht="30" customHeight="1">
+      <c r="A47" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="B47" s="6" t="s">
+        <v>196</v>
+      </c>
+      <c r="C47" s="14"/>
+      <c r="D47" s="14" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" s="10" customFormat="1" ht="30" customHeight="1">
+      <c r="A48" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="B48" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="C48" s="14"/>
+      <c r="D48" s="14" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" s="10" customFormat="1" ht="30" customHeight="1">
+      <c r="A49" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="B49" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="C49" s="14"/>
+      <c r="D49" s="14" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" s="10" customFormat="1" ht="30" customHeight="1">
+      <c r="A50" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="B50" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="C50" s="14"/>
+      <c r="D50" s="14" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" s="10" customFormat="1" ht="30" customHeight="1">
+      <c r="A51" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="B51" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="C51" s="14"/>
+      <c r="D51" s="14" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" s="10" customFormat="1" ht="30" customHeight="1">
+      <c r="A52" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="B52" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="C52" s="14"/>
+      <c r="D52" s="14" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" s="10" customFormat="1" ht="30" customHeight="1">
+      <c r="A53" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="B53" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="C53" s="14"/>
+      <c r="D53" s="14" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" s="10" customFormat="1" ht="30" customHeight="1">
+      <c r="A54" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="B54" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="C54" s="14"/>
+      <c r="D54" s="14" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" s="10" customFormat="1" ht="30" customHeight="1">
+      <c r="A55" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="B55" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="C55" s="14"/>
+      <c r="D55" s="14" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" s="10" customFormat="1" ht="30" customHeight="1">
+      <c r="A56" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="B56" s="6" t="s">
+        <v>206</v>
+      </c>
+      <c r="C56" s="14"/>
+      <c r="D56" s="14" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" s="10" customFormat="1" ht="30" customHeight="1">
+      <c r="A57" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="B57" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="C57" s="14"/>
+      <c r="D57" s="14" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" s="10" customFormat="1" ht="30" customHeight="1">
+      <c r="A58" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="B58" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="C58" s="14" t="s">
+        <v>249</v>
+      </c>
+      <c r="D58" s="14"/>
+    </row>
+    <row r="59" spans="1:4" s="10" customFormat="1" ht="30" customHeight="1">
+      <c r="A59" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="B59" s="6" t="s">
+        <v>209</v>
+      </c>
+      <c r="C59" s="14" t="s">
+        <v>249</v>
+      </c>
+      <c r="D59" s="14"/>
+    </row>
+    <row r="60" spans="1:4" s="10" customFormat="1" ht="30" customHeight="1">
+      <c r="A60" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="B60" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="C60" s="14" t="s">
+        <v>249</v>
+      </c>
+      <c r="D60" s="14"/>
+    </row>
+    <row r="61" spans="1:4" s="10" customFormat="1" ht="30" customHeight="1">
+      <c r="A61" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="B61" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="C61" s="15"/>
+      <c r="D61" s="15" t="s">
+        <v>98</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -2196,9 +3087,168 @@
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
+  <dimension ref="A1:E21"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="1" width="23.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="75.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" style="10" customWidth="1"/>
+    <col min="4" max="4" width="26.28515625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="33.7109375" style="2" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="18" customHeight="1"/>
+    <row r="2" spans="1:5" ht="18" customHeight="1"/>
+    <row r="3" spans="1:5" ht="18" customHeight="1"/>
+    <row r="4" spans="1:5" ht="18" customHeight="1"/>
+    <row r="5" spans="1:5" ht="18" customHeight="1"/>
+    <row r="6" spans="1:5">
+      <c r="A6" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="35.1" customHeight="1">
+      <c r="A13" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D13" s="17" t="s">
+        <v>110</v>
+      </c>
+      <c r="E13" s="17" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="30" customHeight="1">
+      <c r="A14" s="6" t="s">
+        <v>341</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D14" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="E14" s="13" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="30" customHeight="1">
+      <c r="A15" s="6" t="s">
+        <v>251</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>347</v>
+      </c>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
+    </row>
+    <row r="16" spans="1:5" ht="30" customHeight="1">
+      <c r="A16" s="6" t="s">
+        <v>342</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="D16" s="15"/>
+      <c r="E16" s="15"/>
+    </row>
+    <row r="17" spans="1:2" ht="30" customHeight="1">
+      <c r="A17" s="6" t="s">
+        <v>343</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="30" customHeight="1">
+      <c r="A18" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="30" customHeight="1">
+      <c r="A19" s="6" t="s">
+        <v>344</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="30" customHeight="1">
+      <c r="A20" s="6" t="s">
+        <v>345</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="30" customHeight="1">
+      <c r="A21" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>350</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr>
+    <tabColor rgb="FF00B050"/>
+  </sheetPr>
   <dimension ref="A1:F59"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
@@ -2745,14 +3795,14 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
   <dimension ref="A1:F38"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
@@ -3080,15 +4130,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:F41"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -3135,6 +4185,167 @@
         <v>6</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="35.1" customHeight="1">
+      <c r="A13" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D13" s="17" t="s">
+        <v>110</v>
+      </c>
+      <c r="E13" s="17" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="30" customHeight="1">
+      <c r="A14" s="6" t="s">
+        <v>341</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D14" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="E14" s="13" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="30" customHeight="1">
+      <c r="A15" s="6" t="s">
+        <v>251</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>347</v>
+      </c>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
+    </row>
+    <row r="16" spans="1:5" ht="30" customHeight="1">
+      <c r="A16" s="6" t="s">
+        <v>342</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="D16" s="15"/>
+      <c r="E16" s="15"/>
+    </row>
+    <row r="17" spans="1:2" ht="30" customHeight="1">
+      <c r="A17" s="6" t="s">
+        <v>343</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="30" customHeight="1">
+      <c r="A18" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="30" customHeight="1">
+      <c r="A19" s="6" t="s">
+        <v>344</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="30" customHeight="1">
+      <c r="A20" s="6" t="s">
+        <v>345</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="30" customHeight="1">
+      <c r="A21" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>350</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr>
+    <tabColor rgb="FF00B050"/>
+  </sheetPr>
+  <dimension ref="A1:F41"/>
+  <sheetViews>
+    <sheetView topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="1" width="23.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="75.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" style="10" customWidth="1"/>
+    <col min="4" max="4" width="26.28515625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="33.7109375" style="2" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="18" customHeight="1"/>
+    <row r="2" spans="1:5" ht="18" customHeight="1"/>
+    <row r="3" spans="1:5" ht="18" customHeight="1"/>
+    <row r="4" spans="1:5" ht="18" customHeight="1"/>
+    <row r="5" spans="1:5" ht="18" customHeight="1"/>
+    <row r="6" spans="1:5">
+      <c r="A6" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>31</v>
       </c>
     </row>
@@ -3416,7 +4627,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <tabColor rgb="FF00B050"/>
@@ -3461,7 +4672,7 @@
         <v>5</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -3669,7 +4880,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <tabColor rgb="FF00B050"/>
@@ -3714,7 +4925,7 @@
         <v>5</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -3994,14 +5205,16 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
   <dimension ref="A1:C23"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
@@ -4069,7 +5282,7 @@
         <v>1</v>
       </c>
       <c r="C13" s="17" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="30" customHeight="1">
@@ -4167,687 +5380,4 @@
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr>
-    <tabColor rgb="FF00B050"/>
-  </sheetPr>
-  <dimension ref="A1:F61"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
-  <cols>
-    <col min="1" max="1" width="23.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="75.7109375" style="1" customWidth="1"/>
-    <col min="3" max="4" width="35.7109375" style="10" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="2"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" ht="18" customHeight="1"/>
-    <row r="2" spans="1:4" ht="18" customHeight="1"/>
-    <row r="3" spans="1:4" ht="18" customHeight="1"/>
-    <row r="4" spans="1:4" ht="18" customHeight="1"/>
-    <row r="5" spans="1:4" ht="18" customHeight="1"/>
-    <row r="6" spans="1:4">
-      <c r="A6" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="29.25" customHeight="1">
-      <c r="C12" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="D12" s="16" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="35.1" customHeight="1">
-      <c r="A13" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B13" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="C13" s="17" t="s">
-        <v>343</v>
-      </c>
-      <c r="D13" s="17" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="30" customHeight="1">
-      <c r="A14" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C14" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="D14" s="13"/>
-    </row>
-    <row r="15" spans="1:4" ht="30" customHeight="1">
-      <c r="A15" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C15" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="D15" s="14"/>
-    </row>
-    <row r="16" spans="1:4" ht="30" customHeight="1">
-      <c r="A16" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="C16" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="D16" s="14"/>
-    </row>
-    <row r="17" spans="1:4" ht="30" customHeight="1">
-      <c r="A17" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="C17" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="D17" s="14"/>
-    </row>
-    <row r="18" spans="1:4" ht="30" customHeight="1">
-      <c r="A18" s="6" t="s">
-        <v>132</v>
-      </c>
-      <c r="B18" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="C18" s="14" t="s">
-        <v>95</v>
-      </c>
-      <c r="D18" s="14"/>
-    </row>
-    <row r="19" spans="1:4" ht="30" customHeight="1">
-      <c r="A19" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="B19" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="C19" s="14"/>
-      <c r="D19" s="14" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="30" customHeight="1">
-      <c r="A20" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="B20" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="C20" s="14"/>
-      <c r="D20" s="14" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="30" customHeight="1">
-      <c r="A21" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="B21" s="6" t="s">
-        <v>227</v>
-      </c>
-      <c r="C21" s="14" t="s">
-        <v>233</v>
-      </c>
-      <c r="D21" s="14"/>
-    </row>
-    <row r="22" spans="1:4" ht="30" customHeight="1">
-      <c r="A22" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="B22" s="6" t="s">
-        <v>228</v>
-      </c>
-      <c r="C22" s="14" t="s">
-        <v>234</v>
-      </c>
-      <c r="D22" s="14"/>
-    </row>
-    <row r="23" spans="1:4" ht="30" customHeight="1">
-      <c r="A23" s="6" t="s">
-        <v>137</v>
-      </c>
-      <c r="B23" s="6" t="s">
-        <v>231</v>
-      </c>
-      <c r="C23" s="14" t="s">
-        <v>235</v>
-      </c>
-      <c r="D23" s="14"/>
-    </row>
-    <row r="24" spans="1:4" ht="30" customHeight="1">
-      <c r="A24" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="B24" s="6" t="s">
-        <v>229</v>
-      </c>
-      <c r="C24" s="14" t="s">
-        <v>236</v>
-      </c>
-      <c r="D24" s="14"/>
-    </row>
-    <row r="25" spans="1:4" ht="30" customHeight="1">
-      <c r="A25" s="6" t="s">
-        <v>139</v>
-      </c>
-      <c r="B25" s="6" t="s">
-        <v>177</v>
-      </c>
-      <c r="C25" s="14" t="s">
-        <v>190</v>
-      </c>
-      <c r="D25" s="14" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="30" customHeight="1">
-      <c r="A26" s="6" t="s">
-        <v>140</v>
-      </c>
-      <c r="B26" s="6" t="s">
-        <v>213</v>
-      </c>
-      <c r="C26" s="14" t="s">
-        <v>237</v>
-      </c>
-      <c r="D26" s="14"/>
-    </row>
-    <row r="27" spans="1:4" ht="30" customHeight="1">
-      <c r="A27" s="6" t="s">
-        <v>141</v>
-      </c>
-      <c r="B27" s="6" t="s">
-        <v>230</v>
-      </c>
-      <c r="C27" s="14" t="s">
-        <v>190</v>
-      </c>
-      <c r="D27" s="14" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="30" customHeight="1">
-      <c r="A28" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="B28" s="6" t="s">
-        <v>178</v>
-      </c>
-      <c r="C28" s="14" t="s">
-        <v>238</v>
-      </c>
-      <c r="D28" s="14"/>
-    </row>
-    <row r="29" spans="1:4" ht="30" customHeight="1">
-      <c r="A29" s="6" t="s">
-        <v>143</v>
-      </c>
-      <c r="B29" s="6" t="s">
-        <v>179</v>
-      </c>
-      <c r="C29" s="14"/>
-      <c r="D29" s="14" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" ht="30" customHeight="1">
-      <c r="A30" s="6" t="s">
-        <v>144</v>
-      </c>
-      <c r="B30" s="6" t="s">
-        <v>180</v>
-      </c>
-      <c r="C30" s="14"/>
-      <c r="D30" s="14" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" ht="30" customHeight="1">
-      <c r="A31" s="6" t="s">
-        <v>145</v>
-      </c>
-      <c r="B31" s="6" t="s">
-        <v>181</v>
-      </c>
-      <c r="C31" s="14"/>
-      <c r="D31" s="14" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" ht="30" customHeight="1">
-      <c r="A32" s="6" t="s">
-        <v>146</v>
-      </c>
-      <c r="B32" s="6" t="s">
-        <v>182</v>
-      </c>
-      <c r="C32" s="14"/>
-      <c r="D32" s="14" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" s="10" customFormat="1" ht="30" customHeight="1">
-      <c r="A33" s="6" t="s">
-        <v>147</v>
-      </c>
-      <c r="B33" s="6" t="s">
-        <v>183</v>
-      </c>
-      <c r="C33" s="14"/>
-      <c r="D33" s="14" t="s">
-        <v>240</v>
-      </c>
-      <c r="E33" s="2"/>
-      <c r="F33" s="2"/>
-    </row>
-    <row r="34" spans="1:6" s="10" customFormat="1" ht="30" customHeight="1">
-      <c r="A34" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="B34" s="6" t="s">
-        <v>184</v>
-      </c>
-      <c r="C34" s="14"/>
-      <c r="D34" s="14" t="s">
-        <v>215</v>
-      </c>
-      <c r="E34" s="2"/>
-      <c r="F34" s="2"/>
-    </row>
-    <row r="35" spans="1:6" s="10" customFormat="1" ht="30" customHeight="1">
-      <c r="A35" s="6" t="s">
-        <v>149</v>
-      </c>
-      <c r="B35" s="6" t="s">
-        <v>185</v>
-      </c>
-      <c r="C35" s="14"/>
-      <c r="D35" s="14" t="s">
-        <v>101</v>
-      </c>
-      <c r="E35" s="2"/>
-      <c r="F35" s="2"/>
-    </row>
-    <row r="36" spans="1:6" s="10" customFormat="1" ht="30" customHeight="1">
-      <c r="A36" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="B36" s="6" t="s">
-        <v>186</v>
-      </c>
-      <c r="C36" s="14"/>
-      <c r="D36" s="14" t="s">
-        <v>216</v>
-      </c>
-      <c r="E36" s="2"/>
-      <c r="F36" s="2"/>
-    </row>
-    <row r="37" spans="1:6" s="10" customFormat="1" ht="30" customHeight="1">
-      <c r="A37" s="6" t="s">
-        <v>151</v>
-      </c>
-      <c r="B37" s="6" t="s">
-        <v>187</v>
-      </c>
-      <c r="C37" s="14"/>
-      <c r="D37" s="14" t="s">
-        <v>217</v>
-      </c>
-      <c r="E37" s="2"/>
-      <c r="F37" s="2"/>
-    </row>
-    <row r="38" spans="1:6" s="10" customFormat="1" ht="30" customHeight="1">
-      <c r="A38" s="6" t="s">
-        <v>152</v>
-      </c>
-      <c r="B38" s="6" t="s">
-        <v>188</v>
-      </c>
-      <c r="C38" s="14"/>
-      <c r="D38" s="14" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" s="10" customFormat="1" ht="30" customHeight="1">
-      <c r="A39" s="6" t="s">
-        <v>153</v>
-      </c>
-      <c r="B39" s="6" t="s">
-        <v>189</v>
-      </c>
-      <c r="C39" s="14"/>
-      <c r="D39" s="14" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" s="10" customFormat="1" ht="30" customHeight="1">
-      <c r="A40" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="B40" s="6" t="s">
-        <v>190</v>
-      </c>
-      <c r="C40" s="14"/>
-      <c r="D40" s="14" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" s="10" customFormat="1" ht="30" customHeight="1">
-      <c r="A41" s="6" t="s">
-        <v>155</v>
-      </c>
-      <c r="B41" s="6" t="s">
-        <v>198</v>
-      </c>
-      <c r="C41" s="14"/>
-      <c r="D41" s="14" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" s="10" customFormat="1" ht="30" customHeight="1">
-      <c r="A42" s="6" t="s">
-        <v>156</v>
-      </c>
-      <c r="B42" s="6" t="s">
-        <v>191</v>
-      </c>
-      <c r="C42" s="14"/>
-      <c r="D42" s="14" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" s="10" customFormat="1" ht="30" customHeight="1">
-      <c r="A43" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="B43" s="6" t="s">
-        <v>192</v>
-      </c>
-      <c r="C43" s="14"/>
-      <c r="D43" s="14" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" s="10" customFormat="1" ht="30" customHeight="1">
-      <c r="A44" s="6" t="s">
-        <v>158</v>
-      </c>
-      <c r="B44" s="6" t="s">
-        <v>193</v>
-      </c>
-      <c r="C44" s="14"/>
-      <c r="D44" s="14" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" s="10" customFormat="1" ht="30" customHeight="1">
-      <c r="A45" s="6" t="s">
-        <v>159</v>
-      </c>
-      <c r="B45" s="6" t="s">
-        <v>194</v>
-      </c>
-      <c r="C45" s="14"/>
-      <c r="D45" s="14" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" s="10" customFormat="1" ht="30" customHeight="1">
-      <c r="A46" s="6" t="s">
-        <v>160</v>
-      </c>
-      <c r="B46" s="6" t="s">
-        <v>195</v>
-      </c>
-      <c r="C46" s="14"/>
-      <c r="D46" s="14" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" s="10" customFormat="1" ht="30" customHeight="1">
-      <c r="A47" s="6" t="s">
-        <v>161</v>
-      </c>
-      <c r="B47" s="6" t="s">
-        <v>196</v>
-      </c>
-      <c r="C47" s="14"/>
-      <c r="D47" s="14" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" s="10" customFormat="1" ht="30" customHeight="1">
-      <c r="A48" s="6" t="s">
-        <v>162</v>
-      </c>
-      <c r="B48" s="6" t="s">
-        <v>197</v>
-      </c>
-      <c r="C48" s="14"/>
-      <c r="D48" s="14" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" s="10" customFormat="1" ht="30" customHeight="1">
-      <c r="A49" s="6" t="s">
-        <v>163</v>
-      </c>
-      <c r="B49" s="6" t="s">
-        <v>199</v>
-      </c>
-      <c r="C49" s="14"/>
-      <c r="D49" s="14" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" s="10" customFormat="1" ht="30" customHeight="1">
-      <c r="A50" s="6" t="s">
-        <v>164</v>
-      </c>
-      <c r="B50" s="6" t="s">
-        <v>200</v>
-      </c>
-      <c r="C50" s="14"/>
-      <c r="D50" s="14" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" s="10" customFormat="1" ht="30" customHeight="1">
-      <c r="A51" s="6" t="s">
-        <v>165</v>
-      </c>
-      <c r="B51" s="6" t="s">
-        <v>201</v>
-      </c>
-      <c r="C51" s="14"/>
-      <c r="D51" s="14" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" s="10" customFormat="1" ht="30" customHeight="1">
-      <c r="A52" s="6" t="s">
-        <v>166</v>
-      </c>
-      <c r="B52" s="6" t="s">
-        <v>202</v>
-      </c>
-      <c r="C52" s="14"/>
-      <c r="D52" s="14" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" s="10" customFormat="1" ht="30" customHeight="1">
-      <c r="A53" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="B53" s="6" t="s">
-        <v>203</v>
-      </c>
-      <c r="C53" s="14"/>
-      <c r="D53" s="14" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" s="10" customFormat="1" ht="30" customHeight="1">
-      <c r="A54" s="6" t="s">
-        <v>168</v>
-      </c>
-      <c r="B54" s="6" t="s">
-        <v>204</v>
-      </c>
-      <c r="C54" s="14"/>
-      <c r="D54" s="14" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" s="10" customFormat="1" ht="30" customHeight="1">
-      <c r="A55" s="6" t="s">
-        <v>169</v>
-      </c>
-      <c r="B55" s="6" t="s">
-        <v>205</v>
-      </c>
-      <c r="C55" s="14"/>
-      <c r="D55" s="14" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" s="10" customFormat="1" ht="30" customHeight="1">
-      <c r="A56" s="6" t="s">
-        <v>170</v>
-      </c>
-      <c r="B56" s="6" t="s">
-        <v>206</v>
-      </c>
-      <c r="C56" s="14"/>
-      <c r="D56" s="14" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" s="10" customFormat="1" ht="30" customHeight="1">
-      <c r="A57" s="6" t="s">
-        <v>171</v>
-      </c>
-      <c r="B57" s="6" t="s">
-        <v>207</v>
-      </c>
-      <c r="C57" s="14"/>
-      <c r="D57" s="14" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" s="10" customFormat="1" ht="30" customHeight="1">
-      <c r="A58" s="6" t="s">
-        <v>172</v>
-      </c>
-      <c r="B58" s="6" t="s">
-        <v>208</v>
-      </c>
-      <c r="C58" s="14" t="s">
-        <v>249</v>
-      </c>
-      <c r="D58" s="14"/>
-    </row>
-    <row r="59" spans="1:4" s="10" customFormat="1" ht="30" customHeight="1">
-      <c r="A59" s="6" t="s">
-        <v>173</v>
-      </c>
-      <c r="B59" s="6" t="s">
-        <v>209</v>
-      </c>
-      <c r="C59" s="14" t="s">
-        <v>249</v>
-      </c>
-      <c r="D59" s="14"/>
-    </row>
-    <row r="60" spans="1:4" s="10" customFormat="1" ht="30" customHeight="1">
-      <c r="A60" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="B60" s="6" t="s">
-        <v>210</v>
-      </c>
-      <c r="C60" s="14" t="s">
-        <v>249</v>
-      </c>
-      <c r="D60" s="14"/>
-    </row>
-    <row r="61" spans="1:4" s="10" customFormat="1" ht="30" customHeight="1">
-      <c r="A61" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="B61" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="C61" s="15"/>
-      <c r="D61" s="15" t="s">
-        <v>98</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
 </file>